--- a/data/output/consumo_privado_dataset.xlsx
+++ b/data/output/consumo_privado_dataset.xlsx
@@ -233,6 +233,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -285,9 +288,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS1"/>
+  <dimension ref="A1:BS47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -805,6 +811,9896 @@
         <v>69</v>
       </c>
     </row>
+    <row r="2" spans="1:71">
+      <c r="A2" s="2">
+        <v>41364</v>
+      </c>
+      <c r="B2">
+        <v>9430.139999999999</v>
+      </c>
+      <c r="C2">
+        <v>4.126666666666666</v>
+      </c>
+      <c r="D2">
+        <v>4.126666666666666</v>
+      </c>
+      <c r="E2">
+        <v>12.38</v>
+      </c>
+      <c r="F2">
+        <v>61924.3</v>
+      </c>
+      <c r="G2">
+        <v>3382780.66</v>
+      </c>
+      <c r="H2">
+        <v>20026.55</v>
+      </c>
+      <c r="I2">
+        <v>18423.77</v>
+      </c>
+      <c r="J2">
+        <v>229962.61</v>
+      </c>
+      <c r="K2">
+        <v>1773389.92</v>
+      </c>
+      <c r="L2">
+        <v>18412.12</v>
+      </c>
+      <c r="M2">
+        <v>39736.91</v>
+      </c>
+      <c r="N2">
+        <v>1265148.32</v>
+      </c>
+      <c r="O2">
+        <v>328378.54</v>
+      </c>
+      <c r="P2">
+        <v>4149.02</v>
+      </c>
+      <c r="Q2">
+        <v>580.96</v>
+      </c>
+      <c r="R2">
+        <v>91.03999999999999</v>
+      </c>
+      <c r="S2">
+        <v>15.42</v>
+      </c>
+      <c r="T2">
+        <v>186.33</v>
+      </c>
+      <c r="U2">
+        <v>669.0599999999999</v>
+      </c>
+      <c r="V2">
+        <v>260.83</v>
+      </c>
+      <c r="W2">
+        <v>879.9400000000001</v>
+      </c>
+      <c r="X2">
+        <v>153.37</v>
+      </c>
+      <c r="Y2">
+        <v>1218.37</v>
+      </c>
+      <c r="Z2">
+        <v>93.62</v>
+      </c>
+      <c r="AA2">
+        <v>9704.43</v>
+      </c>
+      <c r="AB2">
+        <v>1887.01</v>
+      </c>
+      <c r="AC2">
+        <v>11591.43</v>
+      </c>
+      <c r="AD2">
+        <v>465.11</v>
+      </c>
+      <c r="AE2">
+        <v>12194.02</v>
+      </c>
+      <c r="AF2">
+        <v>11678.73</v>
+      </c>
+      <c r="AG2">
+        <v>118176.2</v>
+      </c>
+      <c r="AH2">
+        <v>258647.3</v>
+      </c>
+      <c r="AI2">
+        <v>376823.5</v>
+      </c>
+      <c r="AJ2">
+        <v>73675.39999999999</v>
+      </c>
+      <c r="AK2">
+        <v>176440</v>
+      </c>
+      <c r="AL2">
+        <v>82495.89999999999</v>
+      </c>
+      <c r="AM2">
+        <v>381389.6</v>
+      </c>
+      <c r="AN2">
+        <v>463885.6</v>
+      </c>
+      <c r="AO2">
+        <v>61758.39999999999</v>
+      </c>
+      <c r="AP2">
+        <v>6.163333333333334</v>
+      </c>
+      <c r="AQ2">
+        <v>13.50666666666667</v>
+      </c>
+      <c r="AR2">
+        <v>3.640000000000001</v>
+      </c>
+      <c r="AS2">
+        <v>7.411538461538461</v>
+      </c>
+      <c r="AT2">
+        <v>1.404615384615385</v>
+      </c>
+      <c r="AU2">
+        <v>1.749230769230769</v>
+      </c>
+      <c r="AV2">
+        <v>6.136153846153846</v>
+      </c>
+      <c r="AW2">
+        <v>8.379999999999999</v>
+      </c>
+      <c r="AX2">
+        <v>4.166923076923076</v>
+      </c>
+      <c r="AY2">
+        <v>7.770769230769229</v>
+      </c>
+      <c r="AZ2">
+        <v>13.56846153846154</v>
+      </c>
+      <c r="BA2">
+        <v>6.171538461538463</v>
+      </c>
+      <c r="BB2">
+        <v>2.79</v>
+      </c>
+      <c r="BC2">
+        <v>5.443333333333334</v>
+      </c>
+      <c r="BD2">
+        <v>109.3866666666667</v>
+      </c>
+      <c r="BE2">
+        <v>93.38</v>
+      </c>
+      <c r="BF2">
+        <v>90.24666666666667</v>
+      </c>
+      <c r="BG2">
+        <v>98.88333333333334</v>
+      </c>
+      <c r="BH2">
+        <v>99.73666666666668</v>
+      </c>
+      <c r="BI2">
+        <v>92.87333333333333</v>
+      </c>
+      <c r="BJ2">
+        <v>98.49333333333334</v>
+      </c>
+      <c r="BK2">
+        <v>93.15333333333335</v>
+      </c>
+      <c r="BL2">
+        <v>102.37</v>
+      </c>
+      <c r="BM2">
+        <v>98.20666666666666</v>
+      </c>
+      <c r="BN2">
+        <v>93.42</v>
+      </c>
+      <c r="BO2">
+        <v>302.79</v>
+      </c>
+      <c r="BP2">
+        <v>112.3833333333333</v>
+      </c>
+      <c r="BQ2">
+        <v>93.48</v>
+      </c>
+      <c r="BR2">
+        <v>94.91333333333334</v>
+      </c>
+      <c r="BS2">
+        <v>7.841922666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71">
+      <c r="A3" s="2">
+        <v>41455</v>
+      </c>
+      <c r="B3">
+        <v>11800.43</v>
+      </c>
+      <c r="C3">
+        <v>4.396666666666666</v>
+      </c>
+      <c r="D3">
+        <v>4.396666666666666</v>
+      </c>
+      <c r="E3">
+        <v>13.19</v>
+      </c>
+      <c r="F3">
+        <v>62960.39999999999</v>
+      </c>
+      <c r="G3">
+        <v>3519154.36</v>
+      </c>
+      <c r="H3">
+        <v>20557.1</v>
+      </c>
+      <c r="I3">
+        <v>25280.12</v>
+      </c>
+      <c r="J3">
+        <v>192368.52</v>
+      </c>
+      <c r="K3">
+        <v>1775236.16</v>
+      </c>
+      <c r="L3">
+        <v>17792.33</v>
+      </c>
+      <c r="M3">
+        <v>51635.66</v>
+      </c>
+      <c r="N3">
+        <v>1476906.35</v>
+      </c>
+      <c r="O3">
+        <v>275599.86</v>
+      </c>
+      <c r="P3">
+        <v>4589.35</v>
+      </c>
+      <c r="Q3">
+        <v>676.12</v>
+      </c>
+      <c r="R3">
+        <v>102.39</v>
+      </c>
+      <c r="S3">
+        <v>16.02</v>
+      </c>
+      <c r="T3">
+        <v>207.1</v>
+      </c>
+      <c r="U3">
+        <v>752.4200000000001</v>
+      </c>
+      <c r="V3">
+        <v>283.74</v>
+      </c>
+      <c r="W3">
+        <v>866.8399999999999</v>
+      </c>
+      <c r="X3">
+        <v>213</v>
+      </c>
+      <c r="Y3">
+        <v>1368.54</v>
+      </c>
+      <c r="Z3">
+        <v>103.15</v>
+      </c>
+      <c r="AA3">
+        <v>11792.2</v>
+      </c>
+      <c r="AB3">
+        <v>2925.45</v>
+      </c>
+      <c r="AC3">
+        <v>14717.65</v>
+      </c>
+      <c r="AD3">
+        <v>639.26</v>
+      </c>
+      <c r="AE3">
+        <v>12024.68</v>
+      </c>
+      <c r="AF3">
+        <v>11246.89</v>
+      </c>
+      <c r="AG3">
+        <v>121882.1</v>
+      </c>
+      <c r="AH3">
+        <v>262760.1</v>
+      </c>
+      <c r="AI3">
+        <v>384642.3</v>
+      </c>
+      <c r="AJ3">
+        <v>72329.5</v>
+      </c>
+      <c r="AK3">
+        <v>175212.4</v>
+      </c>
+      <c r="AL3">
+        <v>87974.70000000001</v>
+      </c>
+      <c r="AM3">
+        <v>386278.8</v>
+      </c>
+      <c r="AN3">
+        <v>474253.6</v>
+      </c>
+      <c r="AO3">
+        <v>60130.89999999999</v>
+      </c>
+      <c r="AP3">
+        <v>6.106666666666666</v>
+      </c>
+      <c r="AQ3">
+        <v>13.58</v>
+      </c>
+      <c r="AR3">
+        <v>3.691538461538461</v>
+      </c>
+      <c r="AS3">
+        <v>7.423076923076922</v>
+      </c>
+      <c r="AT3">
+        <v>1.444615384615385</v>
+      </c>
+      <c r="AU3">
+        <v>1.685384615384615</v>
+      </c>
+      <c r="AV3">
+        <v>6.036923076923076</v>
+      </c>
+      <c r="AW3">
+        <v>8.376153846153846</v>
+      </c>
+      <c r="AX3">
+        <v>4.15923076923077</v>
+      </c>
+      <c r="AY3">
+        <v>7.75846153846154</v>
+      </c>
+      <c r="AZ3">
+        <v>13.62076923076923</v>
+      </c>
+      <c r="BA3">
+        <v>6.116153846153846</v>
+      </c>
+      <c r="BB3">
+        <v>2.856666666666667</v>
+      </c>
+      <c r="BC3">
+        <v>5.45</v>
+      </c>
+      <c r="BD3">
+        <v>99.09666666666665</v>
+      </c>
+      <c r="BE3">
+        <v>91.58333333333333</v>
+      </c>
+      <c r="BF3">
+        <v>102.2033333333333</v>
+      </c>
+      <c r="BG3">
+        <v>99.41333333333334</v>
+      </c>
+      <c r="BH3">
+        <v>99.75999999999999</v>
+      </c>
+      <c r="BI3">
+        <v>97.69666666666666</v>
+      </c>
+      <c r="BJ3">
+        <v>98.38333333333333</v>
+      </c>
+      <c r="BK3">
+        <v>99.85666666666667</v>
+      </c>
+      <c r="BL3">
+        <v>98.39666666666666</v>
+      </c>
+      <c r="BM3">
+        <v>99.5</v>
+      </c>
+      <c r="BN3">
+        <v>99.17999999999999</v>
+      </c>
+      <c r="BO3">
+        <v>293.31</v>
+      </c>
+      <c r="BP3">
+        <v>97.47666666666667</v>
+      </c>
+      <c r="BQ3">
+        <v>99.46333333333332</v>
+      </c>
+      <c r="BR3">
+        <v>99.52</v>
+      </c>
+      <c r="BS3">
+        <v>7.800232857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71">
+      <c r="A4" s="2">
+        <v>41547</v>
+      </c>
+      <c r="B4">
+        <v>12004.06</v>
+      </c>
+      <c r="C4">
+        <v>4.456666666666667</v>
+      </c>
+      <c r="D4">
+        <v>4.456666666666667</v>
+      </c>
+      <c r="E4">
+        <v>13.37</v>
+      </c>
+      <c r="F4">
+        <v>68802.70000000001</v>
+      </c>
+      <c r="G4">
+        <v>3453331.68</v>
+      </c>
+      <c r="H4">
+        <v>18580.5</v>
+      </c>
+      <c r="I4">
+        <v>23445.33</v>
+      </c>
+      <c r="J4">
+        <v>130908.76</v>
+      </c>
+      <c r="K4">
+        <v>1451833.16</v>
+      </c>
+      <c r="L4">
+        <v>20839.21</v>
+      </c>
+      <c r="M4">
+        <v>46277.96000000001</v>
+      </c>
+      <c r="N4">
+        <v>1469661.63</v>
+      </c>
+      <c r="O4">
+        <v>195237.42</v>
+      </c>
+      <c r="P4">
+        <v>4394.379999999999</v>
+      </c>
+      <c r="Q4">
+        <v>711.6799999999999</v>
+      </c>
+      <c r="R4">
+        <v>105.04</v>
+      </c>
+      <c r="S4">
+        <v>15.55</v>
+      </c>
+      <c r="T4">
+        <v>204.36</v>
+      </c>
+      <c r="U4">
+        <v>735.12</v>
+      </c>
+      <c r="V4">
+        <v>299.81</v>
+      </c>
+      <c r="W4">
+        <v>788.71</v>
+      </c>
+      <c r="X4">
+        <v>134.37</v>
+      </c>
+      <c r="Y4">
+        <v>1296.32</v>
+      </c>
+      <c r="Z4">
+        <v>103.35</v>
+      </c>
+      <c r="AA4">
+        <v>11733.91</v>
+      </c>
+      <c r="AB4">
+        <v>2988.95</v>
+      </c>
+      <c r="AC4">
+        <v>14722.85</v>
+      </c>
+      <c r="AD4">
+        <v>739.8199999999999</v>
+      </c>
+      <c r="AE4">
+        <v>12452.5</v>
+      </c>
+      <c r="AF4">
+        <v>11691.26</v>
+      </c>
+      <c r="AG4">
+        <v>134531.3</v>
+      </c>
+      <c r="AH4">
+        <v>267898.6</v>
+      </c>
+      <c r="AI4">
+        <v>402429.8</v>
+      </c>
+      <c r="AJ4">
+        <v>71314.3</v>
+      </c>
+      <c r="AK4">
+        <v>174192.2</v>
+      </c>
+      <c r="AL4">
+        <v>89801.8</v>
+      </c>
+      <c r="AM4">
+        <v>393083.1</v>
+      </c>
+      <c r="AN4">
+        <v>482885</v>
+      </c>
+      <c r="AO4">
+        <v>59068.9</v>
+      </c>
+      <c r="AP4">
+        <v>6.080000000000001</v>
+      </c>
+      <c r="AQ4">
+        <v>13.62666666666667</v>
+      </c>
+      <c r="AR4">
+        <v>3.711538461538462</v>
+      </c>
+      <c r="AS4">
+        <v>7.41153846153846</v>
+      </c>
+      <c r="AT4">
+        <v>1.473846153846154</v>
+      </c>
+      <c r="AU4">
+        <v>1.674615384615385</v>
+      </c>
+      <c r="AV4">
+        <v>6.19</v>
+      </c>
+      <c r="AW4">
+        <v>8.407692307692308</v>
+      </c>
+      <c r="AX4">
+        <v>4.167692307692308</v>
+      </c>
+      <c r="AY4">
+        <v>7.783846153846154</v>
+      </c>
+      <c r="AZ4">
+        <v>13.68846153846154</v>
+      </c>
+      <c r="BA4">
+        <v>6.086923076923076</v>
+      </c>
+      <c r="BB4">
+        <v>2.903333333333334</v>
+      </c>
+      <c r="BC4">
+        <v>5.473333333333334</v>
+      </c>
+      <c r="BD4">
+        <v>92.94000000000001</v>
+      </c>
+      <c r="BE4">
+        <v>102.5333333333333</v>
+      </c>
+      <c r="BF4">
+        <v>101.3366666666667</v>
+      </c>
+      <c r="BG4">
+        <v>99.39333333333333</v>
+      </c>
+      <c r="BH4">
+        <v>96.43000000000001</v>
+      </c>
+      <c r="BI4">
+        <v>99.92666666666666</v>
+      </c>
+      <c r="BJ4">
+        <v>99.12666666666667</v>
+      </c>
+      <c r="BK4">
+        <v>97.94333333333333</v>
+      </c>
+      <c r="BL4">
+        <v>99.00333333333333</v>
+      </c>
+      <c r="BM4">
+        <v>100.2633333333333</v>
+      </c>
+      <c r="BN4">
+        <v>97.87</v>
+      </c>
+      <c r="BO4">
+        <v>277.23</v>
+      </c>
+      <c r="BP4">
+        <v>103.57</v>
+      </c>
+      <c r="BQ4">
+        <v>104.8666666666667</v>
+      </c>
+      <c r="BR4">
+        <v>104.1133333333333</v>
+      </c>
+      <c r="BS4">
+        <v>7.884066847826086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71">
+      <c r="A5" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B5">
+        <v>13766.49</v>
+      </c>
+      <c r="C5">
+        <v>4.390000000000001</v>
+      </c>
+      <c r="D5">
+        <v>4.390000000000001</v>
+      </c>
+      <c r="E5">
+        <v>13.17</v>
+      </c>
+      <c r="F5">
+        <v>67978.29999999999</v>
+      </c>
+      <c r="G5">
+        <v>3439032.27</v>
+      </c>
+      <c r="H5">
+        <v>32281.93</v>
+      </c>
+      <c r="I5">
+        <v>29219.07</v>
+      </c>
+      <c r="J5">
+        <v>171191.35</v>
+      </c>
+      <c r="K5">
+        <v>1464416.88</v>
+      </c>
+      <c r="L5">
+        <v>26770.59</v>
+      </c>
+      <c r="M5">
+        <v>39644.71000000001</v>
+      </c>
+      <c r="N5">
+        <v>1445970.06</v>
+      </c>
+      <c r="O5">
+        <v>220879.99</v>
+      </c>
+      <c r="P5">
+        <v>4385.18</v>
+      </c>
+      <c r="Q5">
+        <v>643.48</v>
+      </c>
+      <c r="R5">
+        <v>142.81</v>
+      </c>
+      <c r="S5">
+        <v>23.29</v>
+      </c>
+      <c r="T5">
+        <v>271.9</v>
+      </c>
+      <c r="U5">
+        <v>729.29</v>
+      </c>
+      <c r="V5">
+        <v>337.62</v>
+      </c>
+      <c r="W5">
+        <v>774.8</v>
+      </c>
+      <c r="X5">
+        <v>136.19</v>
+      </c>
+      <c r="Y5">
+        <v>1218.94</v>
+      </c>
+      <c r="Z5">
+        <v>106.8</v>
+      </c>
+      <c r="AA5">
+        <v>12324.74</v>
+      </c>
+      <c r="AB5">
+        <v>4912.280000000001</v>
+      </c>
+      <c r="AC5">
+        <v>17237.01</v>
+      </c>
+      <c r="AD5">
+        <v>685.3199999999999</v>
+      </c>
+      <c r="AE5">
+        <v>12587.98</v>
+      </c>
+      <c r="AF5">
+        <v>11718.57</v>
+      </c>
+      <c r="AG5">
+        <v>139953.1</v>
+      </c>
+      <c r="AH5">
+        <v>277387.2</v>
+      </c>
+      <c r="AI5">
+        <v>417340.1</v>
+      </c>
+      <c r="AJ5">
+        <v>75193.5</v>
+      </c>
+      <c r="AK5">
+        <v>179517.1</v>
+      </c>
+      <c r="AL5">
+        <v>91222.8</v>
+      </c>
+      <c r="AM5">
+        <v>402691.4</v>
+      </c>
+      <c r="AN5">
+        <v>493914.1</v>
+      </c>
+      <c r="AO5">
+        <v>62689.5</v>
+      </c>
+      <c r="AP5">
+        <v>6.066666666666666</v>
+      </c>
+      <c r="AQ5">
+        <v>13.68</v>
+      </c>
+      <c r="AR5">
+        <v>3.715384615384616</v>
+      </c>
+      <c r="AS5">
+        <v>7.403846153846155</v>
+      </c>
+      <c r="AT5">
+        <v>1.482307692307692</v>
+      </c>
+      <c r="AU5">
+        <v>1.705384615384615</v>
+      </c>
+      <c r="AV5">
+        <v>6.181538461538461</v>
+      </c>
+      <c r="AW5">
+        <v>8.428461538461537</v>
+      </c>
+      <c r="AX5">
+        <v>4.153846153846154</v>
+      </c>
+      <c r="AY5">
+        <v>7.859230769230768</v>
+      </c>
+      <c r="AZ5">
+        <v>13.73692307692308</v>
+      </c>
+      <c r="BA5">
+        <v>6.071538461538461</v>
+      </c>
+      <c r="BB5">
+        <v>2.93</v>
+      </c>
+      <c r="BC5">
+        <v>5.476666666666667</v>
+      </c>
+      <c r="BD5">
+        <v>98.57666666666667</v>
+      </c>
+      <c r="BE5">
+        <v>112.5066666666667</v>
+      </c>
+      <c r="BF5">
+        <v>106.2166666666667</v>
+      </c>
+      <c r="BG5">
+        <v>102.3066666666667</v>
+      </c>
+      <c r="BH5">
+        <v>104.07</v>
+      </c>
+      <c r="BI5">
+        <v>109.5033333333333</v>
+      </c>
+      <c r="BJ5">
+        <v>103.9966666666667</v>
+      </c>
+      <c r="BK5">
+        <v>109.0466666666667</v>
+      </c>
+      <c r="BL5">
+        <v>100.2266666666667</v>
+      </c>
+      <c r="BM5">
+        <v>102.03</v>
+      </c>
+      <c r="BN5">
+        <v>109.53</v>
+      </c>
+      <c r="BO5">
+        <v>326.68</v>
+      </c>
+      <c r="BP5">
+        <v>86.57666666666667</v>
+      </c>
+      <c r="BQ5">
+        <v>102.1866666666667</v>
+      </c>
+      <c r="BR5">
+        <v>101.4466666666667</v>
+      </c>
+      <c r="BS5">
+        <v>7.907964565217393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71">
+      <c r="A6" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B6">
+        <v>10326.9</v>
+      </c>
+      <c r="C6">
+        <v>3.63</v>
+      </c>
+      <c r="D6">
+        <v>3.63</v>
+      </c>
+      <c r="E6">
+        <v>10.89</v>
+      </c>
+      <c r="F6">
+        <v>81291.39999999999</v>
+      </c>
+      <c r="G6">
+        <v>3364878.23</v>
+      </c>
+      <c r="H6">
+        <v>10652.51</v>
+      </c>
+      <c r="I6">
+        <v>18461.2</v>
+      </c>
+      <c r="J6">
+        <v>218526.42</v>
+      </c>
+      <c r="K6">
+        <v>1721894.64</v>
+      </c>
+      <c r="L6">
+        <v>18385.24</v>
+      </c>
+      <c r="M6">
+        <v>37901.89</v>
+      </c>
+      <c r="N6">
+        <v>1374466.99</v>
+      </c>
+      <c r="O6">
+        <v>324870.91</v>
+      </c>
+      <c r="P6">
+        <v>4379.73</v>
+      </c>
+      <c r="Q6">
+        <v>596.46</v>
+      </c>
+      <c r="R6">
+        <v>116.2</v>
+      </c>
+      <c r="S6">
+        <v>13.53</v>
+      </c>
+      <c r="T6">
+        <v>214.11</v>
+      </c>
+      <c r="U6">
+        <v>695.4100000000001</v>
+      </c>
+      <c r="V6">
+        <v>278.95</v>
+      </c>
+      <c r="W6">
+        <v>1001.9</v>
+      </c>
+      <c r="X6">
+        <v>119.56</v>
+      </c>
+      <c r="Y6">
+        <v>1242.96</v>
+      </c>
+      <c r="Z6">
+        <v>100.54</v>
+      </c>
+      <c r="AA6">
+        <v>10136.34</v>
+      </c>
+      <c r="AB6">
+        <v>1760.06</v>
+      </c>
+      <c r="AC6">
+        <v>11896.39</v>
+      </c>
+      <c r="AD6">
+        <v>694.0700000000001</v>
+      </c>
+      <c r="AE6">
+        <v>12621.39</v>
+      </c>
+      <c r="AF6">
+        <v>11925.44</v>
+      </c>
+      <c r="AG6">
+        <v>138797</v>
+      </c>
+      <c r="AH6">
+        <v>280942.2</v>
+      </c>
+      <c r="AI6">
+        <v>419739.2</v>
+      </c>
+      <c r="AJ6">
+        <v>74303.79999999999</v>
+      </c>
+      <c r="AK6">
+        <v>182997.2</v>
+      </c>
+      <c r="AL6">
+        <v>95218.79999999999</v>
+      </c>
+      <c r="AM6">
+        <v>411043.6</v>
+      </c>
+      <c r="AN6">
+        <v>506262.4</v>
+      </c>
+      <c r="AO6">
+        <v>61971.50000000001</v>
+      </c>
+      <c r="AP6">
+        <v>6.07</v>
+      </c>
+      <c r="AQ6">
+        <v>13.79666666666667</v>
+      </c>
+      <c r="AR6">
+        <v>3.689230769230769</v>
+      </c>
+      <c r="AS6">
+        <v>7.392307692307694</v>
+      </c>
+      <c r="AT6">
+        <v>1.474615384615385</v>
+      </c>
+      <c r="AU6">
+        <v>1.736153846153846</v>
+      </c>
+      <c r="AV6">
+        <v>6.277692307692307</v>
+      </c>
+      <c r="AW6">
+        <v>8.471538461538461</v>
+      </c>
+      <c r="AX6">
+        <v>4.138461538461539</v>
+      </c>
+      <c r="AY6">
+        <v>7.897692307692306</v>
+      </c>
+      <c r="AZ6">
+        <v>13.86307692307692</v>
+      </c>
+      <c r="BA6">
+        <v>6.066923076923076</v>
+      </c>
+      <c r="BB6">
+        <v>2.936666666666667</v>
+      </c>
+      <c r="BC6">
+        <v>5.493333333333333</v>
+      </c>
+      <c r="BD6">
+        <v>110.9433333333333</v>
+      </c>
+      <c r="BE6">
+        <v>105.45</v>
+      </c>
+      <c r="BF6">
+        <v>100.5933333333333</v>
+      </c>
+      <c r="BG6">
+        <v>101.2633333333333</v>
+      </c>
+      <c r="BH6">
+        <v>103.3833333333333</v>
+      </c>
+      <c r="BI6">
+        <v>95.79333333333334</v>
+      </c>
+      <c r="BJ6">
+        <v>101.2633333333333</v>
+      </c>
+      <c r="BK6">
+        <v>97.38</v>
+      </c>
+      <c r="BL6">
+        <v>107.4866666666667</v>
+      </c>
+      <c r="BM6">
+        <v>102.29</v>
+      </c>
+      <c r="BN6">
+        <v>100.1466666666667</v>
+      </c>
+      <c r="BO6">
+        <v>315.95</v>
+      </c>
+      <c r="BP6">
+        <v>113.45</v>
+      </c>
+      <c r="BQ6">
+        <v>104.1666666666667</v>
+      </c>
+      <c r="BR6">
+        <v>99.78333333333335</v>
+      </c>
+      <c r="BS6">
+        <v>7.78148122222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71">
+      <c r="A7" s="2">
+        <v>41820</v>
+      </c>
+      <c r="B7">
+        <v>12334.79</v>
+      </c>
+      <c r="C7">
+        <v>3.206666666666667</v>
+      </c>
+      <c r="D7">
+        <v>3.206666666666667</v>
+      </c>
+      <c r="E7">
+        <v>9.620000000000001</v>
+      </c>
+      <c r="F7">
+        <v>70068.8</v>
+      </c>
+      <c r="G7">
+        <v>3561993.09</v>
+      </c>
+      <c r="H7">
+        <v>15118.2</v>
+      </c>
+      <c r="I7">
+        <v>23170.25</v>
+      </c>
+      <c r="J7">
+        <v>210861.05</v>
+      </c>
+      <c r="K7">
+        <v>1767892.78</v>
+      </c>
+      <c r="L7">
+        <v>22767.88</v>
+      </c>
+      <c r="M7">
+        <v>41721.78</v>
+      </c>
+      <c r="N7">
+        <v>1611100.28</v>
+      </c>
+      <c r="O7">
+        <v>297459.28</v>
+      </c>
+      <c r="P7">
+        <v>4632.23</v>
+      </c>
+      <c r="Q7">
+        <v>674.05</v>
+      </c>
+      <c r="R7">
+        <v>108.9</v>
+      </c>
+      <c r="S7">
+        <v>19.76</v>
+      </c>
+      <c r="T7">
+        <v>219.09</v>
+      </c>
+      <c r="U7">
+        <v>769.91</v>
+      </c>
+      <c r="V7">
+        <v>277.23</v>
+      </c>
+      <c r="W7">
+        <v>901.4499999999999</v>
+      </c>
+      <c r="X7">
+        <v>196.13</v>
+      </c>
+      <c r="Y7">
+        <v>1349</v>
+      </c>
+      <c r="Z7">
+        <v>116.58</v>
+      </c>
+      <c r="AA7">
+        <v>12247.42</v>
+      </c>
+      <c r="AB7">
+        <v>3760.75</v>
+      </c>
+      <c r="AC7">
+        <v>16008.17</v>
+      </c>
+      <c r="AD7">
+        <v>727.79</v>
+      </c>
+      <c r="AE7">
+        <v>12845.06</v>
+      </c>
+      <c r="AF7">
+        <v>12036.56</v>
+      </c>
+      <c r="AG7">
+        <v>144377.8</v>
+      </c>
+      <c r="AH7">
+        <v>286002.7</v>
+      </c>
+      <c r="AI7">
+        <v>430380.6</v>
+      </c>
+      <c r="AJ7">
+        <v>75240</v>
+      </c>
+      <c r="AK7">
+        <v>184572.6</v>
+      </c>
+      <c r="AL7">
+        <v>95906.3</v>
+      </c>
+      <c r="AM7">
+        <v>417864.7</v>
+      </c>
+      <c r="AN7">
+        <v>513771.1</v>
+      </c>
+      <c r="AO7">
+        <v>62918.7</v>
+      </c>
+      <c r="AP7">
+        <v>6.06</v>
+      </c>
+      <c r="AQ7">
+        <v>13.81666666666667</v>
+      </c>
+      <c r="AR7">
+        <v>3.637692307692308</v>
+      </c>
+      <c r="AS7">
+        <v>7.375384615384617</v>
+      </c>
+      <c r="AT7">
+        <v>1.487692307692308</v>
+      </c>
+      <c r="AU7">
+        <v>1.733076923076923</v>
+      </c>
+      <c r="AV7">
+        <v>6.14</v>
+      </c>
+      <c r="AW7">
+        <v>8.418461538461539</v>
+      </c>
+      <c r="AX7">
+        <v>4</v>
+      </c>
+      <c r="AY7">
+        <v>8.005384615384617</v>
+      </c>
+      <c r="AZ7">
+        <v>13.87230769230769</v>
+      </c>
+      <c r="BA7">
+        <v>6.059230769230769</v>
+      </c>
+      <c r="BB7">
+        <v>2.876666666666666</v>
+      </c>
+      <c r="BC7">
+        <v>5.5</v>
+      </c>
+      <c r="BD7">
+        <v>100.47</v>
+      </c>
+      <c r="BE7">
+        <v>103.63</v>
+      </c>
+      <c r="BF7">
+        <v>107.0266666666667</v>
+      </c>
+      <c r="BG7">
+        <v>101.8533333333333</v>
+      </c>
+      <c r="BH7">
+        <v>104.3133333333333</v>
+      </c>
+      <c r="BI7">
+        <v>103.86</v>
+      </c>
+      <c r="BJ7">
+        <v>100.32</v>
+      </c>
+      <c r="BK7">
+        <v>101.32</v>
+      </c>
+      <c r="BL7">
+        <v>101.7366666666667</v>
+      </c>
+      <c r="BM7">
+        <v>103.7966666666667</v>
+      </c>
+      <c r="BN7">
+        <v>102.5566666666667</v>
+      </c>
+      <c r="BO7">
+        <v>312.68</v>
+      </c>
+      <c r="BP7">
+        <v>101.0666666666667</v>
+      </c>
+      <c r="BQ7">
+        <v>106.8266666666667</v>
+      </c>
+      <c r="BR7">
+        <v>106.5366666666667</v>
+      </c>
+      <c r="BS7">
+        <v>7.763099780219778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71">
+      <c r="A8" s="2">
+        <v>41912</v>
+      </c>
+      <c r="B8">
+        <v>12904.12</v>
+      </c>
+      <c r="C8">
+        <v>3.52</v>
+      </c>
+      <c r="D8">
+        <v>3.52</v>
+      </c>
+      <c r="E8">
+        <v>10.56</v>
+      </c>
+      <c r="F8">
+        <v>77355</v>
+      </c>
+      <c r="G8">
+        <v>3550552.819999999</v>
+      </c>
+      <c r="H8">
+        <v>17207.59</v>
+      </c>
+      <c r="I8">
+        <v>16760.04</v>
+      </c>
+      <c r="J8">
+        <v>146306.9</v>
+      </c>
+      <c r="K8">
+        <v>1543165.62</v>
+      </c>
+      <c r="L8">
+        <v>16759.96</v>
+      </c>
+      <c r="M8">
+        <v>31647.17</v>
+      </c>
+      <c r="N8">
+        <v>1583962.33</v>
+      </c>
+      <c r="O8">
+        <v>210438.93</v>
+      </c>
+      <c r="P8">
+        <v>4625.29</v>
+      </c>
+      <c r="Q8">
+        <v>667.0799999999999</v>
+      </c>
+      <c r="R8">
+        <v>107.56</v>
+      </c>
+      <c r="S8">
+        <v>21.34</v>
+      </c>
+      <c r="T8">
+        <v>249.3</v>
+      </c>
+      <c r="U8">
+        <v>787.42</v>
+      </c>
+      <c r="V8">
+        <v>324.59</v>
+      </c>
+      <c r="W8">
+        <v>837.79</v>
+      </c>
+      <c r="X8">
+        <v>157.77</v>
+      </c>
+      <c r="Y8">
+        <v>1351.07</v>
+      </c>
+      <c r="Z8">
+        <v>121.19</v>
+      </c>
+      <c r="AA8">
+        <v>12269.8</v>
+      </c>
+      <c r="AB8">
+        <v>3648.94</v>
+      </c>
+      <c r="AC8">
+        <v>15918.75</v>
+      </c>
+      <c r="AD8">
+        <v>767.87</v>
+      </c>
+      <c r="AE8">
+        <v>13518.65</v>
+      </c>
+      <c r="AF8">
+        <v>12719.22</v>
+      </c>
+      <c r="AG8">
+        <v>152505.2</v>
+      </c>
+      <c r="AH8">
+        <v>288109.5</v>
+      </c>
+      <c r="AI8">
+        <v>440614.7</v>
+      </c>
+      <c r="AJ8">
+        <v>76497.10000000001</v>
+      </c>
+      <c r="AK8">
+        <v>184860.4</v>
+      </c>
+      <c r="AL8">
+        <v>99541.8</v>
+      </c>
+      <c r="AM8">
+        <v>426033.5</v>
+      </c>
+      <c r="AN8">
+        <v>525575.3</v>
+      </c>
+      <c r="AO8">
+        <v>64152.7</v>
+      </c>
+      <c r="AP8">
+        <v>6.053333333333334</v>
+      </c>
+      <c r="AQ8">
+        <v>13.78</v>
+      </c>
+      <c r="AR8">
+        <v>3.641538461538462</v>
+      </c>
+      <c r="AS8">
+        <v>7.353846153846153</v>
+      </c>
+      <c r="AT8">
+        <v>1.522307692307692</v>
+      </c>
+      <c r="AU8">
+        <v>1.709230769230769</v>
+      </c>
+      <c r="AV8">
+        <v>6.125384615384615</v>
+      </c>
+      <c r="AW8">
+        <v>8.710769230769229</v>
+      </c>
+      <c r="AX8">
+        <v>2.076923076923077</v>
+      </c>
+      <c r="AY8">
+        <v>8.003076923076923</v>
+      </c>
+      <c r="AZ8">
+        <v>13.86461538461539</v>
+      </c>
+      <c r="BA8">
+        <v>6.058461538461539</v>
+      </c>
+      <c r="BB8">
+        <v>2.9</v>
+      </c>
+      <c r="BC8">
+        <v>5.466666666666666</v>
+      </c>
+      <c r="BD8">
+        <v>94.88666666666666</v>
+      </c>
+      <c r="BE8">
+        <v>99.74333333333334</v>
+      </c>
+      <c r="BF8">
+        <v>108.09</v>
+      </c>
+      <c r="BG8">
+        <v>102.8733333333333</v>
+      </c>
+      <c r="BH8">
+        <v>102.4266666666667</v>
+      </c>
+      <c r="BI8">
+        <v>104.9666666666667</v>
+      </c>
+      <c r="BJ8">
+        <v>102.44</v>
+      </c>
+      <c r="BK8">
+        <v>99.36000000000001</v>
+      </c>
+      <c r="BL8">
+        <v>102.6266666666667</v>
+      </c>
+      <c r="BM8">
+        <v>104.3433333333333</v>
+      </c>
+      <c r="BN8">
+        <v>101.7033333333333</v>
+      </c>
+      <c r="BO8">
+        <v>300.67</v>
+      </c>
+      <c r="BP8">
+        <v>106.25</v>
+      </c>
+      <c r="BQ8">
+        <v>111.7333333333333</v>
+      </c>
+      <c r="BR8">
+        <v>103.03</v>
+      </c>
+      <c r="BS8">
+        <v>7.767900108695654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71">
+      <c r="A9" s="2">
+        <v>42004</v>
+      </c>
+      <c r="B9">
+        <v>14782.49</v>
+      </c>
+      <c r="C9">
+        <v>3.323333333333333</v>
+      </c>
+      <c r="D9">
+        <v>3.323333333333333</v>
+      </c>
+      <c r="E9">
+        <v>9.969999999999999</v>
+      </c>
+      <c r="F9">
+        <v>77509.79999999999</v>
+      </c>
+      <c r="G9">
+        <v>3685240.73</v>
+      </c>
+      <c r="H9">
+        <v>19116.75</v>
+      </c>
+      <c r="I9">
+        <v>15925.3</v>
+      </c>
+      <c r="J9">
+        <v>162167.67</v>
+      </c>
+      <c r="K9">
+        <v>1607508.05</v>
+      </c>
+      <c r="L9">
+        <v>22725.78</v>
+      </c>
+      <c r="M9">
+        <v>29016.96</v>
+      </c>
+      <c r="N9">
+        <v>1548085.41</v>
+      </c>
+      <c r="O9">
+        <v>206870.83</v>
+      </c>
+      <c r="P9">
+        <v>4644.549999999999</v>
+      </c>
+      <c r="Q9">
+        <v>714.23</v>
+      </c>
+      <c r="R9">
+        <v>137.75</v>
+      </c>
+      <c r="S9">
+        <v>25.83</v>
+      </c>
+      <c r="T9">
+        <v>264.76</v>
+      </c>
+      <c r="U9">
+        <v>774.05</v>
+      </c>
+      <c r="V9">
+        <v>353.21</v>
+      </c>
+      <c r="W9">
+        <v>793.23</v>
+      </c>
+      <c r="X9">
+        <v>165.5</v>
+      </c>
+      <c r="Y9">
+        <v>1305.49</v>
+      </c>
+      <c r="Z9">
+        <v>110.43</v>
+      </c>
+      <c r="AA9">
+        <v>12817.64</v>
+      </c>
+      <c r="AB9">
+        <v>4177.76</v>
+      </c>
+      <c r="AC9">
+        <v>16995.38</v>
+      </c>
+      <c r="AD9">
+        <v>751.16</v>
+      </c>
+      <c r="AE9">
+        <v>13239.21</v>
+      </c>
+      <c r="AF9">
+        <v>12415.66</v>
+      </c>
+      <c r="AG9">
+        <v>156097.7</v>
+      </c>
+      <c r="AH9">
+        <v>295311.8</v>
+      </c>
+      <c r="AI9">
+        <v>451409.5</v>
+      </c>
+      <c r="AJ9">
+        <v>80904.89999999999</v>
+      </c>
+      <c r="AK9">
+        <v>192055.9</v>
+      </c>
+      <c r="AL9">
+        <v>101026.1</v>
+      </c>
+      <c r="AM9">
+        <v>436291.2</v>
+      </c>
+      <c r="AN9">
+        <v>537317.3</v>
+      </c>
+      <c r="AO9">
+        <v>67570.70000000001</v>
+      </c>
+      <c r="AP9">
+        <v>6.003333333333333</v>
+      </c>
+      <c r="AQ9">
+        <v>13.69</v>
+      </c>
+      <c r="AR9">
+        <v>3.660714285714286</v>
+      </c>
+      <c r="AS9">
+        <v>7.335</v>
+      </c>
+      <c r="AT9">
+        <v>1.542142857142857</v>
+      </c>
+      <c r="AU9">
+        <v>1.674285714285714</v>
+      </c>
+      <c r="AV9">
+        <v>6.062857142857142</v>
+      </c>
+      <c r="AW9">
+        <v>8.668571428571429</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>7.985714285714286</v>
+      </c>
+      <c r="AZ9">
+        <v>13.74857142857143</v>
+      </c>
+      <c r="BA9">
+        <v>6.017142857142858</v>
+      </c>
+      <c r="BB9">
+        <v>2.906666666666667</v>
+      </c>
+      <c r="BC9">
+        <v>5.48</v>
+      </c>
+      <c r="BD9">
+        <v>100.1166666666667</v>
+      </c>
+      <c r="BE9">
+        <v>117.25</v>
+      </c>
+      <c r="BF9">
+        <v>114.0933333333333</v>
+      </c>
+      <c r="BG9">
+        <v>108.2666666666667</v>
+      </c>
+      <c r="BH9">
+        <v>109.8733333333333</v>
+      </c>
+      <c r="BI9">
+        <v>116.3066666666667</v>
+      </c>
+      <c r="BJ9">
+        <v>110.58</v>
+      </c>
+      <c r="BK9">
+        <v>107.2</v>
+      </c>
+      <c r="BL9">
+        <v>106.58</v>
+      </c>
+      <c r="BM9">
+        <v>106.1766666666667</v>
+      </c>
+      <c r="BN9">
+        <v>114.1066666666667</v>
+      </c>
+      <c r="BO9">
+        <v>337.13</v>
+      </c>
+      <c r="BP9">
+        <v>90.08</v>
+      </c>
+      <c r="BQ9">
+        <v>114.27</v>
+      </c>
+      <c r="BR9">
+        <v>103.41</v>
+      </c>
+      <c r="BS9">
+        <v>7.628631739130435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71">
+      <c r="A10" s="2">
+        <v>42094</v>
+      </c>
+      <c r="B10">
+        <v>11855.61</v>
+      </c>
+      <c r="C10">
+        <v>2.396666666666667</v>
+      </c>
+      <c r="D10">
+        <v>2.396666666666667</v>
+      </c>
+      <c r="E10">
+        <v>7.19</v>
+      </c>
+      <c r="F10">
+        <v>75169.89999999999</v>
+      </c>
+      <c r="G10">
+        <v>3318537.88</v>
+      </c>
+      <c r="H10">
+        <v>19376.01</v>
+      </c>
+      <c r="I10">
+        <v>17285.98</v>
+      </c>
+      <c r="J10">
+        <v>215491.48</v>
+      </c>
+      <c r="K10">
+        <v>1690767.32</v>
+      </c>
+      <c r="L10">
+        <v>17926.47</v>
+      </c>
+      <c r="M10">
+        <v>31502.63</v>
+      </c>
+      <c r="N10">
+        <v>1533061.37</v>
+      </c>
+      <c r="O10">
+        <v>321809.76</v>
+      </c>
+      <c r="P10">
+        <v>4184.63</v>
+      </c>
+      <c r="Q10">
+        <v>592.97</v>
+      </c>
+      <c r="R10">
+        <v>116.62</v>
+      </c>
+      <c r="S10">
+        <v>17.91</v>
+      </c>
+      <c r="T10">
+        <v>242.31</v>
+      </c>
+      <c r="U10">
+        <v>741.55</v>
+      </c>
+      <c r="V10">
+        <v>295.3</v>
+      </c>
+      <c r="W10">
+        <v>626.29</v>
+      </c>
+      <c r="X10">
+        <v>169.25</v>
+      </c>
+      <c r="Y10">
+        <v>1271.98</v>
+      </c>
+      <c r="Z10">
+        <v>109.22</v>
+      </c>
+      <c r="AA10">
+        <v>12237.86</v>
+      </c>
+      <c r="AB10">
+        <v>2239.22</v>
+      </c>
+      <c r="AC10">
+        <v>14477.08</v>
+      </c>
+      <c r="AD10">
+        <v>768.5699999999999</v>
+      </c>
+      <c r="AE10">
+        <v>13116.25</v>
+      </c>
+      <c r="AF10">
+        <v>12330.19</v>
+      </c>
+      <c r="AG10">
+        <v>166151.7</v>
+      </c>
+      <c r="AH10">
+        <v>299523.7</v>
+      </c>
+      <c r="AI10">
+        <v>465675.2</v>
+      </c>
+      <c r="AJ10">
+        <v>83402.70000000001</v>
+      </c>
+      <c r="AK10">
+        <v>204749.4</v>
+      </c>
+      <c r="AL10">
+        <v>102439.8</v>
+      </c>
+      <c r="AM10">
+        <v>456414.8</v>
+      </c>
+      <c r="AN10">
+        <v>558854.6000000001</v>
+      </c>
+      <c r="AO10">
+        <v>70278.3</v>
+      </c>
+      <c r="AP10">
+        <v>5.946666666666666</v>
+      </c>
+      <c r="AQ10">
+        <v>13.48333333333333</v>
+      </c>
+      <c r="AR10">
+        <v>3.693076923076923</v>
+      </c>
+      <c r="AS10">
+        <v>7.319999999999999</v>
+      </c>
+      <c r="AT10">
+        <v>1.527692307692308</v>
+      </c>
+      <c r="AU10">
+        <v>1.696153846153846</v>
+      </c>
+      <c r="AV10">
+        <v>6.171538461538462</v>
+      </c>
+      <c r="AW10">
+        <v>8.440769230769231</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>7.953076923076924</v>
+      </c>
+      <c r="AZ10">
+        <v>13.57538461538461</v>
+      </c>
+      <c r="BA10">
+        <v>5.948461538461538</v>
+      </c>
+      <c r="BB10">
+        <v>2.92</v>
+      </c>
+      <c r="BC10">
+        <v>5.45</v>
+      </c>
+      <c r="BD10">
+        <v>112.9866666666667</v>
+      </c>
+      <c r="BE10">
+        <v>107.5966666666667</v>
+      </c>
+      <c r="BF10">
+        <v>105.08</v>
+      </c>
+      <c r="BG10">
+        <v>105.15</v>
+      </c>
+      <c r="BH10">
+        <v>105.9266666666667</v>
+      </c>
+      <c r="BI10">
+        <v>104.4866666666667</v>
+      </c>
+      <c r="BJ10">
+        <v>109.3533333333333</v>
+      </c>
+      <c r="BK10">
+        <v>99.58666666666666</v>
+      </c>
+      <c r="BL10">
+        <v>114.0166666666667</v>
+      </c>
+      <c r="BM10">
+        <v>106.6833333333333</v>
+      </c>
+      <c r="BN10">
+        <v>106.8433333333333</v>
+      </c>
+      <c r="BO10">
+        <v>344.68</v>
+      </c>
+      <c r="BP10">
+        <v>115.1266666666667</v>
+      </c>
+      <c r="BQ10">
+        <v>113.1766666666667</v>
+      </c>
+      <c r="BR10">
+        <v>103.9266666666667</v>
+      </c>
+      <c r="BS10">
+        <v>7.635624777777779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71">
+      <c r="A11" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B11">
+        <v>12492.36</v>
+      </c>
+      <c r="C11">
+        <v>2.506666666666666</v>
+      </c>
+      <c r="D11">
+        <v>2.506666666666666</v>
+      </c>
+      <c r="E11">
+        <v>7.52</v>
+      </c>
+      <c r="F11">
+        <v>70447.10000000001</v>
+      </c>
+      <c r="G11">
+        <v>3614670.01</v>
+      </c>
+      <c r="H11">
+        <v>13034.92</v>
+      </c>
+      <c r="I11">
+        <v>27618.04</v>
+      </c>
+      <c r="J11">
+        <v>220286.69</v>
+      </c>
+      <c r="K11">
+        <v>1746110.54</v>
+      </c>
+      <c r="L11">
+        <v>28140.58</v>
+      </c>
+      <c r="M11">
+        <v>35936.76</v>
+      </c>
+      <c r="N11">
+        <v>1703842.16</v>
+      </c>
+      <c r="O11">
+        <v>277195.78</v>
+      </c>
+      <c r="P11">
+        <v>4424.78</v>
+      </c>
+      <c r="Q11">
+        <v>594.08</v>
+      </c>
+      <c r="R11">
+        <v>122.5</v>
+      </c>
+      <c r="S11">
+        <v>27.04</v>
+      </c>
+      <c r="T11">
+        <v>266.12</v>
+      </c>
+      <c r="U11">
+        <v>766.88</v>
+      </c>
+      <c r="V11">
+        <v>310.36</v>
+      </c>
+      <c r="W11">
+        <v>708.22</v>
+      </c>
+      <c r="X11">
+        <v>167.08</v>
+      </c>
+      <c r="Y11">
+        <v>1337.89</v>
+      </c>
+      <c r="Z11">
+        <v>124.42</v>
+      </c>
+      <c r="AA11">
+        <v>12274.66</v>
+      </c>
+      <c r="AB11">
+        <v>3022.9</v>
+      </c>
+      <c r="AC11">
+        <v>15297.57</v>
+      </c>
+      <c r="AD11">
+        <v>788.11</v>
+      </c>
+      <c r="AE11">
+        <v>12979</v>
+      </c>
+      <c r="AF11">
+        <v>12164.37</v>
+      </c>
+      <c r="AG11">
+        <v>174976</v>
+      </c>
+      <c r="AH11">
+        <v>305681.8</v>
+      </c>
+      <c r="AI11">
+        <v>480657.7</v>
+      </c>
+      <c r="AJ11">
+        <v>88017.89999999999</v>
+      </c>
+      <c r="AK11">
+        <v>209906.9</v>
+      </c>
+      <c r="AL11">
+        <v>108026.7</v>
+      </c>
+      <c r="AM11">
+        <v>466936.1</v>
+      </c>
+      <c r="AN11">
+        <v>574962.5</v>
+      </c>
+      <c r="AO11">
+        <v>73663.8</v>
+      </c>
+      <c r="AP11">
+        <v>5.923333333333333</v>
+      </c>
+      <c r="AQ11">
+        <v>13.22</v>
+      </c>
+      <c r="AR11">
+        <v>3.740769230769231</v>
+      </c>
+      <c r="AS11">
+        <v>7.293076923076925</v>
+      </c>
+      <c r="AT11">
+        <v>1.578461538461539</v>
+      </c>
+      <c r="AU11">
+        <v>1.711538461538461</v>
+      </c>
+      <c r="AV11">
+        <v>6.193076923076922</v>
+      </c>
+      <c r="AW11">
+        <v>8.485384615384616</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>7.933076923076923</v>
+      </c>
+      <c r="AZ11">
+        <v>13.29153846153846</v>
+      </c>
+      <c r="BA11">
+        <v>5.921538461538461</v>
+      </c>
+      <c r="BB11">
+        <v>2.993333333333334</v>
+      </c>
+      <c r="BC11">
+        <v>5.473333333333334</v>
+      </c>
+      <c r="BD11">
+        <v>101.98</v>
+      </c>
+      <c r="BE11">
+        <v>100.1133333333333</v>
+      </c>
+      <c r="BF11">
+        <v>104.19</v>
+      </c>
+      <c r="BG11">
+        <v>105.64</v>
+      </c>
+      <c r="BH11">
+        <v>106.7966666666667</v>
+      </c>
+      <c r="BI11">
+        <v>108.6066666666667</v>
+      </c>
+      <c r="BJ11">
+        <v>109.1933333333333</v>
+      </c>
+      <c r="BK11">
+        <v>102.4533333333333</v>
+      </c>
+      <c r="BL11">
+        <v>110.9266666666667</v>
+      </c>
+      <c r="BM11">
+        <v>107.7066666666667</v>
+      </c>
+      <c r="BN11">
+        <v>108.5566666666667</v>
+      </c>
+      <c r="BO11">
+        <v>330.68</v>
+      </c>
+      <c r="BP11">
+        <v>102.7033333333333</v>
+      </c>
+      <c r="BQ11">
+        <v>112.8466666666667</v>
+      </c>
+      <c r="BR11">
+        <v>108.9966666666667</v>
+      </c>
+      <c r="BS11">
+        <v>7.676153846153845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71">
+      <c r="A12" s="2">
+        <v>42277</v>
+      </c>
+      <c r="B12">
+        <v>13431.81</v>
+      </c>
+      <c r="C12">
+        <v>2.053333333333333</v>
+      </c>
+      <c r="D12">
+        <v>2.053333333333333</v>
+      </c>
+      <c r="E12">
+        <v>6.159999999999999</v>
+      </c>
+      <c r="F12">
+        <v>75332.60000000001</v>
+      </c>
+      <c r="G12">
+        <v>3774237.91</v>
+      </c>
+      <c r="H12">
+        <v>19066.24</v>
+      </c>
+      <c r="I12">
+        <v>18379.74</v>
+      </c>
+      <c r="J12">
+        <v>164155.78</v>
+      </c>
+      <c r="K12">
+        <v>1601898.28</v>
+      </c>
+      <c r="L12">
+        <v>23900.24</v>
+      </c>
+      <c r="M12">
+        <v>36545.61</v>
+      </c>
+      <c r="N12">
+        <v>1784394.58</v>
+      </c>
+      <c r="O12">
+        <v>199047.51</v>
+      </c>
+      <c r="P12">
+        <v>4631.66</v>
+      </c>
+      <c r="Q12">
+        <v>754.39</v>
+      </c>
+      <c r="R12">
+        <v>139.81</v>
+      </c>
+      <c r="S12">
+        <v>27.3</v>
+      </c>
+      <c r="T12">
+        <v>293.41</v>
+      </c>
+      <c r="U12">
+        <v>821.3499999999999</v>
+      </c>
+      <c r="V12">
+        <v>368.81</v>
+      </c>
+      <c r="W12">
+        <v>616.2</v>
+      </c>
+      <c r="X12">
+        <v>132.48</v>
+      </c>
+      <c r="Y12">
+        <v>1358.08</v>
+      </c>
+      <c r="Z12">
+        <v>119.74</v>
+      </c>
+      <c r="AA12">
+        <v>12286.16</v>
+      </c>
+      <c r="AB12">
+        <v>2685.88</v>
+      </c>
+      <c r="AC12">
+        <v>14972.04</v>
+      </c>
+      <c r="AD12">
+        <v>662.8000000000001</v>
+      </c>
+      <c r="AE12">
+        <v>13433.27</v>
+      </c>
+      <c r="AF12">
+        <v>12746.59</v>
+      </c>
+      <c r="AG12">
+        <v>181457.2</v>
+      </c>
+      <c r="AH12">
+        <v>312661.1</v>
+      </c>
+      <c r="AI12">
+        <v>494118.3</v>
+      </c>
+      <c r="AJ12">
+        <v>87694.60000000001</v>
+      </c>
+      <c r="AK12">
+        <v>210119.2</v>
+      </c>
+      <c r="AL12">
+        <v>106944.2</v>
+      </c>
+      <c r="AM12">
+        <v>474864.9999999999</v>
+      </c>
+      <c r="AN12">
+        <v>581809.2</v>
+      </c>
+      <c r="AO12">
+        <v>74195</v>
+      </c>
+      <c r="AP12">
+        <v>5.926666666666667</v>
+      </c>
+      <c r="AQ12">
+        <v>13.10666666666667</v>
+      </c>
+      <c r="AR12">
+        <v>3.745384615384616</v>
+      </c>
+      <c r="AS12">
+        <v>7.279230769230768</v>
+      </c>
+      <c r="AT12">
+        <v>1.444615384615384</v>
+      </c>
+      <c r="AU12">
+        <v>1.7</v>
+      </c>
+      <c r="AV12">
+        <v>6.194615384615384</v>
+      </c>
+      <c r="AW12">
+        <v>8.535384615384615</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>7.913076923076923</v>
+      </c>
+      <c r="AZ12">
+        <v>13.14615384615385</v>
+      </c>
+      <c r="BA12">
+        <v>5.926923076923076</v>
+      </c>
+      <c r="BB12">
+        <v>2.986666666666667</v>
+      </c>
+      <c r="BC12">
+        <v>5.483333333333334</v>
+      </c>
+      <c r="BD12">
+        <v>98.08</v>
+      </c>
+      <c r="BE12">
+        <v>99.27666666666666</v>
+      </c>
+      <c r="BF12">
+        <v>104.89</v>
+      </c>
+      <c r="BG12">
+        <v>109.1</v>
+      </c>
+      <c r="BH12">
+        <v>108.2733333333333</v>
+      </c>
+      <c r="BI12">
+        <v>110.2</v>
+      </c>
+      <c r="BJ12">
+        <v>111.7833333333333</v>
+      </c>
+      <c r="BK12">
+        <v>109.59</v>
+      </c>
+      <c r="BL12">
+        <v>111.3633333333333</v>
+      </c>
+      <c r="BM12">
+        <v>108.79</v>
+      </c>
+      <c r="BN12">
+        <v>108.7666666666667</v>
+      </c>
+      <c r="BO12">
+        <v>315.57</v>
+      </c>
+      <c r="BP12">
+        <v>108.6966666666667</v>
+      </c>
+      <c r="BQ12">
+        <v>119.18</v>
+      </c>
+      <c r="BR12">
+        <v>110.11</v>
+      </c>
+      <c r="BS12">
+        <v>7.662259130434784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71">
+      <c r="A13" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B13">
+        <v>15002.14</v>
+      </c>
+      <c r="C13">
+        <v>2.603333333333333</v>
+      </c>
+      <c r="D13">
+        <v>2.603333333333333</v>
+      </c>
+      <c r="E13">
+        <v>7.81</v>
+      </c>
+      <c r="F13">
+        <v>71255.5</v>
+      </c>
+      <c r="G13">
+        <v>3378070.28</v>
+      </c>
+      <c r="H13">
+        <v>21669.4</v>
+      </c>
+      <c r="I13">
+        <v>17123.2</v>
+      </c>
+      <c r="J13">
+        <v>111520.78</v>
+      </c>
+      <c r="K13">
+        <v>1333911.77</v>
+      </c>
+      <c r="L13">
+        <v>29032.72</v>
+      </c>
+      <c r="M13">
+        <v>38020.24</v>
+      </c>
+      <c r="N13">
+        <v>1842170.92</v>
+      </c>
+      <c r="O13">
+        <v>193367.78</v>
+      </c>
+      <c r="P13">
+        <v>4399.89</v>
+      </c>
+      <c r="Q13">
+        <v>722</v>
+      </c>
+      <c r="R13">
+        <v>134.01</v>
+      </c>
+      <c r="S13">
+        <v>25.88</v>
+      </c>
+      <c r="T13">
+        <v>312.99</v>
+      </c>
+      <c r="U13">
+        <v>810.0999999999999</v>
+      </c>
+      <c r="V13">
+        <v>396.38</v>
+      </c>
+      <c r="W13">
+        <v>532.4100000000001</v>
+      </c>
+      <c r="X13">
+        <v>134.94</v>
+      </c>
+      <c r="Y13">
+        <v>1234.18</v>
+      </c>
+      <c r="Z13">
+        <v>96.94</v>
+      </c>
+      <c r="AA13">
+        <v>12458.3</v>
+      </c>
+      <c r="AB13">
+        <v>2686.19</v>
+      </c>
+      <c r="AC13">
+        <v>15144.51</v>
+      </c>
+      <c r="AD13">
+        <v>802.8299999999999</v>
+      </c>
+      <c r="AE13">
+        <v>13355.17</v>
+      </c>
+      <c r="AF13">
+        <v>12489.55</v>
+      </c>
+      <c r="AG13">
+        <v>188225</v>
+      </c>
+      <c r="AH13">
+        <v>322562.1</v>
+      </c>
+      <c r="AI13">
+        <v>510787.1</v>
+      </c>
+      <c r="AJ13">
+        <v>92150.39999999999</v>
+      </c>
+      <c r="AK13">
+        <v>214617.6</v>
+      </c>
+      <c r="AL13">
+        <v>105793.2</v>
+      </c>
+      <c r="AM13">
+        <v>484269.3</v>
+      </c>
+      <c r="AN13">
+        <v>590062.6</v>
+      </c>
+      <c r="AO13">
+        <v>76402.20000000001</v>
+      </c>
+      <c r="AP13">
+        <v>5.91</v>
+      </c>
+      <c r="AQ13">
+        <v>13.1</v>
+      </c>
+      <c r="AR13">
+        <v>3.74</v>
+      </c>
+      <c r="AS13">
+        <v>7.251428571428571</v>
+      </c>
+      <c r="AT13">
+        <v>1.412857142857143</v>
+      </c>
+      <c r="AU13">
+        <v>1.674285714285714</v>
+      </c>
+      <c r="AV13">
+        <v>6.190714285714286</v>
+      </c>
+      <c r="AW13">
+        <v>8.472142857142858</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>7.894999999999999</v>
+      </c>
+      <c r="AZ13">
+        <v>13.13214285714286</v>
+      </c>
+      <c r="BA13">
+        <v>5.908571428571428</v>
+      </c>
+      <c r="BB13">
+        <v>2.98</v>
+      </c>
+      <c r="BC13">
+        <v>5.473333333333334</v>
+      </c>
+      <c r="BD13">
+        <v>104.0466666666667</v>
+      </c>
+      <c r="BE13">
+        <v>121.4366666666667</v>
+      </c>
+      <c r="BF13">
+        <v>122.4033333333333</v>
+      </c>
+      <c r="BG13">
+        <v>110.9</v>
+      </c>
+      <c r="BH13">
+        <v>119.3666666666667</v>
+      </c>
+      <c r="BI13">
+        <v>121.2666666666667</v>
+      </c>
+      <c r="BJ13">
+        <v>111.4433333333333</v>
+      </c>
+      <c r="BK13">
+        <v>117.0333333333333</v>
+      </c>
+      <c r="BL13">
+        <v>118.6933333333333</v>
+      </c>
+      <c r="BM13">
+        <v>110.4133333333333</v>
+      </c>
+      <c r="BN13">
+        <v>112.0833333333333</v>
+      </c>
+      <c r="BO13">
+        <v>349.22</v>
+      </c>
+      <c r="BP13">
+        <v>91.38</v>
+      </c>
+      <c r="BQ13">
+        <v>118.2633333333333</v>
+      </c>
+      <c r="BR13">
+        <v>106.4666666666667</v>
+      </c>
+      <c r="BS13">
+        <v>7.64832739130435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71">
+      <c r="A14" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B14">
+        <v>11252.32</v>
+      </c>
+      <c r="C14">
+        <v>4.303333333333333</v>
+      </c>
+      <c r="D14">
+        <v>4.303333333333333</v>
+      </c>
+      <c r="E14">
+        <v>12.91</v>
+      </c>
+      <c r="F14">
+        <v>74719</v>
+      </c>
+      <c r="G14">
+        <v>3177759.15</v>
+      </c>
+      <c r="H14">
+        <v>30386.58</v>
+      </c>
+      <c r="I14">
+        <v>17811.32</v>
+      </c>
+      <c r="J14">
+        <v>219336.43</v>
+      </c>
+      <c r="K14">
+        <v>1773887.82</v>
+      </c>
+      <c r="L14">
+        <v>20399.87</v>
+      </c>
+      <c r="M14">
+        <v>46697.59</v>
+      </c>
+      <c r="N14">
+        <v>1791265.45</v>
+      </c>
+      <c r="O14">
+        <v>327234.6</v>
+      </c>
+      <c r="P14">
+        <v>3931.84</v>
+      </c>
+      <c r="Q14">
+        <v>586.12</v>
+      </c>
+      <c r="R14">
+        <v>105.62</v>
+      </c>
+      <c r="S14">
+        <v>16.81</v>
+      </c>
+      <c r="T14">
+        <v>265.8</v>
+      </c>
+      <c r="U14">
+        <v>737.1400000000001</v>
+      </c>
+      <c r="V14">
+        <v>308.18</v>
+      </c>
+      <c r="W14">
+        <v>513.21</v>
+      </c>
+      <c r="X14">
+        <v>107.66</v>
+      </c>
+      <c r="Y14">
+        <v>1180.72</v>
+      </c>
+      <c r="Z14">
+        <v>110.49</v>
+      </c>
+      <c r="AA14">
+        <v>11524.22</v>
+      </c>
+      <c r="AB14">
+        <v>1661.46</v>
+      </c>
+      <c r="AC14">
+        <v>13185.68</v>
+      </c>
+      <c r="AD14">
+        <v>927.0799999999999</v>
+      </c>
+      <c r="AE14">
+        <v>13458.32</v>
+      </c>
+      <c r="AF14">
+        <v>12516.27</v>
+      </c>
+      <c r="AG14">
+        <v>188586.7</v>
+      </c>
+      <c r="AH14">
+        <v>329838.2</v>
+      </c>
+      <c r="AI14">
+        <v>518424.9</v>
+      </c>
+      <c r="AJ14">
+        <v>92199</v>
+      </c>
+      <c r="AK14">
+        <v>220530.5</v>
+      </c>
+      <c r="AL14">
+        <v>109675.5</v>
+      </c>
+      <c r="AM14">
+        <v>494692.8</v>
+      </c>
+      <c r="AN14">
+        <v>604368.3</v>
+      </c>
+      <c r="AO14">
+        <v>77432.79999999999</v>
+      </c>
+      <c r="AP14">
+        <v>5.95</v>
+      </c>
+      <c r="AQ14">
+        <v>13.08666666666667</v>
+      </c>
+      <c r="AR14">
+        <v>3.747692307692307</v>
+      </c>
+      <c r="AS14">
+        <v>7.262307692307692</v>
+      </c>
+      <c r="AT14">
+        <v>1.406153846153846</v>
+      </c>
+      <c r="AU14">
+        <v>1.659230769230769</v>
+      </c>
+      <c r="AV14">
+        <v>6.13846153846154</v>
+      </c>
+      <c r="AW14">
+        <v>8.179230769230768</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>7.816923076923079</v>
+      </c>
+      <c r="AZ14">
+        <v>13.12</v>
+      </c>
+      <c r="BA14">
+        <v>5.936923076923076</v>
+      </c>
+      <c r="BB14">
+        <v>2.943333333333333</v>
+      </c>
+      <c r="BC14">
+        <v>5.496666666666667</v>
+      </c>
+      <c r="BD14">
+        <v>114.6466666666667</v>
+      </c>
+      <c r="BE14">
+        <v>107.6033333333333</v>
+      </c>
+      <c r="BF14">
+        <v>101.6333333333333</v>
+      </c>
+      <c r="BG14">
+        <v>107.1233333333333</v>
+      </c>
+      <c r="BH14">
+        <v>106.88</v>
+      </c>
+      <c r="BI14">
+        <v>108.49</v>
+      </c>
+      <c r="BJ14">
+        <v>113.62</v>
+      </c>
+      <c r="BK14">
+        <v>106.4766666666667</v>
+      </c>
+      <c r="BL14">
+        <v>121.4166666666667</v>
+      </c>
+      <c r="BM14">
+        <v>110.08</v>
+      </c>
+      <c r="BN14">
+        <v>103.1133333333333</v>
+      </c>
+      <c r="BO14">
+        <v>340.07</v>
+      </c>
+      <c r="BP14">
+        <v>116.7066666666667</v>
+      </c>
+      <c r="BQ14">
+        <v>117.9033333333334</v>
+      </c>
+      <c r="BR14">
+        <v>106.7733333333333</v>
+      </c>
+      <c r="BS14">
+        <v>7.676235934065935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71">
+      <c r="A15" s="2">
+        <v>42551</v>
+      </c>
+      <c r="B15">
+        <v>11552.85</v>
+      </c>
+      <c r="C15">
+        <v>4.293333333333333</v>
+      </c>
+      <c r="D15">
+        <v>4.293333333333333</v>
+      </c>
+      <c r="E15">
+        <v>12.88</v>
+      </c>
+      <c r="F15">
+        <v>71210.5</v>
+      </c>
+      <c r="G15">
+        <v>3497406.25</v>
+      </c>
+      <c r="H15">
+        <v>30388.12</v>
+      </c>
+      <c r="I15">
+        <v>26870.41</v>
+      </c>
+      <c r="J15">
+        <v>218581.24</v>
+      </c>
+      <c r="K15">
+        <v>1667715.03</v>
+      </c>
+      <c r="L15">
+        <v>18752.05</v>
+      </c>
+      <c r="M15">
+        <v>43676.32</v>
+      </c>
+      <c r="N15">
+        <v>1985805.08</v>
+      </c>
+      <c r="O15">
+        <v>254104.43</v>
+      </c>
+      <c r="P15">
+        <v>4342.05</v>
+      </c>
+      <c r="Q15">
+        <v>638.2900000000001</v>
+      </c>
+      <c r="R15">
+        <v>131.16</v>
+      </c>
+      <c r="S15">
+        <v>21.99</v>
+      </c>
+      <c r="T15">
+        <v>304</v>
+      </c>
+      <c r="U15">
+        <v>824.96</v>
+      </c>
+      <c r="V15">
+        <v>314.29</v>
+      </c>
+      <c r="W15">
+        <v>597.95</v>
+      </c>
+      <c r="X15">
+        <v>128.03</v>
+      </c>
+      <c r="Y15">
+        <v>1266.25</v>
+      </c>
+      <c r="Z15">
+        <v>115</v>
+      </c>
+      <c r="AA15">
+        <v>11777.77</v>
+      </c>
+      <c r="AB15">
+        <v>2375.63</v>
+      </c>
+      <c r="AC15">
+        <v>14153.4</v>
+      </c>
+      <c r="AD15">
+        <v>782.96</v>
+      </c>
+      <c r="AE15">
+        <v>14397.14</v>
+      </c>
+      <c r="AF15">
+        <v>13596.24</v>
+      </c>
+      <c r="AG15">
+        <v>185497.3</v>
+      </c>
+      <c r="AH15">
+        <v>334945.5</v>
+      </c>
+      <c r="AI15">
+        <v>520442.7</v>
+      </c>
+      <c r="AJ15">
+        <v>92185.10000000001</v>
+      </c>
+      <c r="AK15">
+        <v>220604.9</v>
+      </c>
+      <c r="AL15">
+        <v>111330.1</v>
+      </c>
+      <c r="AM15">
+        <v>499837.2</v>
+      </c>
+      <c r="AN15">
+        <v>611167.3</v>
+      </c>
+      <c r="AO15">
+        <v>77830.89999999999</v>
+      </c>
+      <c r="AP15">
+        <v>5.976666666666667</v>
+      </c>
+      <c r="AQ15">
+        <v>13.14</v>
+      </c>
+      <c r="AR15">
+        <v>3.737692307692307</v>
+      </c>
+      <c r="AS15">
+        <v>7.243846153846155</v>
+      </c>
+      <c r="AT15">
+        <v>1.440769230769231</v>
+      </c>
+      <c r="AU15">
+        <v>1.678461538461538</v>
+      </c>
+      <c r="AV15">
+        <v>6.014615384615384</v>
+      </c>
+      <c r="AW15">
+        <v>8.067692307692308</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>7.725384615384614</v>
+      </c>
+      <c r="AZ15">
+        <v>13.17769230769231</v>
+      </c>
+      <c r="BA15">
+        <v>5.975384615384616</v>
+      </c>
+      <c r="BB15">
+        <v>2.88</v>
+      </c>
+      <c r="BC15">
+        <v>5.473333333333334</v>
+      </c>
+      <c r="BD15">
+        <v>105.2033333333333</v>
+      </c>
+      <c r="BE15">
+        <v>108.4566666666667</v>
+      </c>
+      <c r="BF15">
+        <v>105.4933333333333</v>
+      </c>
+      <c r="BG15">
+        <v>109.6666666666667</v>
+      </c>
+      <c r="BH15">
+        <v>111.5333333333333</v>
+      </c>
+      <c r="BI15">
+        <v>112.56</v>
+      </c>
+      <c r="BJ15">
+        <v>113.2</v>
+      </c>
+      <c r="BK15">
+        <v>110.3933333333333</v>
+      </c>
+      <c r="BL15">
+        <v>119.1566666666667</v>
+      </c>
+      <c r="BM15">
+        <v>111.9466666666667</v>
+      </c>
+      <c r="BN15">
+        <v>105.95</v>
+      </c>
+      <c r="BO15">
+        <v>330.5</v>
+      </c>
+      <c r="BP15">
+        <v>103.3233333333333</v>
+      </c>
+      <c r="BQ15">
+        <v>121.1466666666667</v>
+      </c>
+      <c r="BR15">
+        <v>113.4166666666667</v>
+      </c>
+      <c r="BS15">
+        <v>7.676094835164834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71">
+      <c r="A16" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B16">
+        <v>13968.34</v>
+      </c>
+      <c r="C16">
+        <v>4.64</v>
+      </c>
+      <c r="D16">
+        <v>4.64</v>
+      </c>
+      <c r="E16">
+        <v>13.92</v>
+      </c>
+      <c r="F16">
+        <v>81229</v>
+      </c>
+      <c r="G16">
+        <v>3533918.49</v>
+      </c>
+      <c r="H16">
+        <v>24194.77</v>
+      </c>
+      <c r="I16">
+        <v>19921.79</v>
+      </c>
+      <c r="J16">
+        <v>181799.51</v>
+      </c>
+      <c r="K16">
+        <v>1436964.04</v>
+      </c>
+      <c r="L16">
+        <v>39143.87</v>
+      </c>
+      <c r="M16">
+        <v>43190.69</v>
+      </c>
+      <c r="N16">
+        <v>1907306.6</v>
+      </c>
+      <c r="O16">
+        <v>188460.91</v>
+      </c>
+      <c r="P16">
+        <v>4289.85</v>
+      </c>
+      <c r="Q16">
+        <v>592.35</v>
+      </c>
+      <c r="R16">
+        <v>132.39</v>
+      </c>
+      <c r="S16">
+        <v>20.67</v>
+      </c>
+      <c r="T16">
+        <v>305.26</v>
+      </c>
+      <c r="U16">
+        <v>825.5799999999999</v>
+      </c>
+      <c r="V16">
+        <v>364.96</v>
+      </c>
+      <c r="W16">
+        <v>540.1900000000001</v>
+      </c>
+      <c r="X16">
+        <v>141.16</v>
+      </c>
+      <c r="Y16">
+        <v>1253.85</v>
+      </c>
+      <c r="Z16">
+        <v>113.25</v>
+      </c>
+      <c r="AA16">
+        <v>13881.76</v>
+      </c>
+      <c r="AB16">
+        <v>2617.03</v>
+      </c>
+      <c r="AC16">
+        <v>16498.8</v>
+      </c>
+      <c r="AD16">
+        <v>723.86</v>
+      </c>
+      <c r="AE16">
+        <v>14806.62</v>
+      </c>
+      <c r="AF16">
+        <v>14071.11</v>
+      </c>
+      <c r="AG16">
+        <v>183609.1</v>
+      </c>
+      <c r="AH16">
+        <v>340355.5</v>
+      </c>
+      <c r="AI16">
+        <v>523964.6</v>
+      </c>
+      <c r="AJ16">
+        <v>93691.89999999999</v>
+      </c>
+      <c r="AK16">
+        <v>218902.8</v>
+      </c>
+      <c r="AL16">
+        <v>109111.4</v>
+      </c>
+      <c r="AM16">
+        <v>505739</v>
+      </c>
+      <c r="AN16">
+        <v>614850.4</v>
+      </c>
+      <c r="AO16">
+        <v>79324.20000000001</v>
+      </c>
+      <c r="AP16">
+        <v>5.986666666666667</v>
+      </c>
+      <c r="AQ16">
+        <v>13.11666666666667</v>
+      </c>
+      <c r="AR16">
+        <v>3.706923076923077</v>
+      </c>
+      <c r="AS16">
+        <v>7.214615384615382</v>
+      </c>
+      <c r="AT16">
+        <v>1.48076923076923</v>
+      </c>
+      <c r="AU16">
+        <v>1.675384615384615</v>
+      </c>
+      <c r="AV16">
+        <v>5.993846153846155</v>
+      </c>
+      <c r="AW16">
+        <v>8.033846153846152</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>7.396153846153846</v>
+      </c>
+      <c r="AZ16">
+        <v>13.15692307692307</v>
+      </c>
+      <c r="BA16">
+        <v>5.977692307692308</v>
+      </c>
+      <c r="BB16">
+        <v>2.853333333333333</v>
+      </c>
+      <c r="BC16">
+        <v>5.473333333333334</v>
+      </c>
+      <c r="BD16">
+        <v>101.2333333333333</v>
+      </c>
+      <c r="BE16">
+        <v>110.3866666666667</v>
+      </c>
+      <c r="BF16">
+        <v>107.95</v>
+      </c>
+      <c r="BG16">
+        <v>109.75</v>
+      </c>
+      <c r="BH16">
+        <v>110.7</v>
+      </c>
+      <c r="BI16">
+        <v>117.2033333333333</v>
+      </c>
+      <c r="BJ16">
+        <v>112.2566666666667</v>
+      </c>
+      <c r="BK16">
+        <v>110.5433333333333</v>
+      </c>
+      <c r="BL16">
+        <v>121.0266666666667</v>
+      </c>
+      <c r="BM16">
+        <v>112.6633333333333</v>
+      </c>
+      <c r="BN16">
+        <v>103.19</v>
+      </c>
+      <c r="BO16">
+        <v>314.27</v>
+      </c>
+      <c r="BP16">
+        <v>108.4733333333333</v>
+      </c>
+      <c r="BQ16">
+        <v>127.5566666666667</v>
+      </c>
+      <c r="BR16">
+        <v>112.27</v>
+      </c>
+      <c r="BS16">
+        <v>7.555199456521738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71">
+      <c r="A17" s="2">
+        <v>42735</v>
+      </c>
+      <c r="B17">
+        <v>15637.24</v>
+      </c>
+      <c r="C17">
+        <v>4.553333333333334</v>
+      </c>
+      <c r="D17">
+        <v>4.553333333333334</v>
+      </c>
+      <c r="E17">
+        <v>13.66</v>
+      </c>
+      <c r="F17">
+        <v>79317.3</v>
+      </c>
+      <c r="G17">
+        <v>3713158.82</v>
+      </c>
+      <c r="H17">
+        <v>33579.83</v>
+      </c>
+      <c r="I17">
+        <v>18256.52</v>
+      </c>
+      <c r="J17">
+        <v>91431.17</v>
+      </c>
+      <c r="K17">
+        <v>1543134.79</v>
+      </c>
+      <c r="L17">
+        <v>28394.29</v>
+      </c>
+      <c r="M17">
+        <v>48206.31</v>
+      </c>
+      <c r="N17">
+        <v>2028474.79</v>
+      </c>
+      <c r="O17">
+        <v>188648.51</v>
+      </c>
+      <c r="P17">
+        <v>4439.03</v>
+      </c>
+      <c r="Q17">
+        <v>662.0599999999999</v>
+      </c>
+      <c r="R17">
+        <v>143.64</v>
+      </c>
+      <c r="S17">
+        <v>27.48</v>
+      </c>
+      <c r="T17">
+        <v>321.43</v>
+      </c>
+      <c r="U17">
+        <v>814.2600000000001</v>
+      </c>
+      <c r="V17">
+        <v>393.11</v>
+      </c>
+      <c r="W17">
+        <v>638.83</v>
+      </c>
+      <c r="X17">
+        <v>109.67</v>
+      </c>
+      <c r="Y17">
+        <v>1232.23</v>
+      </c>
+      <c r="Z17">
+        <v>96.19</v>
+      </c>
+      <c r="AA17">
+        <v>14891.06</v>
+      </c>
+      <c r="AB17">
+        <v>4351.37</v>
+      </c>
+      <c r="AC17">
+        <v>19242.43</v>
+      </c>
+      <c r="AD17">
+        <v>893</v>
+      </c>
+      <c r="AE17">
+        <v>14845.53</v>
+      </c>
+      <c r="AF17">
+        <v>13925.89</v>
+      </c>
+      <c r="AG17">
+        <v>187393</v>
+      </c>
+      <c r="AH17">
+        <v>349149.8</v>
+      </c>
+      <c r="AI17">
+        <v>536542.8</v>
+      </c>
+      <c r="AJ17">
+        <v>98645.39999999999</v>
+      </c>
+      <c r="AK17">
+        <v>227019.7</v>
+      </c>
+      <c r="AL17">
+        <v>110575.1</v>
+      </c>
+      <c r="AM17">
+        <v>518339.4</v>
+      </c>
+      <c r="AN17">
+        <v>628914.3</v>
+      </c>
+      <c r="AO17">
+        <v>83048.89999999999</v>
+      </c>
+      <c r="AP17">
+        <v>5.97</v>
+      </c>
+      <c r="AQ17">
+        <v>13.07</v>
+      </c>
+      <c r="AR17">
+        <v>3.732307692307693</v>
+      </c>
+      <c r="AS17">
+        <v>7.206923076923077</v>
+      </c>
+      <c r="AT17">
+        <v>1.479230769230769</v>
+      </c>
+      <c r="AU17">
+        <v>1.679230769230769</v>
+      </c>
+      <c r="AV17">
+        <v>5.887692307692307</v>
+      </c>
+      <c r="AW17">
+        <v>8.023846153846153</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>7.346153846153844</v>
+      </c>
+      <c r="AZ17">
+        <v>13.12076923076923</v>
+      </c>
+      <c r="BA17">
+        <v>5.981538461538461</v>
+      </c>
+      <c r="BB17">
+        <v>2.866666666666667</v>
+      </c>
+      <c r="BC17">
+        <v>5.47</v>
+      </c>
+      <c r="BD17">
+        <v>105.9766666666667</v>
+      </c>
+      <c r="BE17">
+        <v>118.47</v>
+      </c>
+      <c r="BF17">
+        <v>120.2066666666667</v>
+      </c>
+      <c r="BG17">
+        <v>116.77</v>
+      </c>
+      <c r="BH17">
+        <v>120.64</v>
+      </c>
+      <c r="BI17">
+        <v>127.9266666666667</v>
+      </c>
+      <c r="BJ17">
+        <v>117.1166666666667</v>
+      </c>
+      <c r="BK17">
+        <v>120.6033333333333</v>
+      </c>
+      <c r="BL17">
+        <v>127.3933333333333</v>
+      </c>
+      <c r="BM17">
+        <v>115.2766666666667</v>
+      </c>
+      <c r="BN17">
+        <v>116.9533333333333</v>
+      </c>
+      <c r="BO17">
+        <v>360.17</v>
+      </c>
+      <c r="BP17">
+        <v>91.82333333333334</v>
+      </c>
+      <c r="BQ17">
+        <v>123.0366666666667</v>
+      </c>
+      <c r="BR17">
+        <v>110.99</v>
+      </c>
+      <c r="BS17">
+        <v>7.502324021739128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:71">
+      <c r="A18" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B18">
+        <v>11742.32</v>
+      </c>
+      <c r="C18">
+        <v>3.93</v>
+      </c>
+      <c r="D18">
+        <v>3.93</v>
+      </c>
+      <c r="E18">
+        <v>11.79</v>
+      </c>
+      <c r="F18">
+        <v>78326.3</v>
+      </c>
+      <c r="G18">
+        <v>3655788.91</v>
+      </c>
+      <c r="H18">
+        <v>45044.52</v>
+      </c>
+      <c r="I18">
+        <v>20650.92</v>
+      </c>
+      <c r="J18">
+        <v>213229.17</v>
+      </c>
+      <c r="K18">
+        <v>2144066.41</v>
+      </c>
+      <c r="L18">
+        <v>44314.1</v>
+      </c>
+      <c r="M18">
+        <v>60995.22</v>
+      </c>
+      <c r="N18">
+        <v>2085320.97</v>
+      </c>
+      <c r="O18">
+        <v>317010.12</v>
+      </c>
+      <c r="P18">
+        <v>4387.7</v>
+      </c>
+      <c r="Q18">
+        <v>611.16</v>
+      </c>
+      <c r="R18">
+        <v>136.59</v>
+      </c>
+      <c r="S18">
+        <v>17.77</v>
+      </c>
+      <c r="T18">
+        <v>275.42</v>
+      </c>
+      <c r="U18">
+        <v>777.9000000000001</v>
+      </c>
+      <c r="V18">
+        <v>318.86</v>
+      </c>
+      <c r="W18">
+        <v>723.47</v>
+      </c>
+      <c r="X18">
+        <v>114.28</v>
+      </c>
+      <c r="Y18">
+        <v>1305.22</v>
+      </c>
+      <c r="Z18">
+        <v>106.93</v>
+      </c>
+      <c r="AA18">
+        <v>11555.36</v>
+      </c>
+      <c r="AB18">
+        <v>1980.03</v>
+      </c>
+      <c r="AC18">
+        <v>13535.39</v>
+      </c>
+      <c r="AD18">
+        <v>856.92</v>
+      </c>
+      <c r="AE18">
+        <v>14654.94</v>
+      </c>
+      <c r="AF18">
+        <v>13777.5</v>
+      </c>
+      <c r="AG18">
+        <v>189083.6</v>
+      </c>
+      <c r="AH18">
+        <v>355756.9</v>
+      </c>
+      <c r="AI18">
+        <v>544840.4</v>
+      </c>
+      <c r="AJ18">
+        <v>103333.3</v>
+      </c>
+      <c r="AK18">
+        <v>230310.8</v>
+      </c>
+      <c r="AL18">
+        <v>112444.5</v>
+      </c>
+      <c r="AM18">
+        <v>528843.8</v>
+      </c>
+      <c r="AN18">
+        <v>641288.3</v>
+      </c>
+      <c r="AO18">
+        <v>89216.89999999999</v>
+      </c>
+      <c r="AP18">
+        <v>5.986666666666667</v>
+      </c>
+      <c r="AQ18">
+        <v>13.06</v>
+      </c>
+      <c r="AR18">
+        <v>3.753076923076923</v>
+      </c>
+      <c r="AS18">
+        <v>7.167692307692308</v>
+      </c>
+      <c r="AT18">
+        <v>1.540769230769231</v>
+      </c>
+      <c r="AU18">
+        <v>1.710769230769231</v>
+      </c>
+      <c r="AV18">
+        <v>5.92923076923077</v>
+      </c>
+      <c r="AW18">
+        <v>7.999230769230768</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>7.172307692307691</v>
+      </c>
+      <c r="AZ18">
+        <v>13.10384615384616</v>
+      </c>
+      <c r="BA18">
+        <v>5.985384615384616</v>
+      </c>
+      <c r="BB18">
+        <v>2.943333333333333</v>
+      </c>
+      <c r="BC18">
+        <v>5.446666666666666</v>
+      </c>
+      <c r="BD18">
+        <v>119.9066666666667</v>
+      </c>
+      <c r="BE18">
+        <v>114.24</v>
+      </c>
+      <c r="BF18">
+        <v>106.52</v>
+      </c>
+      <c r="BG18">
+        <v>112.84</v>
+      </c>
+      <c r="BH18">
+        <v>115.5433333333333</v>
+      </c>
+      <c r="BI18">
+        <v>111.08</v>
+      </c>
+      <c r="BJ18">
+        <v>117.8933333333333</v>
+      </c>
+      <c r="BK18">
+        <v>113.56</v>
+      </c>
+      <c r="BL18">
+        <v>128.68</v>
+      </c>
+      <c r="BM18">
+        <v>114.7233333333333</v>
+      </c>
+      <c r="BN18">
+        <v>110.5033333333333</v>
+      </c>
+      <c r="BO18">
+        <v>347.2</v>
+      </c>
+      <c r="BP18">
+        <v>118.7333333333333</v>
+      </c>
+      <c r="BQ18">
+        <v>122.9133333333333</v>
+      </c>
+      <c r="BR18">
+        <v>115.2433333333333</v>
+      </c>
+      <c r="BS18">
+        <v>7.431564555555556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:71">
+      <c r="A19" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B19">
+        <v>11995.86</v>
+      </c>
+      <c r="C19">
+        <v>4.126666666666666</v>
+      </c>
+      <c r="D19">
+        <v>4.126666666666666</v>
+      </c>
+      <c r="E19">
+        <v>12.38</v>
+      </c>
+      <c r="F19">
+        <v>79778.39999999999</v>
+      </c>
+      <c r="G19">
+        <v>3604597.63</v>
+      </c>
+      <c r="H19">
+        <v>36343.6</v>
+      </c>
+      <c r="I19">
+        <v>19912.44</v>
+      </c>
+      <c r="J19">
+        <v>228025.42</v>
+      </c>
+      <c r="K19">
+        <v>1874851.48</v>
+      </c>
+      <c r="L19">
+        <v>30672.95</v>
+      </c>
+      <c r="M19">
+        <v>55746.38</v>
+      </c>
+      <c r="N19">
+        <v>2297927.46</v>
+      </c>
+      <c r="O19">
+        <v>268008.85</v>
+      </c>
+      <c r="P19">
+        <v>4412.71</v>
+      </c>
+      <c r="Q19">
+        <v>575.71</v>
+      </c>
+      <c r="R19">
+        <v>193.07</v>
+      </c>
+      <c r="S19">
+        <v>18.85</v>
+      </c>
+      <c r="T19">
+        <v>282</v>
+      </c>
+      <c r="U19">
+        <v>797.27</v>
+      </c>
+      <c r="V19">
+        <v>314.12</v>
+      </c>
+      <c r="W19">
+        <v>659.4000000000001</v>
+      </c>
+      <c r="X19">
+        <v>167.56</v>
+      </c>
+      <c r="Y19">
+        <v>1299.87</v>
+      </c>
+      <c r="Z19">
+        <v>104.75</v>
+      </c>
+      <c r="AA19">
+        <v>13207.58</v>
+      </c>
+      <c r="AB19">
+        <v>2477.78</v>
+      </c>
+      <c r="AC19">
+        <v>15685.36</v>
+      </c>
+      <c r="AD19">
+        <v>708.3299999999999</v>
+      </c>
+      <c r="AE19">
+        <v>15038.06</v>
+      </c>
+      <c r="AF19">
+        <v>14322.09</v>
+      </c>
+      <c r="AG19">
+        <v>187078.7</v>
+      </c>
+      <c r="AH19">
+        <v>362907.8</v>
+      </c>
+      <c r="AI19">
+        <v>549986.5</v>
+      </c>
+      <c r="AJ19">
+        <v>106014.8</v>
+      </c>
+      <c r="AK19">
+        <v>235554.1</v>
+      </c>
+      <c r="AL19">
+        <v>115085.1</v>
+      </c>
+      <c r="AM19">
+        <v>541169.7</v>
+      </c>
+      <c r="AN19">
+        <v>656254.7</v>
+      </c>
+      <c r="AO19">
+        <v>90815.3</v>
+      </c>
+      <c r="AP19">
+        <v>5.993333333333333</v>
+      </c>
+      <c r="AQ19">
+        <v>13.05666666666667</v>
+      </c>
+      <c r="AR19">
+        <v>3.800769230769231</v>
+      </c>
+      <c r="AS19">
+        <v>7.113076923076924</v>
+      </c>
+      <c r="AT19">
+        <v>1.526153846153846</v>
+      </c>
+      <c r="AU19">
+        <v>1.733076923076923</v>
+      </c>
+      <c r="AV19">
+        <v>5.85076923076923</v>
+      </c>
+      <c r="AW19">
+        <v>7.945384615384615</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>6.866153846153846</v>
+      </c>
+      <c r="AZ19">
+        <v>13.1</v>
+      </c>
+      <c r="BA19">
+        <v>5.993846153846154</v>
+      </c>
+      <c r="BB19">
+        <v>2.963333333333333</v>
+      </c>
+      <c r="BC19">
+        <v>5.41</v>
+      </c>
+      <c r="BD19">
+        <v>107.81</v>
+      </c>
+      <c r="BE19">
+        <v>111.58</v>
+      </c>
+      <c r="BF19">
+        <v>108.56</v>
+      </c>
+      <c r="BG19">
+        <v>111.0633333333333</v>
+      </c>
+      <c r="BH19">
+        <v>114.3866666666667</v>
+      </c>
+      <c r="BI19">
+        <v>121.5233333333333</v>
+      </c>
+      <c r="BJ19">
+        <v>116.8533333333333</v>
+      </c>
+      <c r="BK19">
+        <v>113.58</v>
+      </c>
+      <c r="BL19">
+        <v>124.6033333333333</v>
+      </c>
+      <c r="BM19">
+        <v>115.9066666666667</v>
+      </c>
+      <c r="BN19">
+        <v>111.3366666666667</v>
+      </c>
+      <c r="BO19">
+        <v>336.04</v>
+      </c>
+      <c r="BP19">
+        <v>105.2033333333333</v>
+      </c>
+      <c r="BQ19">
+        <v>126.3366666666667</v>
+      </c>
+      <c r="BR19">
+        <v>116.8566666666667</v>
+      </c>
+      <c r="BS19">
+        <v>7.340019450549449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:71">
+      <c r="A20" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B20">
+        <v>14345.69</v>
+      </c>
+      <c r="C20">
+        <v>4.766666666666667</v>
+      </c>
+      <c r="D20">
+        <v>4.766666666666667</v>
+      </c>
+      <c r="E20">
+        <v>14.3</v>
+      </c>
+      <c r="F20">
+        <v>95588.5</v>
+      </c>
+      <c r="G20">
+        <v>3818583.48</v>
+      </c>
+      <c r="H20">
+        <v>31273.51</v>
+      </c>
+      <c r="I20">
+        <v>34274.08</v>
+      </c>
+      <c r="J20">
+        <v>180265.26</v>
+      </c>
+      <c r="K20">
+        <v>1610315.51</v>
+      </c>
+      <c r="L20">
+        <v>50152.68</v>
+      </c>
+      <c r="M20">
+        <v>67470.7</v>
+      </c>
+      <c r="N20">
+        <v>2244755.73</v>
+      </c>
+      <c r="O20">
+        <v>187854.16</v>
+      </c>
+      <c r="P20">
+        <v>4582.46</v>
+      </c>
+      <c r="Q20">
+        <v>622.4299999999999</v>
+      </c>
+      <c r="R20">
+        <v>221.99</v>
+      </c>
+      <c r="S20">
+        <v>23.65</v>
+      </c>
+      <c r="T20">
+        <v>317.29</v>
+      </c>
+      <c r="U20">
+        <v>821.72</v>
+      </c>
+      <c r="V20">
+        <v>374.1</v>
+      </c>
+      <c r="W20">
+        <v>626.47</v>
+      </c>
+      <c r="X20">
+        <v>138.95</v>
+      </c>
+      <c r="Y20">
+        <v>1325.3</v>
+      </c>
+      <c r="Z20">
+        <v>106.94</v>
+      </c>
+      <c r="AA20">
+        <v>13808.15</v>
+      </c>
+      <c r="AB20">
+        <v>3080.599999999999</v>
+      </c>
+      <c r="AC20">
+        <v>16888.75</v>
+      </c>
+      <c r="AD20">
+        <v>752.0699999999999</v>
+      </c>
+      <c r="AE20">
+        <v>14863.6</v>
+      </c>
+      <c r="AF20">
+        <v>14085.14</v>
+      </c>
+      <c r="AG20">
+        <v>188270.8</v>
+      </c>
+      <c r="AH20">
+        <v>362978.5</v>
+      </c>
+      <c r="AI20">
+        <v>551249.3</v>
+      </c>
+      <c r="AJ20">
+        <v>106607.1</v>
+      </c>
+      <c r="AK20">
+        <v>235094.8</v>
+      </c>
+      <c r="AL20">
+        <v>116590.6</v>
+      </c>
+      <c r="AM20">
+        <v>548894.1</v>
+      </c>
+      <c r="AN20">
+        <v>665484.7000000001</v>
+      </c>
+      <c r="AO20">
+        <v>91484.10000000001</v>
+      </c>
+      <c r="AP20">
+        <v>6.036666666666666</v>
+      </c>
+      <c r="AQ20">
+        <v>13.05666666666667</v>
+      </c>
+      <c r="AR20">
+        <v>3.806923076923077</v>
+      </c>
+      <c r="AS20">
+        <v>7.061538461538462</v>
+      </c>
+      <c r="AT20">
+        <v>1.426923076923077</v>
+      </c>
+      <c r="AU20">
+        <v>1.744615384615385</v>
+      </c>
+      <c r="AV20">
+        <v>5.714615384615385</v>
+      </c>
+      <c r="AW20">
+        <v>7.907692307692309</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>6.86923076923077</v>
+      </c>
+      <c r="AZ20">
+        <v>13.10076923076923</v>
+      </c>
+      <c r="BA20">
+        <v>6.033076923076924</v>
+      </c>
+      <c r="BB20">
+        <v>2.953333333333333</v>
+      </c>
+      <c r="BC20">
+        <v>5.356666666666666</v>
+      </c>
+      <c r="BD20">
+        <v>104.7233333333333</v>
+      </c>
+      <c r="BE20">
+        <v>118.12</v>
+      </c>
+      <c r="BF20">
+        <v>117.4933333333333</v>
+      </c>
+      <c r="BG20">
+        <v>113.4633333333333</v>
+      </c>
+      <c r="BH20">
+        <v>112.3</v>
+      </c>
+      <c r="BI20">
+        <v>122.2633333333333</v>
+      </c>
+      <c r="BJ20">
+        <v>117.09</v>
+      </c>
+      <c r="BK20">
+        <v>114.8533333333333</v>
+      </c>
+      <c r="BL20">
+        <v>124.9233333333333</v>
+      </c>
+      <c r="BM20">
+        <v>117.07</v>
+      </c>
+      <c r="BN20">
+        <v>107.42</v>
+      </c>
+      <c r="BO20">
+        <v>323.38</v>
+      </c>
+      <c r="BP20">
+        <v>109.7233333333333</v>
+      </c>
+      <c r="BQ20">
+        <v>128.3933333333333</v>
+      </c>
+      <c r="BR20">
+        <v>114.4333333333333</v>
+      </c>
+      <c r="BS20">
+        <v>7.294385326086958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:71">
+      <c r="A21" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B21">
+        <v>17582.83</v>
+      </c>
+      <c r="C21">
+        <v>4.856666666666666</v>
+      </c>
+      <c r="D21">
+        <v>4.856666666666666</v>
+      </c>
+      <c r="E21">
+        <v>14.57</v>
+      </c>
+      <c r="F21">
+        <v>102038.7</v>
+      </c>
+      <c r="G21">
+        <v>4121836.08</v>
+      </c>
+      <c r="H21">
+        <v>30939</v>
+      </c>
+      <c r="I21">
+        <v>26254.97</v>
+      </c>
+      <c r="J21">
+        <v>109311.64</v>
+      </c>
+      <c r="K21">
+        <v>1500732.86</v>
+      </c>
+      <c r="L21">
+        <v>36276.89</v>
+      </c>
+      <c r="M21">
+        <v>77283.66</v>
+      </c>
+      <c r="N21">
+        <v>2246399.5</v>
+      </c>
+      <c r="O21">
+        <v>196336.52</v>
+      </c>
+      <c r="P21">
+        <v>5007.33</v>
+      </c>
+      <c r="Q21">
+        <v>808.4400000000001</v>
+      </c>
+      <c r="R21">
+        <v>153.67</v>
+      </c>
+      <c r="S21">
+        <v>27.32</v>
+      </c>
+      <c r="T21">
+        <v>349.71</v>
+      </c>
+      <c r="U21">
+        <v>876.3499999999999</v>
+      </c>
+      <c r="V21">
+        <v>414.96</v>
+      </c>
+      <c r="W21">
+        <v>784.3099999999999</v>
+      </c>
+      <c r="X21">
+        <v>105.42</v>
+      </c>
+      <c r="Y21">
+        <v>1372.91</v>
+      </c>
+      <c r="Z21">
+        <v>114.11</v>
+      </c>
+      <c r="AA21">
+        <v>16570.42</v>
+      </c>
+      <c r="AB21">
+        <v>4594.89</v>
+      </c>
+      <c r="AC21">
+        <v>21165.29</v>
+      </c>
+      <c r="AD21">
+        <v>839.88</v>
+      </c>
+      <c r="AE21">
+        <v>15430.3</v>
+      </c>
+      <c r="AF21">
+        <v>14499.34</v>
+      </c>
+      <c r="AG21">
+        <v>195030.6</v>
+      </c>
+      <c r="AH21">
+        <v>366592.1</v>
+      </c>
+      <c r="AI21">
+        <v>561622.8</v>
+      </c>
+      <c r="AJ21">
+        <v>111652</v>
+      </c>
+      <c r="AK21">
+        <v>244883.6</v>
+      </c>
+      <c r="AL21">
+        <v>115731.8</v>
+      </c>
+      <c r="AM21">
+        <v>563474.2000000001</v>
+      </c>
+      <c r="AN21">
+        <v>679206</v>
+      </c>
+      <c r="AO21">
+        <v>95375.60000000001</v>
+      </c>
+      <c r="AP21">
+        <v>6.033333333333334</v>
+      </c>
+      <c r="AQ21">
+        <v>13.04333333333333</v>
+      </c>
+      <c r="AR21">
+        <v>3.798461538461538</v>
+      </c>
+      <c r="AS21">
+        <v>7.01</v>
+      </c>
+      <c r="AT21">
+        <v>1.405384615384615</v>
+      </c>
+      <c r="AU21">
+        <v>1.71</v>
+      </c>
+      <c r="AV21">
+        <v>5.736153846153845</v>
+      </c>
+      <c r="AW21">
+        <v>7.808461538461539</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>6.868461538461539</v>
+      </c>
+      <c r="AZ21">
+        <v>13.08923076923077</v>
+      </c>
+      <c r="BA21">
+        <v>6.038461538461539</v>
+      </c>
+      <c r="BB21">
+        <v>2.953333333333333</v>
+      </c>
+      <c r="BC21">
+        <v>5.31</v>
+      </c>
+      <c r="BD21">
+        <v>108.74</v>
+      </c>
+      <c r="BE21">
+        <v>125.07</v>
+      </c>
+      <c r="BF21">
+        <v>115.96</v>
+      </c>
+      <c r="BG21">
+        <v>119.8066666666667</v>
+      </c>
+      <c r="BH21">
+        <v>119.79</v>
+      </c>
+      <c r="BI21">
+        <v>131.72</v>
+      </c>
+      <c r="BJ21">
+        <v>124.2566666666667</v>
+      </c>
+      <c r="BK21">
+        <v>128.7166666666667</v>
+      </c>
+      <c r="BL21">
+        <v>131.3066666666667</v>
+      </c>
+      <c r="BM21">
+        <v>119.4166666666667</v>
+      </c>
+      <c r="BN21">
+        <v>119.8933333333333</v>
+      </c>
+      <c r="BO21">
+        <v>373.35</v>
+      </c>
+      <c r="BP21">
+        <v>91.41000000000001</v>
+      </c>
+      <c r="BQ21">
+        <v>130.8266666666667</v>
+      </c>
+      <c r="BR21">
+        <v>111.8033333333333</v>
+      </c>
+      <c r="BS21">
+        <v>7.339096956521741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:71">
+      <c r="A22" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B22">
+        <v>12758.97</v>
+      </c>
+      <c r="C22">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D22">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>105659.4</v>
+      </c>
+      <c r="G22">
+        <v>3708617.31</v>
+      </c>
+      <c r="H22">
+        <v>38561.50999999999</v>
+      </c>
+      <c r="I22">
+        <v>18581.94</v>
+      </c>
+      <c r="J22">
+        <v>220062.43</v>
+      </c>
+      <c r="K22">
+        <v>2026509.5</v>
+      </c>
+      <c r="L22">
+        <v>20147.82</v>
+      </c>
+      <c r="M22">
+        <v>87768.75999999999</v>
+      </c>
+      <c r="N22">
+        <v>2163581.32</v>
+      </c>
+      <c r="O22">
+        <v>316212.14</v>
+      </c>
+      <c r="P22">
+        <v>4478.76</v>
+      </c>
+      <c r="Q22">
+        <v>605.95</v>
+      </c>
+      <c r="R22">
+        <v>133.22</v>
+      </c>
+      <c r="S22">
+        <v>16.87</v>
+      </c>
+      <c r="T22">
+        <v>279.44</v>
+      </c>
+      <c r="U22">
+        <v>804.04</v>
+      </c>
+      <c r="V22">
+        <v>324.73</v>
+      </c>
+      <c r="W22">
+        <v>741.4</v>
+      </c>
+      <c r="X22">
+        <v>145.73</v>
+      </c>
+      <c r="Y22">
+        <v>1322.42</v>
+      </c>
+      <c r="Z22">
+        <v>104.79</v>
+      </c>
+      <c r="AA22">
+        <v>12036.83</v>
+      </c>
+      <c r="AB22">
+        <v>1926.93</v>
+      </c>
+      <c r="AC22">
+        <v>13963.77</v>
+      </c>
+      <c r="AD22">
+        <v>859.26</v>
+      </c>
+      <c r="AE22">
+        <v>15217.56</v>
+      </c>
+      <c r="AF22">
+        <v>14328.85</v>
+      </c>
+      <c r="AG22">
+        <v>200425.4</v>
+      </c>
+      <c r="AH22">
+        <v>366490.3</v>
+      </c>
+      <c r="AI22">
+        <v>566915.8</v>
+      </c>
+      <c r="AJ22">
+        <v>114408.1</v>
+      </c>
+      <c r="AK22">
+        <v>249800.5</v>
+      </c>
+      <c r="AL22">
+        <v>118130.3</v>
+      </c>
+      <c r="AM22">
+        <v>574361.5</v>
+      </c>
+      <c r="AN22">
+        <v>692491.8</v>
+      </c>
+      <c r="AO22">
+        <v>99364.60000000001</v>
+      </c>
+      <c r="AP22">
+        <v>6.09</v>
+      </c>
+      <c r="AQ22">
+        <v>13.04333333333333</v>
+      </c>
+      <c r="AR22">
+        <v>3.789230769230769</v>
+      </c>
+      <c r="AS22">
+        <v>6.963846153846154</v>
+      </c>
+      <c r="AT22">
+        <v>1.412307692307692</v>
+      </c>
+      <c r="AU22">
+        <v>1.724615384615385</v>
+      </c>
+      <c r="AV22">
+        <v>5.955384615384616</v>
+      </c>
+      <c r="AW22">
+        <v>7.743076923076922</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>6.865384615384615</v>
+      </c>
+      <c r="AZ22">
+        <v>13.07461538461538</v>
+      </c>
+      <c r="BA22">
+        <v>6.086153846153847</v>
+      </c>
+      <c r="BB22">
+        <v>2.976666666666667</v>
+      </c>
+      <c r="BC22">
+        <v>5.263333333333333</v>
+      </c>
+      <c r="BD22">
+        <v>123.01</v>
+      </c>
+      <c r="BE22">
+        <v>124.6733333333333</v>
+      </c>
+      <c r="BF22">
+        <v>105.8066666666667</v>
+      </c>
+      <c r="BG22">
+        <v>115.5166666666667</v>
+      </c>
+      <c r="BH22">
+        <v>118.1533333333333</v>
+      </c>
+      <c r="BI22">
+        <v>118.7166666666667</v>
+      </c>
+      <c r="BJ22">
+        <v>124.2366666666667</v>
+      </c>
+      <c r="BK22">
+        <v>116.0666666666667</v>
+      </c>
+      <c r="BL22">
+        <v>135.1</v>
+      </c>
+      <c r="BM22">
+        <v>119.13</v>
+      </c>
+      <c r="BN22">
+        <v>111.7833333333333</v>
+      </c>
+      <c r="BO22">
+        <v>355.23</v>
+      </c>
+      <c r="BP22">
+        <v>121.71</v>
+      </c>
+      <c r="BQ22">
+        <v>129.8966666666667</v>
+      </c>
+      <c r="BR22">
+        <v>117.2133333333333</v>
+      </c>
+      <c r="BS22">
+        <v>7.365522222222221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:71">
+      <c r="A23" s="2">
+        <v>43281</v>
+      </c>
+      <c r="B23">
+        <v>13812.74</v>
+      </c>
+      <c r="C23">
+        <v>3.933333333333334</v>
+      </c>
+      <c r="D23">
+        <v>3.933333333333334</v>
+      </c>
+      <c r="E23">
+        <v>11.8</v>
+      </c>
+      <c r="F23">
+        <v>111367.2</v>
+      </c>
+      <c r="G23">
+        <v>4196894.18</v>
+      </c>
+      <c r="H23">
+        <v>43852.29</v>
+      </c>
+      <c r="I23">
+        <v>21811.01</v>
+      </c>
+      <c r="J23">
+        <v>216755.75</v>
+      </c>
+      <c r="K23">
+        <v>1869372.29</v>
+      </c>
+      <c r="L23">
+        <v>47052.69</v>
+      </c>
+      <c r="M23">
+        <v>95008.79000000001</v>
+      </c>
+      <c r="N23">
+        <v>2540684.44</v>
+      </c>
+      <c r="O23">
+        <v>254321.97</v>
+      </c>
+      <c r="P23">
+        <v>5143.85</v>
+      </c>
+      <c r="Q23">
+        <v>669.86</v>
+      </c>
+      <c r="R23">
+        <v>135.21</v>
+      </c>
+      <c r="S23">
+        <v>17.35</v>
+      </c>
+      <c r="T23">
+        <v>308.67</v>
+      </c>
+      <c r="U23">
+        <v>885.8199999999999</v>
+      </c>
+      <c r="V23">
+        <v>325.1</v>
+      </c>
+      <c r="W23">
+        <v>905.1400000000001</v>
+      </c>
+      <c r="X23">
+        <v>201.79</v>
+      </c>
+      <c r="Y23">
+        <v>1538.42</v>
+      </c>
+      <c r="Z23">
+        <v>122.18</v>
+      </c>
+      <c r="AA23">
+        <v>14312.91</v>
+      </c>
+      <c r="AB23">
+        <v>3001.17</v>
+      </c>
+      <c r="AC23">
+        <v>17314.08</v>
+      </c>
+      <c r="AD23">
+        <v>820.9499999999999</v>
+      </c>
+      <c r="AE23">
+        <v>15448.36</v>
+      </c>
+      <c r="AF23">
+        <v>14580.52</v>
+      </c>
+      <c r="AG23">
+        <v>204948.2</v>
+      </c>
+      <c r="AH23">
+        <v>368430.5</v>
+      </c>
+      <c r="AI23">
+        <v>573378.7</v>
+      </c>
+      <c r="AJ23">
+        <v>114469</v>
+      </c>
+      <c r="AK23">
+        <v>251251.5</v>
+      </c>
+      <c r="AL23">
+        <v>124955</v>
+      </c>
+      <c r="AM23">
+        <v>580546.6000000001</v>
+      </c>
+      <c r="AN23">
+        <v>705501.6</v>
+      </c>
+      <c r="AO23">
+        <v>97686.3</v>
+      </c>
+      <c r="AP23">
+        <v>6.236666666666667</v>
+      </c>
+      <c r="AQ23">
+        <v>12.98</v>
+      </c>
+      <c r="AR23">
+        <v>3.859230769230769</v>
+      </c>
+      <c r="AS23">
+        <v>6.916153846153847</v>
+      </c>
+      <c r="AT23">
+        <v>1.413076923076923</v>
+      </c>
+      <c r="AU23">
+        <v>1.731538461538461</v>
+      </c>
+      <c r="AV23">
+        <v>5.985384615384616</v>
+      </c>
+      <c r="AW23">
+        <v>7.697692307692307</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>6.866153846153846</v>
+      </c>
+      <c r="AZ23">
+        <v>13.03384615384615</v>
+      </c>
+      <c r="BA23">
+        <v>6.222307692307694</v>
+      </c>
+      <c r="BB23">
+        <v>3.043333333333333</v>
+      </c>
+      <c r="BC23">
+        <v>5.226666666666667</v>
+      </c>
+      <c r="BD23">
+        <v>111.9666666666667</v>
+      </c>
+      <c r="BE23">
+        <v>117.06</v>
+      </c>
+      <c r="BF23">
+        <v>116.6933333333333</v>
+      </c>
+      <c r="BG23">
+        <v>115.86</v>
+      </c>
+      <c r="BH23">
+        <v>118.67</v>
+      </c>
+      <c r="BI23">
+        <v>121.8766666666667</v>
+      </c>
+      <c r="BJ23">
+        <v>124.0966666666667</v>
+      </c>
+      <c r="BK23">
+        <v>126.5366666666667</v>
+      </c>
+      <c r="BL23">
+        <v>132.49</v>
+      </c>
+      <c r="BM23">
+        <v>120.9633333333333</v>
+      </c>
+      <c r="BN23">
+        <v>116.1633333333333</v>
+      </c>
+      <c r="BO23">
+        <v>356.27</v>
+      </c>
+      <c r="BP23">
+        <v>107.1566666666667</v>
+      </c>
+      <c r="BQ23">
+        <v>136.37</v>
+      </c>
+      <c r="BR23">
+        <v>118.5633333333333</v>
+      </c>
+      <c r="BS23">
+        <v>7.442698021978021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:71">
+      <c r="A24" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B24">
+        <v>16109.34</v>
+      </c>
+      <c r="C24">
+        <v>3.506666666666666</v>
+      </c>
+      <c r="D24">
+        <v>3.506666666666666</v>
+      </c>
+      <c r="E24">
+        <v>10.52</v>
+      </c>
+      <c r="F24">
+        <v>114748.9</v>
+      </c>
+      <c r="G24">
+        <v>4152231.25</v>
+      </c>
+      <c r="H24">
+        <v>53514.17</v>
+      </c>
+      <c r="I24">
+        <v>28793.12</v>
+      </c>
+      <c r="J24">
+        <v>173546.11</v>
+      </c>
+      <c r="K24">
+        <v>1647845.56</v>
+      </c>
+      <c r="L24">
+        <v>38165.09</v>
+      </c>
+      <c r="M24">
+        <v>100089.44</v>
+      </c>
+      <c r="N24">
+        <v>2601941.69</v>
+      </c>
+      <c r="O24">
+        <v>188237.98</v>
+      </c>
+      <c r="P24">
+        <v>4989.39</v>
+      </c>
+      <c r="Q24">
+        <v>653.75</v>
+      </c>
+      <c r="R24">
+        <v>161.92</v>
+      </c>
+      <c r="S24">
+        <v>26.59</v>
+      </c>
+      <c r="T24">
+        <v>289.19</v>
+      </c>
+      <c r="U24">
+        <v>894.71</v>
+      </c>
+      <c r="V24">
+        <v>376.34</v>
+      </c>
+      <c r="W24">
+        <v>805.03</v>
+      </c>
+      <c r="X24">
+        <v>148.2</v>
+      </c>
+      <c r="Y24">
+        <v>1508.23</v>
+      </c>
+      <c r="Z24">
+        <v>125.29</v>
+      </c>
+      <c r="AA24">
+        <v>14880.63</v>
+      </c>
+      <c r="AB24">
+        <v>3841.12</v>
+      </c>
+      <c r="AC24">
+        <v>18721.76</v>
+      </c>
+      <c r="AD24">
+        <v>782.3199999999999</v>
+      </c>
+      <c r="AE24">
+        <v>15601.19</v>
+      </c>
+      <c r="AF24">
+        <v>14749.65</v>
+      </c>
+      <c r="AG24">
+        <v>206669.5</v>
+      </c>
+      <c r="AH24">
+        <v>372593.9</v>
+      </c>
+      <c r="AI24">
+        <v>579263.3999999999</v>
+      </c>
+      <c r="AJ24">
+        <v>115585.5</v>
+      </c>
+      <c r="AK24">
+        <v>253551.7</v>
+      </c>
+      <c r="AL24">
+        <v>128571.1</v>
+      </c>
+      <c r="AM24">
+        <v>590694.9</v>
+      </c>
+      <c r="AN24">
+        <v>719265.9</v>
+      </c>
+      <c r="AO24">
+        <v>99746.39999999999</v>
+      </c>
+      <c r="AP24">
+        <v>6.363333333333333</v>
+      </c>
+      <c r="AQ24">
+        <v>12.91666666666667</v>
+      </c>
+      <c r="AR24">
+        <v>3.846153846153847</v>
+      </c>
+      <c r="AS24">
+        <v>6.854615384615384</v>
+      </c>
+      <c r="AT24">
+        <v>1.413846153846154</v>
+      </c>
+      <c r="AU24">
+        <v>1.73</v>
+      </c>
+      <c r="AV24">
+        <v>6.125384615384615</v>
+      </c>
+      <c r="AW24">
+        <v>7.691538461538461</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>6.96923076923077</v>
+      </c>
+      <c r="AZ24">
+        <v>12.96230769230769</v>
+      </c>
+      <c r="BA24">
+        <v>6.361538461538462</v>
+      </c>
+      <c r="BB24">
+        <v>3.093333333333334</v>
+      </c>
+      <c r="BC24">
+        <v>5.149999999999999</v>
+      </c>
+      <c r="BD24">
+        <v>107.45</v>
+      </c>
+      <c r="BE24">
+        <v>116.98</v>
+      </c>
+      <c r="BF24">
+        <v>123.0333333333333</v>
+      </c>
+      <c r="BG24">
+        <v>116.48</v>
+      </c>
+      <c r="BH24">
+        <v>117.0566666666667</v>
+      </c>
+      <c r="BI24">
+        <v>126.8566666666667</v>
+      </c>
+      <c r="BJ24">
+        <v>123.66</v>
+      </c>
+      <c r="BK24">
+        <v>117.9166666666667</v>
+      </c>
+      <c r="BL24">
+        <v>132.65</v>
+      </c>
+      <c r="BM24">
+        <v>121.9133333333333</v>
+      </c>
+      <c r="BN24">
+        <v>117.3266666666667</v>
+      </c>
+      <c r="BO24">
+        <v>336.65</v>
+      </c>
+      <c r="BP24">
+        <v>111.1066666666667</v>
+      </c>
+      <c r="BQ24">
+        <v>134.1466666666666</v>
+      </c>
+      <c r="BR24">
+        <v>117.93</v>
+      </c>
+      <c r="BS24">
+        <v>7.545414565217391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:71">
+      <c r="A25" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B25">
+        <v>18632.5</v>
+      </c>
+      <c r="C25">
+        <v>3.266666666666667</v>
+      </c>
+      <c r="D25">
+        <v>3.266666666666667</v>
+      </c>
+      <c r="E25">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F25">
+        <v>108149.4</v>
+      </c>
+      <c r="G25">
+        <v>4323687.41</v>
+      </c>
+      <c r="H25">
+        <v>58456.01</v>
+      </c>
+      <c r="I25">
+        <v>23544.88</v>
+      </c>
+      <c r="J25">
+        <v>150925.08</v>
+      </c>
+      <c r="K25">
+        <v>1624909.5</v>
+      </c>
+      <c r="L25">
+        <v>29250.22</v>
+      </c>
+      <c r="M25">
+        <v>101832.42</v>
+      </c>
+      <c r="N25">
+        <v>2640225.02</v>
+      </c>
+      <c r="O25">
+        <v>226821.22</v>
+      </c>
+      <c r="P25">
+        <v>5062.400000000001</v>
+      </c>
+      <c r="Q25">
+        <v>707.22</v>
+      </c>
+      <c r="R25">
+        <v>151.46</v>
+      </c>
+      <c r="S25">
+        <v>24.33</v>
+      </c>
+      <c r="T25">
+        <v>333.57</v>
+      </c>
+      <c r="U25">
+        <v>948.75</v>
+      </c>
+      <c r="V25">
+        <v>431.0700000000001</v>
+      </c>
+      <c r="W25">
+        <v>786.4000000000001</v>
+      </c>
+      <c r="X25">
+        <v>100.86</v>
+      </c>
+      <c r="Y25">
+        <v>1453.64</v>
+      </c>
+      <c r="Z25">
+        <v>124.97</v>
+      </c>
+      <c r="AA25">
+        <v>17125.12</v>
+      </c>
+      <c r="AB25">
+        <v>5585.78</v>
+      </c>
+      <c r="AC25">
+        <v>22710.89</v>
+      </c>
+      <c r="AD25">
+        <v>844.28</v>
+      </c>
+      <c r="AE25">
+        <v>16026.69</v>
+      </c>
+      <c r="AF25">
+        <v>15176.59</v>
+      </c>
+      <c r="AG25">
+        <v>213457</v>
+      </c>
+      <c r="AH25">
+        <v>385226.7</v>
+      </c>
+      <c r="AI25">
+        <v>598683.6</v>
+      </c>
+      <c r="AJ25">
+        <v>124376.5</v>
+      </c>
+      <c r="AK25">
+        <v>264881.2</v>
+      </c>
+      <c r="AL25">
+        <v>132425.4</v>
+      </c>
+      <c r="AM25">
+        <v>606558.2</v>
+      </c>
+      <c r="AN25">
+        <v>738983.6</v>
+      </c>
+      <c r="AO25">
+        <v>107385.6</v>
+      </c>
+      <c r="AP25">
+        <v>6.419999999999999</v>
+      </c>
+      <c r="AQ25">
+        <v>12.79333333333333</v>
+      </c>
+      <c r="AR25">
+        <v>3.853846153846154</v>
+      </c>
+      <c r="AS25">
+        <v>6.771538461538461</v>
+      </c>
+      <c r="AT25">
+        <v>1.888461538461538</v>
+      </c>
+      <c r="AU25">
+        <v>1.74</v>
+      </c>
+      <c r="AV25">
+        <v>6.146923076923078</v>
+      </c>
+      <c r="AW25">
+        <v>7.681538461538461</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>7.319230769230769</v>
+      </c>
+      <c r="AZ25">
+        <v>12.84538461538461</v>
+      </c>
+      <c r="BA25">
+        <v>6.407692307692307</v>
+      </c>
+      <c r="BB25">
+        <v>3.143333333333333</v>
+      </c>
+      <c r="BC25">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="BD25">
+        <v>109.8233333333333</v>
+      </c>
+      <c r="BE25">
+        <v>124.9</v>
+      </c>
+      <c r="BF25">
+        <v>126.5466666666667</v>
+      </c>
+      <c r="BG25">
+        <v>121.5766666666667</v>
+      </c>
+      <c r="BH25">
+        <v>124.91</v>
+      </c>
+      <c r="BI25">
+        <v>141.3133333333334</v>
+      </c>
+      <c r="BJ25">
+        <v>131.09</v>
+      </c>
+      <c r="BK25">
+        <v>130.26</v>
+      </c>
+      <c r="BL25">
+        <v>139.7066666666667</v>
+      </c>
+      <c r="BM25">
+        <v>124.62</v>
+      </c>
+      <c r="BN25">
+        <v>130.9566666666667</v>
+      </c>
+      <c r="BO25">
+        <v>379.57</v>
+      </c>
+      <c r="BP25">
+        <v>92.98333333333333</v>
+      </c>
+      <c r="BQ25">
+        <v>134.8866666666667</v>
+      </c>
+      <c r="BR25">
+        <v>115.7666666666667</v>
+      </c>
+      <c r="BS25">
+        <v>7.718516304347825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:71">
+      <c r="A26" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B26">
+        <v>13665.33</v>
+      </c>
+      <c r="C26">
+        <v>4.243333333333333</v>
+      </c>
+      <c r="D26">
+        <v>4.243333333333333</v>
+      </c>
+      <c r="E26">
+        <v>12.73</v>
+      </c>
+      <c r="F26">
+        <v>116524.6</v>
+      </c>
+      <c r="G26">
+        <v>3971871.61</v>
+      </c>
+      <c r="H26">
+        <v>52520.12</v>
+      </c>
+      <c r="I26">
+        <v>17822.6</v>
+      </c>
+      <c r="J26">
+        <v>221908.98</v>
+      </c>
+      <c r="K26">
+        <v>1994083.76</v>
+      </c>
+      <c r="L26">
+        <v>28098</v>
+      </c>
+      <c r="M26">
+        <v>96347.97</v>
+      </c>
+      <c r="N26">
+        <v>2367145.14</v>
+      </c>
+      <c r="O26">
+        <v>301090.33</v>
+      </c>
+      <c r="P26">
+        <v>4771.67</v>
+      </c>
+      <c r="Q26">
+        <v>631.5799999999999</v>
+      </c>
+      <c r="R26">
+        <v>136.6</v>
+      </c>
+      <c r="S26">
+        <v>15.59</v>
+      </c>
+      <c r="T26">
+        <v>281.27</v>
+      </c>
+      <c r="U26">
+        <v>859.0600000000001</v>
+      </c>
+      <c r="V26">
+        <v>347.22</v>
+      </c>
+      <c r="W26">
+        <v>800.97</v>
+      </c>
+      <c r="X26">
+        <v>140.67</v>
+      </c>
+      <c r="Y26">
+        <v>1431.36</v>
+      </c>
+      <c r="Z26">
+        <v>127.17</v>
+      </c>
+      <c r="AA26">
+        <v>13727.06</v>
+      </c>
+      <c r="AB26">
+        <v>2773.28</v>
+      </c>
+      <c r="AC26">
+        <v>16500.34</v>
+      </c>
+      <c r="AD26">
+        <v>963.1199999999999</v>
+      </c>
+      <c r="AE26">
+        <v>15967.89</v>
+      </c>
+      <c r="AF26">
+        <v>14999.08</v>
+      </c>
+      <c r="AG26">
+        <v>215927.6</v>
+      </c>
+      <c r="AH26">
+        <v>390822.6</v>
+      </c>
+      <c r="AI26">
+        <v>606750.2</v>
+      </c>
+      <c r="AJ26">
+        <v>126055.3</v>
+      </c>
+      <c r="AK26">
+        <v>273380.8</v>
+      </c>
+      <c r="AL26">
+        <v>136280.9</v>
+      </c>
+      <c r="AM26">
+        <v>620525.4</v>
+      </c>
+      <c r="AN26">
+        <v>756806.4</v>
+      </c>
+      <c r="AO26">
+        <v>110022.4</v>
+      </c>
+      <c r="AP26">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="AQ26">
+        <v>12.76666666666667</v>
+      </c>
+      <c r="AR26">
+        <v>3.847692307692308</v>
+      </c>
+      <c r="AS26">
+        <v>6.700769230769231</v>
+      </c>
+      <c r="AT26">
+        <v>1.866923076923077</v>
+      </c>
+      <c r="AU26">
+        <v>1.74</v>
+      </c>
+      <c r="AV26">
+        <v>6.17076923076923</v>
+      </c>
+      <c r="AW26">
+        <v>7.395384615384615</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>7.354615384615384</v>
+      </c>
+      <c r="AZ26">
+        <v>12.80076923076923</v>
+      </c>
+      <c r="BA26">
+        <v>6.54923076923077</v>
+      </c>
+      <c r="BB26">
+        <v>3.143333333333333</v>
+      </c>
+      <c r="BC26">
+        <v>5.033333333333333</v>
+      </c>
+      <c r="BD26">
+        <v>126.42</v>
+      </c>
+      <c r="BE26">
+        <v>123.24</v>
+      </c>
+      <c r="BF26">
+        <v>114.5333333333333</v>
+      </c>
+      <c r="BG26">
+        <v>119.9733333333333</v>
+      </c>
+      <c r="BH26">
+        <v>122.2766666666667</v>
+      </c>
+      <c r="BI26">
+        <v>125.1133333333333</v>
+      </c>
+      <c r="BJ26">
+        <v>132.5766666666667</v>
+      </c>
+      <c r="BK26">
+        <v>126.4033333333333</v>
+      </c>
+      <c r="BL26">
+        <v>141.58</v>
+      </c>
+      <c r="BM26">
+        <v>124.46</v>
+      </c>
+      <c r="BN26">
+        <v>117.27</v>
+      </c>
+      <c r="BO26">
+        <v>370.53</v>
+      </c>
+      <c r="BP26">
+        <v>123.4433333333333</v>
+      </c>
+      <c r="BQ26">
+        <v>131.12</v>
+      </c>
+      <c r="BR26">
+        <v>118.6266666666667</v>
+      </c>
+      <c r="BS26">
+        <v>7.718529555555556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:71">
+      <c r="A27" s="2">
+        <v>43646</v>
+      </c>
+      <c r="B27">
+        <v>14609.2</v>
+      </c>
+      <c r="C27">
+        <v>4.696666666666666</v>
+      </c>
+      <c r="D27">
+        <v>4.696666666666666</v>
+      </c>
+      <c r="E27">
+        <v>14.09</v>
+      </c>
+      <c r="F27">
+        <v>118377.2</v>
+      </c>
+      <c r="G27">
+        <v>4102346.52</v>
+      </c>
+      <c r="H27">
+        <v>69173.54000000001</v>
+      </c>
+      <c r="I27">
+        <v>23467.88</v>
+      </c>
+      <c r="J27">
+        <v>221053.77</v>
+      </c>
+      <c r="K27">
+        <v>1991920.05</v>
+      </c>
+      <c r="L27">
+        <v>28775.25</v>
+      </c>
+      <c r="M27">
+        <v>109873.33</v>
+      </c>
+      <c r="N27">
+        <v>2880076.8</v>
+      </c>
+      <c r="O27">
+        <v>271397.38</v>
+      </c>
+      <c r="P27">
+        <v>4923.02</v>
+      </c>
+      <c r="Q27">
+        <v>639.13</v>
+      </c>
+      <c r="R27">
+        <v>141.19</v>
+      </c>
+      <c r="S27">
+        <v>18.07</v>
+      </c>
+      <c r="T27">
+        <v>296.57</v>
+      </c>
+      <c r="U27">
+        <v>909.76</v>
+      </c>
+      <c r="V27">
+        <v>334.95</v>
+      </c>
+      <c r="W27">
+        <v>879.63</v>
+      </c>
+      <c r="X27">
+        <v>166.33</v>
+      </c>
+      <c r="Y27">
+        <v>1408.29</v>
+      </c>
+      <c r="Z27">
+        <v>128.94</v>
+      </c>
+      <c r="AA27">
+        <v>15928.69</v>
+      </c>
+      <c r="AB27">
+        <v>4012.2</v>
+      </c>
+      <c r="AC27">
+        <v>19940.89</v>
+      </c>
+      <c r="AD27">
+        <v>951.89</v>
+      </c>
+      <c r="AE27">
+        <v>16025.51</v>
+      </c>
+      <c r="AF27">
+        <v>15066.09</v>
+      </c>
+      <c r="AG27">
+        <v>216052.1</v>
+      </c>
+      <c r="AH27">
+        <v>399266.5</v>
+      </c>
+      <c r="AI27">
+        <v>615318.7</v>
+      </c>
+      <c r="AJ27">
+        <v>129140.9</v>
+      </c>
+      <c r="AK27">
+        <v>280397</v>
+      </c>
+      <c r="AL27">
+        <v>136904.1</v>
+      </c>
+      <c r="AM27">
+        <v>633527.3999999999</v>
+      </c>
+      <c r="AN27">
+        <v>770431.5</v>
+      </c>
+      <c r="AO27">
+        <v>111459.2</v>
+      </c>
+      <c r="AP27">
+        <v>6.586666666666666</v>
+      </c>
+      <c r="AQ27">
+        <v>12.74666666666667</v>
+      </c>
+      <c r="AR27">
+        <v>3.868461538461539</v>
+      </c>
+      <c r="AS27">
+        <v>6.633846153846154</v>
+      </c>
+      <c r="AT27">
+        <v>1.877692307692308</v>
+      </c>
+      <c r="AU27">
+        <v>1.927692307692308</v>
+      </c>
+      <c r="AV27">
+        <v>6.169230769230769</v>
+      </c>
+      <c r="AW27">
+        <v>7.373846153846154</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>7.38</v>
+      </c>
+      <c r="AZ27">
+        <v>12.78846153846154</v>
+      </c>
+      <c r="BA27">
+        <v>6.595384615384614</v>
+      </c>
+      <c r="BB27">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="BC27">
+        <v>5.063333333333333</v>
+      </c>
+      <c r="BD27">
+        <v>112.57</v>
+      </c>
+      <c r="BE27">
+        <v>114.26</v>
+      </c>
+      <c r="BF27">
+        <v>133.0633333333333</v>
+      </c>
+      <c r="BG27">
+        <v>119.5666666666667</v>
+      </c>
+      <c r="BH27">
+        <v>121.3466666666666</v>
+      </c>
+      <c r="BI27">
+        <v>134.7966666666667</v>
+      </c>
+      <c r="BJ27">
+        <v>134.31</v>
+      </c>
+      <c r="BK27">
+        <v>126.6166666666667</v>
+      </c>
+      <c r="BL27">
+        <v>144.1</v>
+      </c>
+      <c r="BM27">
+        <v>126.2466666666667</v>
+      </c>
+      <c r="BN27">
+        <v>121.89</v>
+      </c>
+      <c r="BO27">
+        <v>361.48</v>
+      </c>
+      <c r="BP27">
+        <v>108.0833333333333</v>
+      </c>
+      <c r="BQ27">
+        <v>137.26</v>
+      </c>
+      <c r="BR27">
+        <v>119.6666666666667</v>
+      </c>
+      <c r="BS27">
+        <v>7.672258021978021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:71">
+      <c r="A28" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B28">
+        <v>17509.59</v>
+      </c>
+      <c r="C28">
+        <v>3.06</v>
+      </c>
+      <c r="D28">
+        <v>3.06</v>
+      </c>
+      <c r="E28">
+        <v>9.18</v>
+      </c>
+      <c r="F28">
+        <v>128896.3</v>
+      </c>
+      <c r="G28">
+        <v>4244215.7</v>
+      </c>
+      <c r="H28">
+        <v>69316.8</v>
+      </c>
+      <c r="I28">
+        <v>27842.87</v>
+      </c>
+      <c r="J28">
+        <v>201266.89</v>
+      </c>
+      <c r="K28">
+        <v>1861507</v>
+      </c>
+      <c r="L28">
+        <v>28962.97</v>
+      </c>
+      <c r="M28">
+        <v>116592.28</v>
+      </c>
+      <c r="N28">
+        <v>2980383.83</v>
+      </c>
+      <c r="O28">
+        <v>170613.27</v>
+      </c>
+      <c r="P28">
+        <v>5020.17</v>
+      </c>
+      <c r="Q28">
+        <v>739.17</v>
+      </c>
+      <c r="R28">
+        <v>151.31</v>
+      </c>
+      <c r="S28">
+        <v>23.41</v>
+      </c>
+      <c r="T28">
+        <v>301.88</v>
+      </c>
+      <c r="U28">
+        <v>949.2</v>
+      </c>
+      <c r="V28">
+        <v>389.2500000000001</v>
+      </c>
+      <c r="W28">
+        <v>760.73</v>
+      </c>
+      <c r="X28">
+        <v>156.84</v>
+      </c>
+      <c r="Y28">
+        <v>1420.05</v>
+      </c>
+      <c r="Z28">
+        <v>128.15</v>
+      </c>
+      <c r="AA28">
+        <v>15896.24</v>
+      </c>
+      <c r="AB28">
+        <v>4240.97</v>
+      </c>
+      <c r="AC28">
+        <v>20137.22</v>
+      </c>
+      <c r="AD28">
+        <v>909.77</v>
+      </c>
+      <c r="AE28">
+        <v>16697.93</v>
+      </c>
+      <c r="AF28">
+        <v>15769.74</v>
+      </c>
+      <c r="AG28">
+        <v>214617.7</v>
+      </c>
+      <c r="AH28">
+        <v>402692.9</v>
+      </c>
+      <c r="AI28">
+        <v>617310.7</v>
+      </c>
+      <c r="AJ28">
+        <v>132328.2</v>
+      </c>
+      <c r="AK28">
+        <v>285145</v>
+      </c>
+      <c r="AL28">
+        <v>138538.7</v>
+      </c>
+      <c r="AM28">
+        <v>650157.8</v>
+      </c>
+      <c r="AN28">
+        <v>788696.5</v>
+      </c>
+      <c r="AO28">
+        <v>115678.4</v>
+      </c>
+      <c r="AP28">
+        <v>6.52</v>
+      </c>
+      <c r="AQ28">
+        <v>12.78</v>
+      </c>
+      <c r="AR28">
+        <v>3.886923076923077</v>
+      </c>
+      <c r="AS28">
+        <v>6.565384615384616</v>
+      </c>
+      <c r="AT28">
+        <v>1.916923076923077</v>
+      </c>
+      <c r="AU28">
+        <v>2.048461538461539</v>
+      </c>
+      <c r="AV28">
+        <v>6.140769230769232</v>
+      </c>
+      <c r="AW28">
+        <v>7.356923076923077</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>7.394615384615386</v>
+      </c>
+      <c r="AZ28">
+        <v>12.81461538461538</v>
+      </c>
+      <c r="BA28">
+        <v>6.526923076923077</v>
+      </c>
+      <c r="BB28">
+        <v>3.18</v>
+      </c>
+      <c r="BC28">
+        <v>5.006666666666667</v>
+      </c>
+      <c r="BD28">
+        <v>109.3433333333333</v>
+      </c>
+      <c r="BE28">
+        <v>106.3666666666667</v>
+      </c>
+      <c r="BF28">
+        <v>134.6166666666667</v>
+      </c>
+      <c r="BG28">
+        <v>120.6933333333333</v>
+      </c>
+      <c r="BH28">
+        <v>120.93</v>
+      </c>
+      <c r="BI28">
+        <v>135.0233333333333</v>
+      </c>
+      <c r="BJ28">
+        <v>132.61</v>
+      </c>
+      <c r="BK28">
+        <v>125.1433333333333</v>
+      </c>
+      <c r="BL28">
+        <v>144.3433333333333</v>
+      </c>
+      <c r="BM28">
+        <v>127.3533333333333</v>
+      </c>
+      <c r="BN28">
+        <v>120.9366666666667</v>
+      </c>
+      <c r="BO28">
+        <v>351.21</v>
+      </c>
+      <c r="BP28">
+        <v>112.7966666666667</v>
+      </c>
+      <c r="BQ28">
+        <v>142.6433333333333</v>
+      </c>
+      <c r="BR28">
+        <v>119.7633333333333</v>
+      </c>
+      <c r="BS28">
+        <v>7.683985000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:71">
+      <c r="A29" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B29">
+        <v>20188.38</v>
+      </c>
+      <c r="C29">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="D29">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="E29">
+        <v>8.5</v>
+      </c>
+      <c r="F29">
+        <v>133685.2</v>
+      </c>
+      <c r="G29">
+        <v>4391833.9</v>
+      </c>
+      <c r="H29">
+        <v>82696.78</v>
+      </c>
+      <c r="I29">
+        <v>23335.68</v>
+      </c>
+      <c r="J29">
+        <v>197443.22</v>
+      </c>
+      <c r="K29">
+        <v>1871487.57</v>
+      </c>
+      <c r="L29">
+        <v>36076.65</v>
+      </c>
+      <c r="M29">
+        <v>113363.91</v>
+      </c>
+      <c r="N29">
+        <v>2921270.17</v>
+      </c>
+      <c r="O29">
+        <v>215815.09</v>
+      </c>
+      <c r="P29">
+        <v>5167.26</v>
+      </c>
+      <c r="Q29">
+        <v>788.8099999999999</v>
+      </c>
+      <c r="R29">
+        <v>185.3</v>
+      </c>
+      <c r="S29">
+        <v>27.99</v>
+      </c>
+      <c r="T29">
+        <v>364.61</v>
+      </c>
+      <c r="U29">
+        <v>963.97</v>
+      </c>
+      <c r="V29">
+        <v>417.12</v>
+      </c>
+      <c r="W29">
+        <v>794.4000000000001</v>
+      </c>
+      <c r="X29">
+        <v>121.16</v>
+      </c>
+      <c r="Y29">
+        <v>1377.37</v>
+      </c>
+      <c r="Z29">
+        <v>126.44</v>
+      </c>
+      <c r="AA29">
+        <v>17998.62</v>
+      </c>
+      <c r="AB29">
+        <v>5259.26</v>
+      </c>
+      <c r="AC29">
+        <v>23257.86</v>
+      </c>
+      <c r="AD29">
+        <v>1046.14</v>
+      </c>
+      <c r="AE29">
+        <v>17863.47</v>
+      </c>
+      <c r="AF29">
+        <v>16758.7</v>
+      </c>
+      <c r="AG29">
+        <v>212305.3</v>
+      </c>
+      <c r="AH29">
+        <v>420244.9999999999</v>
+      </c>
+      <c r="AI29">
+        <v>632550.3</v>
+      </c>
+      <c r="AJ29">
+        <v>143538.4</v>
+      </c>
+      <c r="AK29">
+        <v>301596.5</v>
+      </c>
+      <c r="AL29">
+        <v>135733</v>
+      </c>
+      <c r="AM29">
+        <v>677250.7</v>
+      </c>
+      <c r="AN29">
+        <v>812983.7000000001</v>
+      </c>
+      <c r="AO29">
+        <v>124789.3</v>
+      </c>
+      <c r="AP29">
+        <v>6.44</v>
+      </c>
+      <c r="AQ29">
+        <v>12.67</v>
+      </c>
+      <c r="AR29">
+        <v>3.90076923076923</v>
+      </c>
+      <c r="AS29">
+        <v>6.488461538461538</v>
+      </c>
+      <c r="AT29">
+        <v>2.048461538461539</v>
+      </c>
+      <c r="AU29">
+        <v>2.06</v>
+      </c>
+      <c r="AV29">
+        <v>6.123846153846154</v>
+      </c>
+      <c r="AW29">
+        <v>7.370769230769231</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>7.38153846153846</v>
+      </c>
+      <c r="AZ29">
+        <v>12.70769230769231</v>
+      </c>
+      <c r="BA29">
+        <v>6.452307692307692</v>
+      </c>
+      <c r="BB29">
+        <v>3.19</v>
+      </c>
+      <c r="BC29">
+        <v>4.94</v>
+      </c>
+      <c r="BD29">
+        <v>111.5966666666667</v>
+      </c>
+      <c r="BE29">
+        <v>133.7033333333333</v>
+      </c>
+      <c r="BF29">
+        <v>136.24</v>
+      </c>
+      <c r="BG29">
+        <v>127.0666666666667</v>
+      </c>
+      <c r="BH29">
+        <v>127.9533333333333</v>
+      </c>
+      <c r="BI29">
+        <v>149.3566666666667</v>
+      </c>
+      <c r="BJ29">
+        <v>141.4</v>
+      </c>
+      <c r="BK29">
+        <v>138.78</v>
+      </c>
+      <c r="BL29">
+        <v>151.3466666666667</v>
+      </c>
+      <c r="BM29">
+        <v>129.7633333333333</v>
+      </c>
+      <c r="BN29">
+        <v>133.34</v>
+      </c>
+      <c r="BO29">
+        <v>390.55</v>
+      </c>
+      <c r="BP29">
+        <v>94.40666666666668</v>
+      </c>
+      <c r="BQ29">
+        <v>141.9533333333333</v>
+      </c>
+      <c r="BR29">
+        <v>124.72</v>
+      </c>
+      <c r="BS29">
+        <v>7.718795652173914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:71">
+      <c r="A30" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B30">
+        <v>14332.93</v>
+      </c>
+      <c r="C30">
+        <v>1.596666666666667</v>
+      </c>
+      <c r="D30">
+        <v>1.596666666666667</v>
+      </c>
+      <c r="E30">
+        <v>4.79</v>
+      </c>
+      <c r="F30">
+        <v>146829.6</v>
+      </c>
+      <c r="G30">
+        <v>3977405.31</v>
+      </c>
+      <c r="H30">
+        <v>69520.85000000001</v>
+      </c>
+      <c r="I30">
+        <v>22454.32</v>
+      </c>
+      <c r="J30">
+        <v>189006.89</v>
+      </c>
+      <c r="K30">
+        <v>2458577.76</v>
+      </c>
+      <c r="L30">
+        <v>26008.86</v>
+      </c>
+      <c r="M30">
+        <v>106711.11</v>
+      </c>
+      <c r="N30">
+        <v>2537199.66</v>
+      </c>
+      <c r="O30">
+        <v>191157.99</v>
+      </c>
+      <c r="P30">
+        <v>4738.61</v>
+      </c>
+      <c r="Q30">
+        <v>661.27</v>
+      </c>
+      <c r="R30">
+        <v>137.06</v>
+      </c>
+      <c r="S30">
+        <v>16.72</v>
+      </c>
+      <c r="T30">
+        <v>288.12</v>
+      </c>
+      <c r="U30">
+        <v>928.0899999999999</v>
+      </c>
+      <c r="V30">
+        <v>336.47</v>
+      </c>
+      <c r="W30">
+        <v>689.75</v>
+      </c>
+      <c r="X30">
+        <v>134.23</v>
+      </c>
+      <c r="Y30">
+        <v>1414.38</v>
+      </c>
+      <c r="Z30">
+        <v>132.38</v>
+      </c>
+      <c r="AA30">
+        <v>14547</v>
+      </c>
+      <c r="AB30">
+        <v>2348.91</v>
+      </c>
+      <c r="AC30">
+        <v>16895.91</v>
+      </c>
+      <c r="AD30">
+        <v>1006.4</v>
+      </c>
+      <c r="AE30">
+        <v>15511.66</v>
+      </c>
+      <c r="AF30">
+        <v>14502.18</v>
+      </c>
+      <c r="AG30">
+        <v>217916.3</v>
+      </c>
+      <c r="AH30">
+        <v>428821.2</v>
+      </c>
+      <c r="AI30">
+        <v>646737.5</v>
+      </c>
+      <c r="AJ30">
+        <v>147276.8</v>
+      </c>
+      <c r="AK30">
+        <v>314021.2</v>
+      </c>
+      <c r="AL30">
+        <v>145025.5</v>
+      </c>
+      <c r="AM30">
+        <v>694960.5</v>
+      </c>
+      <c r="AN30">
+        <v>839986</v>
+      </c>
+      <c r="AO30">
+        <v>128518</v>
+      </c>
+      <c r="AP30">
+        <v>6.350000000000001</v>
+      </c>
+      <c r="AQ30">
+        <v>12.65666666666667</v>
+      </c>
+      <c r="AR30">
+        <v>3.877692307692307</v>
+      </c>
+      <c r="AS30">
+        <v>6.375384615384615</v>
+      </c>
+      <c r="AT30">
+        <v>1.997692307692308</v>
+      </c>
+      <c r="AU30">
+        <v>2.061538461538462</v>
+      </c>
+      <c r="AV30">
+        <v>6.113076923076924</v>
+      </c>
+      <c r="AW30">
+        <v>7.390769230769232</v>
+      </c>
+      <c r="AX30">
+        <v>4.313846153846153</v>
+      </c>
+      <c r="AY30">
+        <v>6.945384615384616</v>
+      </c>
+      <c r="AZ30">
+        <v>12.69769230769231</v>
+      </c>
+      <c r="BA30">
+        <v>6.366153846153845</v>
+      </c>
+      <c r="BB30">
+        <v>3.186666666666667</v>
+      </c>
+      <c r="BC30">
+        <v>4.843333333333334</v>
+      </c>
+      <c r="BD30">
+        <v>126.7766666666667</v>
+      </c>
+      <c r="BE30">
+        <v>126.9033333333333</v>
+      </c>
+      <c r="BF30">
+        <v>118.3233333333333</v>
+      </c>
+      <c r="BG30">
+        <v>122.5133333333333</v>
+      </c>
+      <c r="BH30">
+        <v>120.1466666666667</v>
+      </c>
+      <c r="BI30">
+        <v>117.8433333333333</v>
+      </c>
+      <c r="BJ30">
+        <v>135.73</v>
+      </c>
+      <c r="BK30">
+        <v>128.77</v>
+      </c>
+      <c r="BL30">
+        <v>154.4</v>
+      </c>
+      <c r="BM30">
+        <v>128.8</v>
+      </c>
+      <c r="BN30">
+        <v>117.8733333333333</v>
+      </c>
+      <c r="BO30">
+        <v>363.36</v>
+      </c>
+      <c r="BP30">
+        <v>114.8933333333333</v>
+      </c>
+      <c r="BQ30">
+        <v>134.1366666666667</v>
+      </c>
+      <c r="BR30">
+        <v>114.34</v>
+      </c>
+      <c r="BS30">
+        <v>7.677500219780221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:71">
+      <c r="A31" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B31">
+        <v>14897.08</v>
+      </c>
+      <c r="C31">
+        <v>2.023333333333333</v>
+      </c>
+      <c r="D31">
+        <v>2.023333333333333</v>
+      </c>
+      <c r="E31">
+        <v>6.07</v>
+      </c>
+      <c r="F31">
+        <v>142590.3</v>
+      </c>
+      <c r="G31">
+        <v>3331563.37</v>
+      </c>
+      <c r="H31">
+        <v>45267.24000000001</v>
+      </c>
+      <c r="I31">
+        <v>18392.03</v>
+      </c>
+      <c r="J31">
+        <v>13265.04</v>
+      </c>
+      <c r="K31">
+        <v>1846526.73</v>
+      </c>
+      <c r="L31">
+        <v>26058.47</v>
+      </c>
+      <c r="M31">
+        <v>88428.41</v>
+      </c>
+      <c r="N31">
+        <v>2612645.23</v>
+      </c>
+      <c r="O31">
+        <v>7262.040000000001</v>
+      </c>
+      <c r="P31">
+        <v>3953.320000000001</v>
+      </c>
+      <c r="Q31">
+        <v>506.85</v>
+      </c>
+      <c r="R31">
+        <v>102.33</v>
+      </c>
+      <c r="S31">
+        <v>10.86</v>
+      </c>
+      <c r="T31">
+        <v>193.6</v>
+      </c>
+      <c r="U31">
+        <v>870.5</v>
+      </c>
+      <c r="V31">
+        <v>204.4</v>
+      </c>
+      <c r="W31">
+        <v>373.87</v>
+      </c>
+      <c r="X31">
+        <v>199.69</v>
+      </c>
+      <c r="Y31">
+        <v>1383.87</v>
+      </c>
+      <c r="Z31">
+        <v>107.27</v>
+      </c>
+      <c r="AA31">
+        <v>17679.24</v>
+      </c>
+      <c r="AB31">
+        <v>5170.58</v>
+      </c>
+      <c r="AC31">
+        <v>22849.8</v>
+      </c>
+      <c r="AD31">
+        <v>874.74</v>
+      </c>
+      <c r="AE31">
+        <v>14852.19</v>
+      </c>
+      <c r="AF31">
+        <v>13962.89</v>
+      </c>
+      <c r="AG31">
+        <v>225258.8</v>
+      </c>
+      <c r="AH31">
+        <v>438677.9</v>
+      </c>
+      <c r="AI31">
+        <v>663936.7000000001</v>
+      </c>
+      <c r="AJ31">
+        <v>160496.6</v>
+      </c>
+      <c r="AK31">
+        <v>329452.6</v>
+      </c>
+      <c r="AL31">
+        <v>160624.2</v>
+      </c>
+      <c r="AM31">
+        <v>716217.5</v>
+      </c>
+      <c r="AN31">
+        <v>876841.7</v>
+      </c>
+      <c r="AO31">
+        <v>138702.2</v>
+      </c>
+      <c r="AP31">
+        <v>6.213333333333334</v>
+      </c>
+      <c r="AQ31">
+        <v>12.64333333333333</v>
+      </c>
+      <c r="AR31">
+        <v>3.782307692307692</v>
+      </c>
+      <c r="AS31">
+        <v>6.257692307692308</v>
+      </c>
+      <c r="AT31">
+        <v>2.006153846153846</v>
+      </c>
+      <c r="AU31">
+        <v>1.973076923076923</v>
+      </c>
+      <c r="AV31">
+        <v>6.057692307692308</v>
+      </c>
+      <c r="AW31">
+        <v>7.304615384615385</v>
+      </c>
+      <c r="AX31">
+        <v>4.256153846153846</v>
+      </c>
+      <c r="AY31">
+        <v>6.974615384615385</v>
+      </c>
+      <c r="AZ31">
+        <v>12.67384615384615</v>
+      </c>
+      <c r="BA31">
+        <v>6.226923076923077</v>
+      </c>
+      <c r="BB31">
+        <v>3.07</v>
+      </c>
+      <c r="BC31">
+        <v>4.716666666666667</v>
+      </c>
+      <c r="BD31">
+        <v>109.82</v>
+      </c>
+      <c r="BE31">
+        <v>104.9433333333333</v>
+      </c>
+      <c r="BF31">
+        <v>122.4966666666667</v>
+      </c>
+      <c r="BG31">
+        <v>111.0566666666667</v>
+      </c>
+      <c r="BH31">
+        <v>84.38333333333333</v>
+      </c>
+      <c r="BI31">
+        <v>76.91666666666667</v>
+      </c>
+      <c r="BJ31">
+        <v>113.0933333333333</v>
+      </c>
+      <c r="BK31">
+        <v>124.3233333333333</v>
+      </c>
+      <c r="BL31">
+        <v>139.41</v>
+      </c>
+      <c r="BM31">
+        <v>128.0066666666667</v>
+      </c>
+      <c r="BN31">
+        <v>112.29</v>
+      </c>
+      <c r="BO31">
+        <v>326.21</v>
+      </c>
+      <c r="BP31">
+        <v>92.52</v>
+      </c>
+      <c r="BQ31">
+        <v>118.3466666666666</v>
+      </c>
+      <c r="BR31">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="BS31">
+        <v>7.701110329670329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:71">
+      <c r="A32" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B32">
+        <v>17888.81</v>
+      </c>
+      <c r="C32">
+        <v>4.013333333333333</v>
+      </c>
+      <c r="D32">
+        <v>4.013333333333333</v>
+      </c>
+      <c r="E32">
+        <v>12.04</v>
+      </c>
+      <c r="F32">
+        <v>156541.4</v>
+      </c>
+      <c r="G32">
+        <v>3744643.95</v>
+      </c>
+      <c r="H32">
+        <v>43272.89</v>
+      </c>
+      <c r="I32">
+        <v>17941.4</v>
+      </c>
+      <c r="J32">
+        <v>9033.24</v>
+      </c>
+      <c r="K32">
+        <v>1850252.16</v>
+      </c>
+      <c r="L32">
+        <v>22712.08</v>
+      </c>
+      <c r="M32">
+        <v>88898.03</v>
+      </c>
+      <c r="N32">
+        <v>3311715.1</v>
+      </c>
+      <c r="O32">
+        <v>567.76</v>
+      </c>
+      <c r="P32">
+        <v>4380.48</v>
+      </c>
+      <c r="Q32">
+        <v>728.51</v>
+      </c>
+      <c r="R32">
+        <v>112.16</v>
+      </c>
+      <c r="S32">
+        <v>23.24</v>
+      </c>
+      <c r="T32">
+        <v>211.62</v>
+      </c>
+      <c r="U32">
+        <v>972.8299999999999</v>
+      </c>
+      <c r="V32">
+        <v>302.03</v>
+      </c>
+      <c r="W32">
+        <v>445.52</v>
+      </c>
+      <c r="X32">
+        <v>172.02</v>
+      </c>
+      <c r="Y32">
+        <v>1291.61</v>
+      </c>
+      <c r="Z32">
+        <v>120.82</v>
+      </c>
+      <c r="AA32">
+        <v>21200.18</v>
+      </c>
+      <c r="AB32">
+        <v>4046.98</v>
+      </c>
+      <c r="AC32">
+        <v>25247.17</v>
+      </c>
+      <c r="AD32">
+        <v>844.4</v>
+      </c>
+      <c r="AE32">
+        <v>15200.61</v>
+      </c>
+      <c r="AF32">
+        <v>14344.2</v>
+      </c>
+      <c r="AG32">
+        <v>220619.8</v>
+      </c>
+      <c r="AH32">
+        <v>437349.2</v>
+      </c>
+      <c r="AI32">
+        <v>657969</v>
+      </c>
+      <c r="AJ32">
+        <v>168721</v>
+      </c>
+      <c r="AK32">
+        <v>356481.5</v>
+      </c>
+      <c r="AL32">
+        <v>163010</v>
+      </c>
+      <c r="AM32">
+        <v>762423.4</v>
+      </c>
+      <c r="AN32">
+        <v>925433.4</v>
+      </c>
+      <c r="AO32">
+        <v>149306</v>
+      </c>
+      <c r="AP32">
+        <v>6.163333333333334</v>
+      </c>
+      <c r="AQ32">
+        <v>12.47333333333333</v>
+      </c>
+      <c r="AR32">
+        <v>3.71</v>
+      </c>
+      <c r="AS32">
+        <v>6.107692307692307</v>
+      </c>
+      <c r="AT32">
+        <v>1.695384615384615</v>
+      </c>
+      <c r="AU32">
+        <v>1.956153846153846</v>
+      </c>
+      <c r="AV32">
+        <v>5.966153846153846</v>
+      </c>
+      <c r="AW32">
+        <v>7.269230769230769</v>
+      </c>
+      <c r="AX32">
+        <v>4.226923076923077</v>
+      </c>
+      <c r="AY32">
+        <v>6.928461538461538</v>
+      </c>
+      <c r="AZ32">
+        <v>12.49538461538462</v>
+      </c>
+      <c r="BA32">
+        <v>6.173076923076922</v>
+      </c>
+      <c r="BB32">
+        <v>2.863333333333333</v>
+      </c>
+      <c r="BC32">
+        <v>4.556666666666667</v>
+      </c>
+      <c r="BD32">
+        <v>109.9366666666667</v>
+      </c>
+      <c r="BE32">
+        <v>114.85</v>
+      </c>
+      <c r="BF32">
+        <v>131.87</v>
+      </c>
+      <c r="BG32">
+        <v>122.35</v>
+      </c>
+      <c r="BH32">
+        <v>105.6766666666667</v>
+      </c>
+      <c r="BI32">
+        <v>94.3</v>
+      </c>
+      <c r="BJ32">
+        <v>125.6266666666667</v>
+      </c>
+      <c r="BK32">
+        <v>128.6033333333334</v>
+      </c>
+      <c r="BL32">
+        <v>149.5633333333334</v>
+      </c>
+      <c r="BM32">
+        <v>130.1266666666667</v>
+      </c>
+      <c r="BN32">
+        <v>114.4033333333334</v>
+      </c>
+      <c r="BO32">
+        <v>332</v>
+      </c>
+      <c r="BP32">
+        <v>110.0166666666667</v>
+      </c>
+      <c r="BQ32">
+        <v>142.23</v>
+      </c>
+      <c r="BR32">
+        <v>104.1033333333333</v>
+      </c>
+      <c r="BS32">
+        <v>7.719041739130435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:71">
+      <c r="A33" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B33">
+        <v>21727.07</v>
+      </c>
+      <c r="C33">
+        <v>5.206666666666667</v>
+      </c>
+      <c r="D33">
+        <v>5.206666666666667</v>
+      </c>
+      <c r="E33">
+        <v>15.62</v>
+      </c>
+      <c r="F33">
+        <v>172115.1</v>
+      </c>
+      <c r="G33">
+        <v>4379173.04</v>
+      </c>
+      <c r="H33">
+        <v>63189.13</v>
+      </c>
+      <c r="I33">
+        <v>23096.94</v>
+      </c>
+      <c r="J33">
+        <v>28730.05</v>
+      </c>
+      <c r="K33">
+        <v>1868431.77</v>
+      </c>
+      <c r="L33">
+        <v>33556.74</v>
+      </c>
+      <c r="M33">
+        <v>103302.28</v>
+      </c>
+      <c r="N33">
+        <v>3444450.42</v>
+      </c>
+      <c r="O33">
+        <v>14226.75</v>
+      </c>
+      <c r="P33">
+        <v>5134.3</v>
+      </c>
+      <c r="Q33">
+        <v>789.98</v>
+      </c>
+      <c r="R33">
+        <v>202.2</v>
+      </c>
+      <c r="S33">
+        <v>34</v>
+      </c>
+      <c r="T33">
+        <v>326.17</v>
+      </c>
+      <c r="U33">
+        <v>1009.05</v>
+      </c>
+      <c r="V33">
+        <v>428.8200000000001</v>
+      </c>
+      <c r="W33">
+        <v>616.04</v>
+      </c>
+      <c r="X33">
+        <v>137.91</v>
+      </c>
+      <c r="Y33">
+        <v>1449.84</v>
+      </c>
+      <c r="Z33">
+        <v>140.13</v>
+      </c>
+      <c r="AA33">
+        <v>22142.58</v>
+      </c>
+      <c r="AB33">
+        <v>6393.549999999999</v>
+      </c>
+      <c r="AC33">
+        <v>28536.11</v>
+      </c>
+      <c r="AD33">
+        <v>991.66</v>
+      </c>
+      <c r="AE33">
+        <v>18501.14</v>
+      </c>
+      <c r="AF33">
+        <v>17470.14</v>
+      </c>
+      <c r="AG33">
+        <v>220353.9</v>
+      </c>
+      <c r="AH33">
+        <v>452167.2</v>
+      </c>
+      <c r="AI33">
+        <v>672521.1</v>
+      </c>
+      <c r="AJ33">
+        <v>179873.1</v>
+      </c>
+      <c r="AK33">
+        <v>380212.3</v>
+      </c>
+      <c r="AL33">
+        <v>167841.1</v>
+      </c>
+      <c r="AM33">
+        <v>802294.7000000001</v>
+      </c>
+      <c r="AN33">
+        <v>970135.8</v>
+      </c>
+      <c r="AO33">
+        <v>158714.6</v>
+      </c>
+      <c r="AP33">
+        <v>6.100000000000001</v>
+      </c>
+      <c r="AQ33">
+        <v>12.32666666666667</v>
+      </c>
+      <c r="AR33">
+        <v>3.660714285714285</v>
+      </c>
+      <c r="AS33">
+        <v>5.932857142857143</v>
+      </c>
+      <c r="AT33">
+        <v>1.355714285714286</v>
+      </c>
+      <c r="AU33">
+        <v>1.912142857142857</v>
+      </c>
+      <c r="AV33">
+        <v>5.960714285714286</v>
+      </c>
+      <c r="AW33">
+        <v>7.382142857142858</v>
+      </c>
+      <c r="AX33">
+        <v>4.112142857142858</v>
+      </c>
+      <c r="AY33">
+        <v>6.877857142857144</v>
+      </c>
+      <c r="AZ33">
+        <v>12.36785714285714</v>
+      </c>
+      <c r="BA33">
+        <v>6.113571428571428</v>
+      </c>
+      <c r="BB33">
+        <v>2.756666666666666</v>
+      </c>
+      <c r="BC33">
+        <v>4.409999999999999</v>
+      </c>
+      <c r="BD33">
+        <v>112.98</v>
+      </c>
+      <c r="BE33">
+        <v>138.8566666666667</v>
+      </c>
+      <c r="BF33">
+        <v>133.4533333333333</v>
+      </c>
+      <c r="BG33">
+        <v>133.6266666666667</v>
+      </c>
+      <c r="BH33">
+        <v>119.18</v>
+      </c>
+      <c r="BI33">
+        <v>125.5833333333333</v>
+      </c>
+      <c r="BJ33">
+        <v>142.8333333333333</v>
+      </c>
+      <c r="BK33">
+        <v>143.4066666666667</v>
+      </c>
+      <c r="BL33">
+        <v>157.9733333333333</v>
+      </c>
+      <c r="BM33">
+        <v>133.8566666666667</v>
+      </c>
+      <c r="BN33">
+        <v>133.2633333333333</v>
+      </c>
+      <c r="BO33">
+        <v>411.45</v>
+      </c>
+      <c r="BP33">
+        <v>109.4366666666667</v>
+      </c>
+      <c r="BQ33">
+        <v>156.3433333333333</v>
+      </c>
+      <c r="BR33">
+        <v>120.1533333333333</v>
+      </c>
+      <c r="BS33">
+        <v>7.790501739130434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:71">
+      <c r="A34" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B34">
+        <v>15335.99</v>
+      </c>
+      <c r="C34">
+        <v>5.693333333333332</v>
+      </c>
+      <c r="D34">
+        <v>5.693333333333332</v>
+      </c>
+      <c r="E34">
+        <v>17.08</v>
+      </c>
+      <c r="F34">
+        <v>183800.8</v>
+      </c>
+      <c r="G34">
+        <v>4777267.9</v>
+      </c>
+      <c r="H34">
+        <v>80172.78</v>
+      </c>
+      <c r="I34">
+        <v>10208.54</v>
+      </c>
+      <c r="J34">
+        <v>37715.59</v>
+      </c>
+      <c r="K34">
+        <v>2557927.67</v>
+      </c>
+      <c r="L34">
+        <v>55133.38</v>
+      </c>
+      <c r="M34">
+        <v>101684.03</v>
+      </c>
+      <c r="N34">
+        <v>3290652.85</v>
+      </c>
+      <c r="O34">
+        <v>43131.62</v>
+      </c>
+      <c r="P34">
+        <v>5614.700000000001</v>
+      </c>
+      <c r="Q34">
+        <v>851.49</v>
+      </c>
+      <c r="R34">
+        <v>204.6</v>
+      </c>
+      <c r="S34">
+        <v>25.54</v>
+      </c>
+      <c r="T34">
+        <v>360.48</v>
+      </c>
+      <c r="U34">
+        <v>1031.75</v>
+      </c>
+      <c r="V34">
+        <v>417.21</v>
+      </c>
+      <c r="W34">
+        <v>834.8199999999999</v>
+      </c>
+      <c r="X34">
+        <v>155.06</v>
+      </c>
+      <c r="Y34">
+        <v>1569.94</v>
+      </c>
+      <c r="Z34">
+        <v>163.74</v>
+      </c>
+      <c r="AA34">
+        <v>14736.75</v>
+      </c>
+      <c r="AB34">
+        <v>2488.95</v>
+      </c>
+      <c r="AC34">
+        <v>17225.7</v>
+      </c>
+      <c r="AD34">
+        <v>979.71</v>
+      </c>
+      <c r="AE34">
+        <v>18918.71</v>
+      </c>
+      <c r="AF34">
+        <v>17879.83</v>
+      </c>
+      <c r="AG34">
+        <v>221491.3</v>
+      </c>
+      <c r="AH34">
+        <v>461215.7</v>
+      </c>
+      <c r="AI34">
+        <v>682707</v>
+      </c>
+      <c r="AJ34">
+        <v>185246.5</v>
+      </c>
+      <c r="AK34">
+        <v>393950.7</v>
+      </c>
+      <c r="AL34">
+        <v>180122.5</v>
+      </c>
+      <c r="AM34">
+        <v>823914.8</v>
+      </c>
+      <c r="AN34">
+        <v>1004037.3</v>
+      </c>
+      <c r="AO34">
+        <v>164650.9</v>
+      </c>
+      <c r="AP34">
+        <v>6.03</v>
+      </c>
+      <c r="AQ34">
+        <v>12.32666666666667</v>
+      </c>
+      <c r="AR34">
+        <v>3.575833333333333</v>
+      </c>
+      <c r="AS34">
+        <v>5.75</v>
+      </c>
+      <c r="AT34">
+        <v>1.191666666666667</v>
+      </c>
+      <c r="AU34">
+        <v>1.905</v>
+      </c>
+      <c r="AV34">
+        <v>5.950833333333332</v>
+      </c>
+      <c r="AW34">
+        <v>7.234999999999999</v>
+      </c>
+      <c r="AX34">
+        <v>3.986666666666666</v>
+      </c>
+      <c r="AY34">
+        <v>6.893333333333334</v>
+      </c>
+      <c r="AZ34">
+        <v>12.3525</v>
+      </c>
+      <c r="BA34">
+        <v>6.041666666666667</v>
+      </c>
+      <c r="BB34">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="BC34">
+        <v>4.286666666666666</v>
+      </c>
+      <c r="BD34">
+        <v>130.5933333333333</v>
+      </c>
+      <c r="BE34">
+        <v>129.4633333333333</v>
+      </c>
+      <c r="BF34">
+        <v>133.6366666666667</v>
+      </c>
+      <c r="BG34">
+        <v>130.07</v>
+      </c>
+      <c r="BH34">
+        <v>116.9033333333333</v>
+      </c>
+      <c r="BI34">
+        <v>116.1166666666667</v>
+      </c>
+      <c r="BJ34">
+        <v>143.8233333333334</v>
+      </c>
+      <c r="BK34">
+        <v>135.1033333333333</v>
+      </c>
+      <c r="BL34">
+        <v>158.59</v>
+      </c>
+      <c r="BM34">
+        <v>134.2233333333333</v>
+      </c>
+      <c r="BN34">
+        <v>123.4366666666667</v>
+      </c>
+      <c r="BO34">
+        <v>387.05</v>
+      </c>
+      <c r="BP34">
+        <v>112.8266666666667</v>
+      </c>
+      <c r="BQ34">
+        <v>151.2633333333333</v>
+      </c>
+      <c r="BR34">
+        <v>112.0533333333333</v>
+      </c>
+      <c r="BS34">
+        <v>7.752138222222222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:71">
+      <c r="A35" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B35">
+        <v>16965.33</v>
+      </c>
+      <c r="C35">
+        <v>4.760000000000001</v>
+      </c>
+      <c r="D35">
+        <v>4.760000000000001</v>
+      </c>
+      <c r="E35">
+        <v>14.28</v>
+      </c>
+      <c r="F35">
+        <v>167632.6</v>
+      </c>
+      <c r="G35">
+        <v>5293280.310000001</v>
+      </c>
+      <c r="H35">
+        <v>83615.3</v>
+      </c>
+      <c r="I35">
+        <v>8471.57</v>
+      </c>
+      <c r="J35">
+        <v>36926.65</v>
+      </c>
+      <c r="K35">
+        <v>2250184.91</v>
+      </c>
+      <c r="L35">
+        <v>51593.08</v>
+      </c>
+      <c r="M35">
+        <v>117488.16</v>
+      </c>
+      <c r="N35">
+        <v>4008459.28</v>
+      </c>
+      <c r="O35">
+        <v>50931.59</v>
+      </c>
+      <c r="P35">
+        <v>6394.09</v>
+      </c>
+      <c r="Q35">
+        <v>832.1</v>
+      </c>
+      <c r="R35">
+        <v>224.56</v>
+      </c>
+      <c r="S35">
+        <v>27.83</v>
+      </c>
+      <c r="T35">
+        <v>403.69</v>
+      </c>
+      <c r="U35">
+        <v>1126.98</v>
+      </c>
+      <c r="V35">
+        <v>431.63</v>
+      </c>
+      <c r="W35">
+        <v>935.5600000000001</v>
+      </c>
+      <c r="X35">
+        <v>265.62</v>
+      </c>
+      <c r="Y35">
+        <v>1963.81</v>
+      </c>
+      <c r="Z35">
+        <v>182.2</v>
+      </c>
+      <c r="AA35">
+        <v>18743.44</v>
+      </c>
+      <c r="AB35">
+        <v>3931.01</v>
+      </c>
+      <c r="AC35">
+        <v>22674.46</v>
+      </c>
+      <c r="AD35">
+        <v>1012.54</v>
+      </c>
+      <c r="AE35">
+        <v>19223.94</v>
+      </c>
+      <c r="AF35">
+        <v>18139.45</v>
+      </c>
+      <c r="AG35">
+        <v>225299.9</v>
+      </c>
+      <c r="AH35">
+        <v>473095.2</v>
+      </c>
+      <c r="AI35">
+        <v>698395.1</v>
+      </c>
+      <c r="AJ35">
+        <v>186113.2</v>
+      </c>
+      <c r="AK35">
+        <v>397100.9</v>
+      </c>
+      <c r="AL35">
+        <v>191939.8</v>
+      </c>
+      <c r="AM35">
+        <v>835564.0999999999</v>
+      </c>
+      <c r="AN35">
+        <v>1027503.9</v>
+      </c>
+      <c r="AO35">
+        <v>165612.5</v>
+      </c>
+      <c r="AP35">
+        <v>5.920000000000001</v>
+      </c>
+      <c r="AQ35">
+        <v>12.25666666666667</v>
+      </c>
+      <c r="AR35">
+        <v>3.483846153846154</v>
+      </c>
+      <c r="AS35">
+        <v>5.604615384615385</v>
+      </c>
+      <c r="AT35">
+        <v>1.168461538461538</v>
+      </c>
+      <c r="AU35">
+        <v>1.914615384615385</v>
+      </c>
+      <c r="AV35">
+        <v>5.648461538461538</v>
+      </c>
+      <c r="AW35">
+        <v>6.855384615384614</v>
+      </c>
+      <c r="AX35">
+        <v>3.628461538461539</v>
+      </c>
+      <c r="AY35">
+        <v>6.526153846153846</v>
+      </c>
+      <c r="AZ35">
+        <v>12.28461538461538</v>
+      </c>
+      <c r="BA35">
+        <v>5.940769230769231</v>
+      </c>
+      <c r="BB35">
+        <v>2.506666666666666</v>
+      </c>
+      <c r="BC35">
+        <v>4.186666666666667</v>
+      </c>
+      <c r="BD35">
+        <v>116.42</v>
+      </c>
+      <c r="BE35">
+        <v>120.8</v>
+      </c>
+      <c r="BF35">
+        <v>139.1566666666667</v>
+      </c>
+      <c r="BG35">
+        <v>130.41</v>
+      </c>
+      <c r="BH35">
+        <v>110.33</v>
+      </c>
+      <c r="BI35">
+        <v>125.9233333333333</v>
+      </c>
+      <c r="BJ35">
+        <v>138.36</v>
+      </c>
+      <c r="BK35">
+        <v>135.5033333333334</v>
+      </c>
+      <c r="BL35">
+        <v>159.37</v>
+      </c>
+      <c r="BM35">
+        <v>135.0466666666667</v>
+      </c>
+      <c r="BN35">
+        <v>125.6333333333333</v>
+      </c>
+      <c r="BO35">
+        <v>391.84</v>
+      </c>
+      <c r="BP35">
+        <v>107.0533333333333</v>
+      </c>
+      <c r="BQ35">
+        <v>159.68</v>
+      </c>
+      <c r="BR35">
+        <v>107.5766666666667</v>
+      </c>
+      <c r="BS35">
+        <v>7.723245604395605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:71">
+      <c r="A36" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B36">
+        <v>19303.82</v>
+      </c>
+      <c r="C36">
+        <v>3.703333333333333</v>
+      </c>
+      <c r="D36">
+        <v>3.703333333333333</v>
+      </c>
+      <c r="E36">
+        <v>11.11</v>
+      </c>
+      <c r="F36">
+        <v>167690.5</v>
+      </c>
+      <c r="G36">
+        <v>5766875.55</v>
+      </c>
+      <c r="H36">
+        <v>113298.28</v>
+      </c>
+      <c r="I36">
+        <v>8850.92</v>
+      </c>
+      <c r="J36">
+        <v>49036.5</v>
+      </c>
+      <c r="K36">
+        <v>2245448.84</v>
+      </c>
+      <c r="L36">
+        <v>46168.59</v>
+      </c>
+      <c r="M36">
+        <v>125548.5</v>
+      </c>
+      <c r="N36">
+        <v>4225287.61</v>
+      </c>
+      <c r="O36">
+        <v>54520.37</v>
+      </c>
+      <c r="P36">
+        <v>6882.93</v>
+      </c>
+      <c r="Q36">
+        <v>911.79</v>
+      </c>
+      <c r="R36">
+        <v>209.85</v>
+      </c>
+      <c r="S36">
+        <v>36.42</v>
+      </c>
+      <c r="T36">
+        <v>415.0600000000001</v>
+      </c>
+      <c r="U36">
+        <v>1283.07</v>
+      </c>
+      <c r="V36">
+        <v>506.18</v>
+      </c>
+      <c r="W36">
+        <v>1003.54</v>
+      </c>
+      <c r="X36">
+        <v>205.92</v>
+      </c>
+      <c r="Y36">
+        <v>2100.64</v>
+      </c>
+      <c r="Z36">
+        <v>210.31</v>
+      </c>
+      <c r="AA36">
+        <v>18244.73</v>
+      </c>
+      <c r="AB36">
+        <v>4025.990000000001</v>
+      </c>
+      <c r="AC36">
+        <v>22270.72</v>
+      </c>
+      <c r="AD36">
+        <v>917.05</v>
+      </c>
+      <c r="AE36">
+        <v>20481.55</v>
+      </c>
+      <c r="AF36">
+        <v>19500.57</v>
+      </c>
+      <c r="AG36">
+        <v>232885.7</v>
+      </c>
+      <c r="AH36">
+        <v>485244.9</v>
+      </c>
+      <c r="AI36">
+        <v>718130.6</v>
+      </c>
+      <c r="AJ36">
+        <v>191790.3</v>
+      </c>
+      <c r="AK36">
+        <v>403730.5000000001</v>
+      </c>
+      <c r="AL36">
+        <v>193699.2</v>
+      </c>
+      <c r="AM36">
+        <v>856337.6</v>
+      </c>
+      <c r="AN36">
+        <v>1050036.8</v>
+      </c>
+      <c r="AO36">
+        <v>170488.6</v>
+      </c>
+      <c r="AP36">
+        <v>5.763333333333333</v>
+      </c>
+      <c r="AQ36">
+        <v>12.14666666666667</v>
+      </c>
+      <c r="AR36">
+        <v>3.390714285714286</v>
+      </c>
+      <c r="AS36">
+        <v>5.448571428571428</v>
+      </c>
+      <c r="AT36">
+        <v>1.197857142857143</v>
+      </c>
+      <c r="AU36">
+        <v>1.930714285714286</v>
+      </c>
+      <c r="AV36">
+        <v>5.487142857142857</v>
+      </c>
+      <c r="AW36">
+        <v>6.586428571428573</v>
+      </c>
+      <c r="AX36">
+        <v>3.747857142857143</v>
+      </c>
+      <c r="AY36">
+        <v>6.105714285714285</v>
+      </c>
+      <c r="AZ36">
+        <v>12.18285714285715</v>
+      </c>
+      <c r="BA36">
+        <v>5.780714285714285</v>
+      </c>
+      <c r="BB36">
+        <v>2.466666666666667</v>
+      </c>
+      <c r="BC36">
+        <v>4.066666666666666</v>
+      </c>
+      <c r="BD36">
+        <v>114.2533333333333</v>
+      </c>
+      <c r="BE36">
+        <v>130.8233333333334</v>
+      </c>
+      <c r="BF36">
+        <v>142.8166666666667</v>
+      </c>
+      <c r="BG36">
+        <v>132.2633333333333</v>
+      </c>
+      <c r="BH36">
+        <v>119.9733333333333</v>
+      </c>
+      <c r="BI36">
+        <v>119.3833333333333</v>
+      </c>
+      <c r="BJ36">
+        <v>141.4</v>
+      </c>
+      <c r="BK36">
+        <v>135.6433333333333</v>
+      </c>
+      <c r="BL36">
+        <v>162.1933333333334</v>
+      </c>
+      <c r="BM36">
+        <v>137.06</v>
+      </c>
+      <c r="BN36">
+        <v>128.35</v>
+      </c>
+      <c r="BO36">
+        <v>383.52</v>
+      </c>
+      <c r="BP36">
+        <v>112.8066666666667</v>
+      </c>
+      <c r="BQ36">
+        <v>175.5466666666667</v>
+      </c>
+      <c r="BR36">
+        <v>113.8666666666667</v>
+      </c>
+      <c r="BS36">
+        <v>7.738517282608695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:71">
+      <c r="A37" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B37">
+        <v>23503.51</v>
+      </c>
+      <c r="C37">
+        <v>2.973333333333333</v>
+      </c>
+      <c r="D37">
+        <v>2.973333333333333</v>
+      </c>
+      <c r="E37">
+        <v>8.92</v>
+      </c>
+      <c r="F37">
+        <v>155714.3</v>
+      </c>
+      <c r="G37">
+        <v>6317386.640000001</v>
+      </c>
+      <c r="H37">
+        <v>130094.27</v>
+      </c>
+      <c r="I37">
+        <v>12043.87</v>
+      </c>
+      <c r="J37">
+        <v>79417.63</v>
+      </c>
+      <c r="K37">
+        <v>2329680.91</v>
+      </c>
+      <c r="L37">
+        <v>56417.95</v>
+      </c>
+      <c r="M37">
+        <v>142256.24</v>
+      </c>
+      <c r="N37">
+        <v>4533344.51</v>
+      </c>
+      <c r="O37">
+        <v>96097.64</v>
+      </c>
+      <c r="P37">
+        <v>7716.190000000001</v>
+      </c>
+      <c r="Q37">
+        <v>953.66</v>
+      </c>
+      <c r="R37">
+        <v>234.36</v>
+      </c>
+      <c r="S37">
+        <v>38.41</v>
+      </c>
+      <c r="T37">
+        <v>442.16</v>
+      </c>
+      <c r="U37">
+        <v>1370.34</v>
+      </c>
+      <c r="V37">
+        <v>581.8000000000001</v>
+      </c>
+      <c r="W37">
+        <v>1182.16</v>
+      </c>
+      <c r="X37">
+        <v>217.08</v>
+      </c>
+      <c r="Y37">
+        <v>2421.42</v>
+      </c>
+      <c r="Z37">
+        <v>210.73</v>
+      </c>
+      <c r="AA37">
+        <v>22533.49</v>
+      </c>
+      <c r="AB37">
+        <v>5361.42</v>
+      </c>
+      <c r="AC37">
+        <v>27894.91</v>
+      </c>
+      <c r="AD37">
+        <v>1059.84</v>
+      </c>
+      <c r="AE37">
+        <v>23670.78</v>
+      </c>
+      <c r="AF37">
+        <v>22499.2</v>
+      </c>
+      <c r="AG37">
+        <v>242313.1</v>
+      </c>
+      <c r="AH37">
+        <v>506712.7</v>
+      </c>
+      <c r="AI37">
+        <v>749025.8</v>
+      </c>
+      <c r="AJ37">
+        <v>202630.4</v>
+      </c>
+      <c r="AK37">
+        <v>422218.2</v>
+      </c>
+      <c r="AL37">
+        <v>195816.1</v>
+      </c>
+      <c r="AM37">
+        <v>882988.7999999999</v>
+      </c>
+      <c r="AN37">
+        <v>1078804.9</v>
+      </c>
+      <c r="AO37">
+        <v>180156.3</v>
+      </c>
+      <c r="AP37">
+        <v>5.653333333333333</v>
+      </c>
+      <c r="AQ37">
+        <v>12.02333333333333</v>
+      </c>
+      <c r="AR37">
+        <v>3.359999999999999</v>
+      </c>
+      <c r="AS37">
+        <v>5.346153846153846</v>
+      </c>
+      <c r="AT37">
+        <v>1.300769230769231</v>
+      </c>
+      <c r="AU37">
+        <v>1.943076923076923</v>
+      </c>
+      <c r="AV37">
+        <v>5.493076923076923</v>
+      </c>
+      <c r="AW37">
+        <v>6.676153846153847</v>
+      </c>
+      <c r="AX37">
+        <v>4.729999999999999</v>
+      </c>
+      <c r="AY37">
+        <v>5.886153846153846</v>
+      </c>
+      <c r="AZ37">
+        <v>12.05769230769231</v>
+      </c>
+      <c r="BA37">
+        <v>5.660000000000001</v>
+      </c>
+      <c r="BB37">
+        <v>2.51</v>
+      </c>
+      <c r="BC37">
+        <v>4.013333333333334</v>
+      </c>
+      <c r="BD37">
+        <v>117.76</v>
+      </c>
+      <c r="BE37">
+        <v>132.3466666666667</v>
+      </c>
+      <c r="BF37">
+        <v>145.0633333333333</v>
+      </c>
+      <c r="BG37">
+        <v>138.7366666666667</v>
+      </c>
+      <c r="BH37">
+        <v>130.5233333333333</v>
+      </c>
+      <c r="BI37">
+        <v>141.5733333333333</v>
+      </c>
+      <c r="BJ37">
+        <v>153.5333333333333</v>
+      </c>
+      <c r="BK37">
+        <v>145.52</v>
+      </c>
+      <c r="BL37">
+        <v>167.44</v>
+      </c>
+      <c r="BM37">
+        <v>140.7833333333333</v>
+      </c>
+      <c r="BN37">
+        <v>143.86</v>
+      </c>
+      <c r="BO37">
+        <v>435.47</v>
+      </c>
+      <c r="BP37">
+        <v>110.2266666666667</v>
+      </c>
+      <c r="BQ37">
+        <v>166.3766666666667</v>
+      </c>
+      <c r="BR37">
+        <v>128.2066666666667</v>
+      </c>
+      <c r="BS37">
+        <v>7.729398695652173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:71">
+      <c r="A38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B38">
+        <v>17180.01</v>
+      </c>
+      <c r="C38">
+        <v>3.34</v>
+      </c>
+      <c r="D38">
+        <v>3.34</v>
+      </c>
+      <c r="E38">
+        <v>10.02</v>
+      </c>
+      <c r="F38">
+        <v>173428.3</v>
+      </c>
+      <c r="G38">
+        <v>6429981.08</v>
+      </c>
+      <c r="H38">
+        <v>132044.93</v>
+      </c>
+      <c r="I38">
+        <v>9929.700000000001</v>
+      </c>
+      <c r="J38">
+        <v>118393.99</v>
+      </c>
+      <c r="K38">
+        <v>3045990.1</v>
+      </c>
+      <c r="L38">
+        <v>49241.63</v>
+      </c>
+      <c r="M38">
+        <v>134271.3</v>
+      </c>
+      <c r="N38">
+        <v>4121128.3</v>
+      </c>
+      <c r="O38">
+        <v>97791.51000000001</v>
+      </c>
+      <c r="P38">
+        <v>7765.85</v>
+      </c>
+      <c r="Q38">
+        <v>1032.45</v>
+      </c>
+      <c r="R38">
+        <v>182.11</v>
+      </c>
+      <c r="S38">
+        <v>25.93</v>
+      </c>
+      <c r="T38">
+        <v>428.46</v>
+      </c>
+      <c r="U38">
+        <v>1363.73</v>
+      </c>
+      <c r="V38">
+        <v>483.51</v>
+      </c>
+      <c r="W38">
+        <v>1272.88</v>
+      </c>
+      <c r="X38">
+        <v>238.24</v>
+      </c>
+      <c r="Y38">
+        <v>2477.46</v>
+      </c>
+      <c r="Z38">
+        <v>216.2</v>
+      </c>
+      <c r="AA38">
+        <v>17147.15</v>
+      </c>
+      <c r="AB38">
+        <v>3469.45</v>
+      </c>
+      <c r="AC38">
+        <v>20616.6</v>
+      </c>
+      <c r="AD38">
+        <v>1147.18</v>
+      </c>
+      <c r="AE38">
+        <v>21813.87</v>
+      </c>
+      <c r="AF38">
+        <v>20643.01</v>
+      </c>
+      <c r="AG38">
+        <v>248366.8</v>
+      </c>
+      <c r="AH38">
+        <v>526786.1</v>
+      </c>
+      <c r="AI38">
+        <v>775152.8999999999</v>
+      </c>
+      <c r="AJ38">
+        <v>210861.1</v>
+      </c>
+      <c r="AK38">
+        <v>439908.1</v>
+      </c>
+      <c r="AL38">
+        <v>205273.1</v>
+      </c>
+      <c r="AM38">
+        <v>919114.3</v>
+      </c>
+      <c r="AN38">
+        <v>1124387.4</v>
+      </c>
+      <c r="AO38">
+        <v>188493.9</v>
+      </c>
+      <c r="AP38">
+        <v>5.596666666666667</v>
+      </c>
+      <c r="AQ38">
+        <v>11.93</v>
+      </c>
+      <c r="AR38">
+        <v>3.326153846153846</v>
+      </c>
+      <c r="AS38">
+        <v>5.260000000000001</v>
+      </c>
+      <c r="AT38">
+        <v>1.402307692307692</v>
+      </c>
+      <c r="AU38">
+        <v>2.008461538461539</v>
+      </c>
+      <c r="AV38">
+        <v>5.458461538461538</v>
+      </c>
+      <c r="AW38">
+        <v>6.656923076923077</v>
+      </c>
+      <c r="AX38">
+        <v>4.80923076923077</v>
+      </c>
+      <c r="AY38">
+        <v>5.813846153846153</v>
+      </c>
+      <c r="AZ38">
+        <v>11.94538461538462</v>
+      </c>
+      <c r="BA38">
+        <v>5.606153846153846</v>
+      </c>
+      <c r="BB38">
+        <v>2.556666666666667</v>
+      </c>
+      <c r="BC38">
+        <v>3.936666666666667</v>
+      </c>
+      <c r="BD38">
+        <v>135.89</v>
+      </c>
+      <c r="BE38">
+        <v>137.8</v>
+      </c>
+      <c r="BF38">
+        <v>139.1733333333333</v>
+      </c>
+      <c r="BG38">
+        <v>134.51</v>
+      </c>
+      <c r="BH38">
+        <v>132.2333333333333</v>
+      </c>
+      <c r="BI38">
+        <v>135.3533333333333</v>
+      </c>
+      <c r="BJ38">
+        <v>145.7166666666667</v>
+      </c>
+      <c r="BK38">
+        <v>133.63</v>
+      </c>
+      <c r="BL38">
+        <v>171.8166666666666</v>
+      </c>
+      <c r="BM38">
+        <v>141.0533333333333</v>
+      </c>
+      <c r="BN38">
+        <v>128.9</v>
+      </c>
+      <c r="BO38">
+        <v>426.98</v>
+      </c>
+      <c r="BP38">
+        <v>116.64</v>
+      </c>
+      <c r="BQ38">
+        <v>162.0333333333333</v>
+      </c>
+      <c r="BR38">
+        <v>116.2966666666667</v>
+      </c>
+      <c r="BS38">
+        <v>7.698706629213483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:71">
+      <c r="A39" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B39">
+        <v>18950.02</v>
+      </c>
+      <c r="C39">
+        <v>5.996666666666667</v>
+      </c>
+      <c r="D39">
+        <v>5.996666666666667</v>
+      </c>
+      <c r="E39">
+        <v>17.99</v>
+      </c>
+      <c r="F39">
+        <v>166001.4</v>
+      </c>
+      <c r="G39">
+        <v>6841382.629999999</v>
+      </c>
+      <c r="H39">
+        <v>128849.03</v>
+      </c>
+      <c r="I39">
+        <v>12364.22</v>
+      </c>
+      <c r="J39">
+        <v>158320.44</v>
+      </c>
+      <c r="K39">
+        <v>2835538.99</v>
+      </c>
+      <c r="L39">
+        <v>58747.93000000001</v>
+      </c>
+      <c r="M39">
+        <v>155815.96</v>
+      </c>
+      <c r="N39">
+        <v>4965694.25</v>
+      </c>
+      <c r="O39">
+        <v>176083.06</v>
+      </c>
+      <c r="P39">
+        <v>8357.99</v>
+      </c>
+      <c r="Q39">
+        <v>1034.03</v>
+      </c>
+      <c r="R39">
+        <v>234.92</v>
+      </c>
+      <c r="S39">
+        <v>27.74</v>
+      </c>
+      <c r="T39">
+        <v>430.73</v>
+      </c>
+      <c r="U39">
+        <v>1327.75</v>
+      </c>
+      <c r="V39">
+        <v>479.04</v>
+      </c>
+      <c r="W39">
+        <v>1707.31</v>
+      </c>
+      <c r="X39">
+        <v>367.1899999999999</v>
+      </c>
+      <c r="Y39">
+        <v>2526.4</v>
+      </c>
+      <c r="Z39">
+        <v>222.73</v>
+      </c>
+      <c r="AA39">
+        <v>21145.6</v>
+      </c>
+      <c r="AB39">
+        <v>4325.78</v>
+      </c>
+      <c r="AC39">
+        <v>25471.38</v>
+      </c>
+      <c r="AD39">
+        <v>1139.95</v>
+      </c>
+      <c r="AE39">
+        <v>22840.98</v>
+      </c>
+      <c r="AF39">
+        <v>21644.03</v>
+      </c>
+      <c r="AG39">
+        <v>259119.6</v>
+      </c>
+      <c r="AH39">
+        <v>545130.6000000001</v>
+      </c>
+      <c r="AI39">
+        <v>804250.2000000001</v>
+      </c>
+      <c r="AJ39">
+        <v>217283.7</v>
+      </c>
+      <c r="AK39">
+        <v>447449.1</v>
+      </c>
+      <c r="AL39">
+        <v>210379.6</v>
+      </c>
+      <c r="AM39">
+        <v>935505.2</v>
+      </c>
+      <c r="AN39">
+        <v>1145884.8</v>
+      </c>
+      <c r="AO39">
+        <v>191889.4</v>
+      </c>
+      <c r="AP39">
+        <v>5.533333333333332</v>
+      </c>
+      <c r="AQ39">
+        <v>11.95</v>
+      </c>
+      <c r="AR39">
+        <v>3.298461538461538</v>
+      </c>
+      <c r="AS39">
+        <v>5.19923076923077</v>
+      </c>
+      <c r="AT39">
+        <v>1.490769230769231</v>
+      </c>
+      <c r="AU39">
+        <v>2.025384615384615</v>
+      </c>
+      <c r="AV39">
+        <v>5.443076923076924</v>
+      </c>
+      <c r="AW39">
+        <v>6.642307692307692</v>
+      </c>
+      <c r="AX39">
+        <v>4.812307692307693</v>
+      </c>
+      <c r="AY39">
+        <v>5.820000000000001</v>
+      </c>
+      <c r="AZ39">
+        <v>11.96846153846154</v>
+      </c>
+      <c r="BA39">
+        <v>5.529999999999999</v>
+      </c>
+      <c r="BB39">
+        <v>2.586666666666666</v>
+      </c>
+      <c r="BC39">
+        <v>3.89</v>
+      </c>
+      <c r="BD39">
+        <v>121.7466666666667</v>
+      </c>
+      <c r="BE39">
+        <v>126.47</v>
+      </c>
+      <c r="BF39">
+        <v>142.3433333333333</v>
+      </c>
+      <c r="BG39">
+        <v>135.8466666666667</v>
+      </c>
+      <c r="BH39">
+        <v>117.91</v>
+      </c>
+      <c r="BI39">
+        <v>146.34</v>
+      </c>
+      <c r="BJ39">
+        <v>140.09</v>
+      </c>
+      <c r="BK39">
+        <v>139.1533333333333</v>
+      </c>
+      <c r="BL39">
+        <v>179.3266666666667</v>
+      </c>
+      <c r="BM39">
+        <v>142.0233333333333</v>
+      </c>
+      <c r="BN39">
+        <v>131.2966666666667</v>
+      </c>
+      <c r="BO39">
+        <v>423.79</v>
+      </c>
+      <c r="BP39">
+        <v>110.8133333333333</v>
+      </c>
+      <c r="BQ39">
+        <v>162.8633333333333</v>
+      </c>
+      <c r="BR39">
+        <v>114.7833333333333</v>
+      </c>
+      <c r="BS39">
+        <v>7.688411777777779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:71">
+      <c r="A40" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B40">
+        <v>21881.11</v>
+      </c>
+      <c r="C40">
+        <v>8.753333333333332</v>
+      </c>
+      <c r="D40">
+        <v>8.753333333333332</v>
+      </c>
+      <c r="E40">
+        <v>26.26</v>
+      </c>
+      <c r="F40">
+        <v>157817.2</v>
+      </c>
+      <c r="G40">
+        <v>6876661.81</v>
+      </c>
+      <c r="H40">
+        <v>171887.68</v>
+      </c>
+      <c r="I40">
+        <v>20046.1</v>
+      </c>
+      <c r="J40">
+        <v>175612.95</v>
+      </c>
+      <c r="K40">
+        <v>2505641.27</v>
+      </c>
+      <c r="L40">
+        <v>70028.21000000001</v>
+      </c>
+      <c r="M40">
+        <v>183601.2</v>
+      </c>
+      <c r="N40">
+        <v>4840114.23</v>
+      </c>
+      <c r="O40">
+        <v>162103.13</v>
+      </c>
+      <c r="P40">
+        <v>8337.57</v>
+      </c>
+      <c r="Q40">
+        <v>1018.23</v>
+      </c>
+      <c r="R40">
+        <v>255.1</v>
+      </c>
+      <c r="S40">
+        <v>40.97</v>
+      </c>
+      <c r="T40">
+        <v>461.03</v>
+      </c>
+      <c r="U40">
+        <v>1624.52</v>
+      </c>
+      <c r="V40">
+        <v>584.62</v>
+      </c>
+      <c r="W40">
+        <v>1443.13</v>
+      </c>
+      <c r="X40">
+        <v>266.42</v>
+      </c>
+      <c r="Y40">
+        <v>2422.53</v>
+      </c>
+      <c r="Z40">
+        <v>220.78</v>
+      </c>
+      <c r="AA40">
+        <v>22634.44</v>
+      </c>
+      <c r="AB40">
+        <v>4178.73</v>
+      </c>
+      <c r="AC40">
+        <v>26813.17</v>
+      </c>
+      <c r="AD40">
+        <v>1011.31</v>
+      </c>
+      <c r="AE40">
+        <v>23905.13</v>
+      </c>
+      <c r="AF40">
+        <v>22828.8</v>
+      </c>
+      <c r="AG40">
+        <v>268772.8</v>
+      </c>
+      <c r="AH40">
+        <v>565987.4</v>
+      </c>
+      <c r="AI40">
+        <v>834760.2</v>
+      </c>
+      <c r="AJ40">
+        <v>219947.6</v>
+      </c>
+      <c r="AK40">
+        <v>453216.5</v>
+      </c>
+      <c r="AL40">
+        <v>221486.7</v>
+      </c>
+      <c r="AM40">
+        <v>950675.2</v>
+      </c>
+      <c r="AN40">
+        <v>1172161.9</v>
+      </c>
+      <c r="AO40">
+        <v>196033.2</v>
+      </c>
+      <c r="AP40">
+        <v>5.7</v>
+      </c>
+      <c r="AQ40">
+        <v>11.98</v>
+      </c>
+      <c r="AR40">
+        <v>3.329230769230769</v>
+      </c>
+      <c r="AS40">
+        <v>5.183076923076923</v>
+      </c>
+      <c r="AT40">
+        <v>1.659230769230769</v>
+      </c>
+      <c r="AU40">
+        <v>2.043846153846153</v>
+      </c>
+      <c r="AV40">
+        <v>5.445384615384615</v>
+      </c>
+      <c r="AW40">
+        <v>6.586923076923076</v>
+      </c>
+      <c r="AX40">
+        <v>4.824615384615384</v>
+      </c>
+      <c r="AY40">
+        <v>5.837692307692307</v>
+      </c>
+      <c r="AZ40">
+        <v>12.01</v>
+      </c>
+      <c r="BA40">
+        <v>5.681538461538461</v>
+      </c>
+      <c r="BB40">
+        <v>2.716666666666667</v>
+      </c>
+      <c r="BC40">
+        <v>3.876666666666666</v>
+      </c>
+      <c r="BD40">
+        <v>116.6433333333333</v>
+      </c>
+      <c r="BE40">
+        <v>136.3566666666667</v>
+      </c>
+      <c r="BF40">
+        <v>155.2333333333333</v>
+      </c>
+      <c r="BG40">
+        <v>136.8433333333333</v>
+      </c>
+      <c r="BH40">
+        <v>123.0733333333333</v>
+      </c>
+      <c r="BI40">
+        <v>139.5633333333333</v>
+      </c>
+      <c r="BJ40">
+        <v>143.06</v>
+      </c>
+      <c r="BK40">
+        <v>136.4233333333333</v>
+      </c>
+      <c r="BL40">
+        <v>177.6533333333333</v>
+      </c>
+      <c r="BM40">
+        <v>143.6233333333333</v>
+      </c>
+      <c r="BN40">
+        <v>130.6633333333333</v>
+      </c>
+      <c r="BO40">
+        <v>423.62</v>
+      </c>
+      <c r="BP40">
+        <v>117.1033333333333</v>
+      </c>
+      <c r="BQ40">
+        <v>167.7766666666666</v>
+      </c>
+      <c r="BR40">
+        <v>118.89</v>
+      </c>
+      <c r="BS40">
+        <v>7.756594565217392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:71">
+      <c r="A41" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B41">
+        <v>27019.03</v>
+      </c>
+      <c r="C41">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="D41">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="E41">
+        <v>28.11</v>
+      </c>
+      <c r="F41">
+        <v>139946.3</v>
+      </c>
+      <c r="G41">
+        <v>6501040.94</v>
+      </c>
+      <c r="H41">
+        <v>164585.19</v>
+      </c>
+      <c r="I41">
+        <v>18106.48</v>
+      </c>
+      <c r="J41">
+        <v>207383.25</v>
+      </c>
+      <c r="K41">
+        <v>2312779.15</v>
+      </c>
+      <c r="L41">
+        <v>58462.53</v>
+      </c>
+      <c r="M41">
+        <v>190581.64</v>
+      </c>
+      <c r="N41">
+        <v>4928146.220000001</v>
+      </c>
+      <c r="O41">
+        <v>213275.94</v>
+      </c>
+      <c r="P41">
+        <v>7662.32</v>
+      </c>
+      <c r="Q41">
+        <v>1065.05</v>
+      </c>
+      <c r="R41">
+        <v>293.5</v>
+      </c>
+      <c r="S41">
+        <v>50.98</v>
+      </c>
+      <c r="T41">
+        <v>499.8399999999999</v>
+      </c>
+      <c r="U41">
+        <v>1437.25</v>
+      </c>
+      <c r="V41">
+        <v>616.6800000000001</v>
+      </c>
+      <c r="W41">
+        <v>1224.74</v>
+      </c>
+      <c r="X41">
+        <v>215.06</v>
+      </c>
+      <c r="Y41">
+        <v>2050.47</v>
+      </c>
+      <c r="Z41">
+        <v>208.59</v>
+      </c>
+      <c r="AA41">
+        <v>26353.17</v>
+      </c>
+      <c r="AB41">
+        <v>6471.33</v>
+      </c>
+      <c r="AC41">
+        <v>32824.51</v>
+      </c>
+      <c r="AD41">
+        <v>1106.73</v>
+      </c>
+      <c r="AE41">
+        <v>24603.97</v>
+      </c>
+      <c r="AF41">
+        <v>23463.2</v>
+      </c>
+      <c r="AG41">
+        <v>272045.1</v>
+      </c>
+      <c r="AH41">
+        <v>604433.1</v>
+      </c>
+      <c r="AI41">
+        <v>876478.2</v>
+      </c>
+      <c r="AJ41">
+        <v>230545.8</v>
+      </c>
+      <c r="AK41">
+        <v>473422.8</v>
+      </c>
+      <c r="AL41">
+        <v>221926.2</v>
+      </c>
+      <c r="AM41">
+        <v>982591.6</v>
+      </c>
+      <c r="AN41">
+        <v>1204517.8</v>
+      </c>
+      <c r="AO41">
+        <v>205177.2</v>
+      </c>
+      <c r="AP41">
+        <v>6.010000000000001</v>
+      </c>
+      <c r="AQ41">
+        <v>11.83333333333333</v>
+      </c>
+      <c r="AR41">
+        <v>3.514615384615384</v>
+      </c>
+      <c r="AS41">
+        <v>5.234615384615385</v>
+      </c>
+      <c r="AT41">
+        <v>1.677692307692308</v>
+      </c>
+      <c r="AU41">
+        <v>2.070769230769231</v>
+      </c>
+      <c r="AV41">
+        <v>5.471538461538461</v>
+      </c>
+      <c r="AW41">
+        <v>6.58</v>
+      </c>
+      <c r="AX41">
+        <v>4.833846153846155</v>
+      </c>
+      <c r="AY41">
+        <v>6.015384615384615</v>
+      </c>
+      <c r="AZ41">
+        <v>11.86846153846153</v>
+      </c>
+      <c r="BA41">
+        <v>5.997692307692308</v>
+      </c>
+      <c r="BB41">
+        <v>2.873333333333333</v>
+      </c>
+      <c r="BC41">
+        <v>3.926666666666667</v>
+      </c>
+      <c r="BD41">
+        <v>118.1833333333333</v>
+      </c>
+      <c r="BE41">
+        <v>145.9133333333333</v>
+      </c>
+      <c r="BF41">
+        <v>166</v>
+      </c>
+      <c r="BG41">
+        <v>141.2366666666667</v>
+      </c>
+      <c r="BH41">
+        <v>132.71</v>
+      </c>
+      <c r="BI41">
+        <v>159.16</v>
+      </c>
+      <c r="BJ41">
+        <v>154.58</v>
+      </c>
+      <c r="BK41">
+        <v>142.9366666666666</v>
+      </c>
+      <c r="BL41">
+        <v>180.6233333333333</v>
+      </c>
+      <c r="BM41">
+        <v>146.3366666666667</v>
+      </c>
+      <c r="BN41">
+        <v>147.5966666666667</v>
+      </c>
+      <c r="BO41">
+        <v>462.77</v>
+      </c>
+      <c r="BP41">
+        <v>114.23</v>
+      </c>
+      <c r="BQ41">
+        <v>165.7566666666667</v>
+      </c>
+      <c r="BR41">
+        <v>132.96</v>
+      </c>
+      <c r="BS41">
+        <v>7.849459673913043</v>
+      </c>
+    </row>
+    <row r="42" spans="1:71">
+      <c r="A42" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B42">
+        <v>20622.29</v>
+      </c>
+      <c r="C42">
+        <v>9.44</v>
+      </c>
+      <c r="D42">
+        <v>9.44</v>
+      </c>
+      <c r="E42">
+        <v>28.32</v>
+      </c>
+      <c r="F42">
+        <v>147561.9</v>
+      </c>
+      <c r="G42">
+        <v>6203415.01</v>
+      </c>
+      <c r="H42">
+        <v>160930.26</v>
+      </c>
+      <c r="I42">
+        <v>13602.28</v>
+      </c>
+      <c r="J42">
+        <v>173791.21</v>
+      </c>
+      <c r="K42">
+        <v>2919940.88</v>
+      </c>
+      <c r="L42">
+        <v>60687.24000000001</v>
+      </c>
+      <c r="M42">
+        <v>204243.45</v>
+      </c>
+      <c r="N42">
+        <v>4644164.1</v>
+      </c>
+      <c r="O42">
+        <v>239669.41</v>
+      </c>
+      <c r="P42">
+        <v>7339.530000000001</v>
+      </c>
+      <c r="Q42">
+        <v>1065.96</v>
+      </c>
+      <c r="R42">
+        <v>247.31</v>
+      </c>
+      <c r="S42">
+        <v>40.5</v>
+      </c>
+      <c r="T42">
+        <v>465.13</v>
+      </c>
+      <c r="U42">
+        <v>1378.11</v>
+      </c>
+      <c r="V42">
+        <v>483.3399999999999</v>
+      </c>
+      <c r="W42">
+        <v>1271.72</v>
+      </c>
+      <c r="X42">
+        <v>202.62</v>
+      </c>
+      <c r="Y42">
+        <v>1969.21</v>
+      </c>
+      <c r="Z42">
+        <v>215.53</v>
+      </c>
+      <c r="AA42">
+        <v>20394.38</v>
+      </c>
+      <c r="AB42">
+        <v>4141.24</v>
+      </c>
+      <c r="AC42">
+        <v>24535.62</v>
+      </c>
+      <c r="AD42">
+        <v>1374</v>
+      </c>
+      <c r="AE42">
+        <v>24375.71</v>
+      </c>
+      <c r="AF42">
+        <v>22981.38</v>
+      </c>
+      <c r="AG42">
+        <v>268694.1</v>
+      </c>
+      <c r="AH42">
+        <v>628721.8</v>
+      </c>
+      <c r="AI42">
+        <v>897415.8999999999</v>
+      </c>
+      <c r="AJ42">
+        <v>237632.8</v>
+      </c>
+      <c r="AK42">
+        <v>491108.3</v>
+      </c>
+      <c r="AL42">
+        <v>225585.5</v>
+      </c>
+      <c r="AM42">
+        <v>1014178.5</v>
+      </c>
+      <c r="AN42">
+        <v>1239764</v>
+      </c>
+      <c r="AO42">
+        <v>213535.3</v>
+      </c>
+      <c r="AP42">
+        <v>6.336666666666666</v>
+      </c>
+      <c r="AQ42">
+        <v>11.92</v>
+      </c>
+      <c r="AR42">
+        <v>3.756153846153846</v>
+      </c>
+      <c r="AS42">
+        <v>5.38</v>
+      </c>
+      <c r="AT42">
+        <v>1.771538461538462</v>
+      </c>
+      <c r="AU42">
+        <v>2.176923076923077</v>
+      </c>
+      <c r="AV42">
+        <v>5.529230769230769</v>
+      </c>
+      <c r="AW42">
+        <v>6.606153846153846</v>
+      </c>
+      <c r="AX42">
+        <v>4.836923076923077</v>
+      </c>
+      <c r="AY42">
+        <v>6.35076923076923</v>
+      </c>
+      <c r="AZ42">
+        <v>11.93846153846154</v>
+      </c>
+      <c r="BA42">
+        <v>6.325384615384615</v>
+      </c>
+      <c r="BB42">
+        <v>3.056666666666667</v>
+      </c>
+      <c r="BC42">
+        <v>4.026666666666666</v>
+      </c>
+      <c r="BD42">
+        <v>140.3766666666667</v>
+      </c>
+      <c r="BE42">
+        <v>137.87</v>
+      </c>
+      <c r="BF42">
+        <v>152.7033333333333</v>
+      </c>
+      <c r="BG42">
+        <v>137.8033333333333</v>
+      </c>
+      <c r="BH42">
+        <v>135.39</v>
+      </c>
+      <c r="BI42">
+        <v>149.8566666666667</v>
+      </c>
+      <c r="BJ42">
+        <v>155.2466666666666</v>
+      </c>
+      <c r="BK42">
+        <v>136.69</v>
+      </c>
+      <c r="BL42">
+        <v>190.9566666666667</v>
+      </c>
+      <c r="BM42">
+        <v>146.5266666666667</v>
+      </c>
+      <c r="BN42">
+        <v>134.0066666666667</v>
+      </c>
+      <c r="BO42">
+        <v>438.53</v>
+      </c>
+      <c r="BP42">
+        <v>121.71</v>
+      </c>
+      <c r="BQ42">
+        <v>156.79</v>
+      </c>
+      <c r="BR42">
+        <v>120.51</v>
+      </c>
+      <c r="BS42">
+        <v>7.828427777777778</v>
+      </c>
+    </row>
+    <row r="43" spans="1:71">
+      <c r="A43" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B43">
+        <v>23129.23</v>
+      </c>
+      <c r="C43">
+        <v>6.596666666666667</v>
+      </c>
+      <c r="D43">
+        <v>6.596666666666667</v>
+      </c>
+      <c r="E43">
+        <v>19.79</v>
+      </c>
+      <c r="F43">
+        <v>146270.2</v>
+      </c>
+      <c r="G43">
+        <v>6465958.449999999</v>
+      </c>
+      <c r="H43">
+        <v>152515.98</v>
+      </c>
+      <c r="I43">
+        <v>16105.16</v>
+      </c>
+      <c r="J43">
+        <v>199860.31</v>
+      </c>
+      <c r="K43">
+        <v>2606841.86</v>
+      </c>
+      <c r="L43">
+        <v>51223.16</v>
+      </c>
+      <c r="M43">
+        <v>230705.29</v>
+      </c>
+      <c r="N43">
+        <v>5427582.23</v>
+      </c>
+      <c r="O43">
+        <v>267232.94</v>
+      </c>
+      <c r="P43">
+        <v>7604.450000000001</v>
+      </c>
+      <c r="Q43">
+        <v>1054.82</v>
+      </c>
+      <c r="R43">
+        <v>307.51</v>
+      </c>
+      <c r="S43">
+        <v>43</v>
+      </c>
+      <c r="T43">
+        <v>549.9499999999999</v>
+      </c>
+      <c r="U43">
+        <v>1418.89</v>
+      </c>
+      <c r="V43">
+        <v>500.77</v>
+      </c>
+      <c r="W43">
+        <v>1278.87</v>
+      </c>
+      <c r="X43">
+        <v>269.26</v>
+      </c>
+      <c r="Y43">
+        <v>1966.1</v>
+      </c>
+      <c r="Z43">
+        <v>214.95</v>
+      </c>
+      <c r="AA43">
+        <v>23710.37</v>
+      </c>
+      <c r="AB43">
+        <v>5204.77</v>
+      </c>
+      <c r="AC43">
+        <v>28915.15</v>
+      </c>
+      <c r="AD43">
+        <v>1176.07</v>
+      </c>
+      <c r="AE43">
+        <v>24468.01</v>
+      </c>
+      <c r="AF43">
+        <v>23271.43</v>
+      </c>
+      <c r="AG43">
+        <v>266810.2</v>
+      </c>
+      <c r="AH43">
+        <v>656969.5</v>
+      </c>
+      <c r="AI43">
+        <v>923779.7999999999</v>
+      </c>
+      <c r="AJ43">
+        <v>245155.2</v>
+      </c>
+      <c r="AK43">
+        <v>504941.7</v>
+      </c>
+      <c r="AL43">
+        <v>230759</v>
+      </c>
+      <c r="AM43">
+        <v>1035562.3</v>
+      </c>
+      <c r="AN43">
+        <v>1266321.1</v>
+      </c>
+      <c r="AO43">
+        <v>219051.4</v>
+      </c>
+      <c r="AP43">
+        <v>6.52</v>
+      </c>
+      <c r="AQ43">
+        <v>11.96333333333333</v>
+      </c>
+      <c r="AR43">
+        <v>3.994615384615384</v>
+      </c>
+      <c r="AS43">
+        <v>5.552307692307692</v>
+      </c>
+      <c r="AT43">
+        <v>1.781538461538461</v>
+      </c>
+      <c r="AU43">
+        <v>2.194615384615385</v>
+      </c>
+      <c r="AV43">
+        <v>5.579999999999999</v>
+      </c>
+      <c r="AW43">
+        <v>6.644615384615384</v>
+      </c>
+      <c r="AX43">
+        <v>4.850000000000001</v>
+      </c>
+      <c r="AY43">
+        <v>6.392307692307692</v>
+      </c>
+      <c r="AZ43">
+        <v>12.00307692307692</v>
+      </c>
+      <c r="BA43">
+        <v>6.517692307692307</v>
+      </c>
+      <c r="BB43">
+        <v>3.22</v>
+      </c>
+      <c r="BC43">
+        <v>4.13</v>
+      </c>
+      <c r="BD43">
+        <v>125.06</v>
+      </c>
+      <c r="BE43">
+        <v>121.4966666666667</v>
+      </c>
+      <c r="BF43">
+        <v>156.2866666666667</v>
+      </c>
+      <c r="BG43">
+        <v>140.5666666666667</v>
+      </c>
+      <c r="BH43">
+        <v>118.8533333333333</v>
+      </c>
+      <c r="BI43">
+        <v>157.09</v>
+      </c>
+      <c r="BJ43">
+        <v>156.6166666666666</v>
+      </c>
+      <c r="BK43">
+        <v>137.3933333333333</v>
+      </c>
+      <c r="BL43">
+        <v>200.3333333333333</v>
+      </c>
+      <c r="BM43">
+        <v>147.87</v>
+      </c>
+      <c r="BN43">
+        <v>138.99</v>
+      </c>
+      <c r="BO43">
+        <v>422.79</v>
+      </c>
+      <c r="BP43">
+        <v>115.64</v>
+      </c>
+      <c r="BQ43">
+        <v>166.8766666666667</v>
+      </c>
+      <c r="BR43">
+        <v>120.58</v>
+      </c>
+      <c r="BS43">
+        <v>7.815958426966293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:71">
+      <c r="A44" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B44">
+        <v>23189.9</v>
+      </c>
+      <c r="C44">
+        <v>4.563333333333333</v>
+      </c>
+      <c r="D44">
+        <v>4.563333333333333</v>
+      </c>
+      <c r="E44">
+        <v>13.69</v>
+      </c>
+      <c r="F44">
+        <v>147858.7</v>
+      </c>
+      <c r="G44">
+        <v>6659744.04</v>
+      </c>
+      <c r="H44">
+        <v>180846.82</v>
+      </c>
+      <c r="I44">
+        <v>17757.31</v>
+      </c>
+      <c r="J44">
+        <v>249215.49</v>
+      </c>
+      <c r="K44">
+        <v>2367770.47</v>
+      </c>
+      <c r="L44">
+        <v>56119.71</v>
+      </c>
+      <c r="M44">
+        <v>239611.03</v>
+      </c>
+      <c r="N44">
+        <v>5301866.16</v>
+      </c>
+      <c r="O44">
+        <v>300252.36</v>
+      </c>
+      <c r="P44">
+        <v>7740.74</v>
+      </c>
+      <c r="Q44">
+        <v>1118.92</v>
+      </c>
+      <c r="R44">
+        <v>282.17</v>
+      </c>
+      <c r="S44">
+        <v>44.34999999999999</v>
+      </c>
+      <c r="T44">
+        <v>548.6900000000001</v>
+      </c>
+      <c r="U44">
+        <v>1520.45</v>
+      </c>
+      <c r="V44">
+        <v>567.6</v>
+      </c>
+      <c r="W44">
+        <v>1246.69</v>
+      </c>
+      <c r="X44">
+        <v>205.01</v>
+      </c>
+      <c r="Y44">
+        <v>1981.78</v>
+      </c>
+      <c r="Z44">
+        <v>224.97</v>
+      </c>
+      <c r="AA44">
+        <v>22811.44</v>
+      </c>
+      <c r="AB44">
+        <v>5050.77</v>
+      </c>
+      <c r="AC44">
+        <v>27862.2</v>
+      </c>
+      <c r="AD44">
+        <v>1411.69</v>
+      </c>
+      <c r="AE44">
+        <v>25652.74</v>
+      </c>
+      <c r="AF44">
+        <v>24220.71</v>
+      </c>
+      <c r="AG44">
+        <v>268044.1</v>
+      </c>
+      <c r="AH44">
+        <v>686791.1</v>
+      </c>
+      <c r="AI44">
+        <v>954835</v>
+      </c>
+      <c r="AJ44">
+        <v>251406.7</v>
+      </c>
+      <c r="AK44">
+        <v>511361.0000000001</v>
+      </c>
+      <c r="AL44">
+        <v>231269</v>
+      </c>
+      <c r="AM44">
+        <v>1056895.8</v>
+      </c>
+      <c r="AN44">
+        <v>1288164.6</v>
+      </c>
+      <c r="AO44">
+        <v>226073.9</v>
+      </c>
+      <c r="AP44">
+        <v>6.606666666666666</v>
+      </c>
+      <c r="AQ44">
+        <v>11.96333333333333</v>
+      </c>
+      <c r="AR44">
+        <v>4.219230769230769</v>
+      </c>
+      <c r="AS44">
+        <v>5.742307692307692</v>
+      </c>
+      <c r="AT44">
+        <v>1.864615384615385</v>
+      </c>
+      <c r="AU44">
+        <v>2.2</v>
+      </c>
+      <c r="AV44">
+        <v>5.602307692307691</v>
+      </c>
+      <c r="AW44">
+        <v>6.627692307692309</v>
+      </c>
+      <c r="AX44">
+        <v>3.868461538461538</v>
+      </c>
+      <c r="AY44">
+        <v>6.576923076923075</v>
+      </c>
+      <c r="AZ44">
+        <v>11.99923076923077</v>
+      </c>
+      <c r="BA44">
+        <v>6.609230769230771</v>
+      </c>
+      <c r="BB44">
+        <v>3.403333333333334</v>
+      </c>
+      <c r="BC44">
+        <v>4.246666666666667</v>
+      </c>
+      <c r="BD44">
+        <v>119.3</v>
+      </c>
+      <c r="BE44">
+        <v>134.0633333333333</v>
+      </c>
+      <c r="BF44">
+        <v>158.8633333333333</v>
+      </c>
+      <c r="BG44">
+        <v>143.1733333333333</v>
+      </c>
+      <c r="BH44">
+        <v>127.3833333333333</v>
+      </c>
+      <c r="BI44">
+        <v>149.9633333333333</v>
+      </c>
+      <c r="BJ44">
+        <v>161.7766666666667</v>
+      </c>
+      <c r="BK44">
+        <v>137.7833333333333</v>
+      </c>
+      <c r="BL44">
+        <v>193.4633333333333</v>
+      </c>
+      <c r="BM44">
+        <v>149.8566666666667</v>
+      </c>
+      <c r="BN44">
+        <v>139.27</v>
+      </c>
+      <c r="BO44">
+        <v>442.54</v>
+      </c>
+      <c r="BP44">
+        <v>120.4433333333333</v>
+      </c>
+      <c r="BQ44">
+        <v>174.4</v>
+      </c>
+      <c r="BR44">
+        <v>122.4833333333333</v>
+      </c>
+      <c r="BS44">
+        <v>7.858886813186814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:71">
+      <c r="A45" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B45">
+        <v>24929.79</v>
+      </c>
+      <c r="C45">
+        <v>4.486666666666667</v>
+      </c>
+      <c r="D45">
+        <v>4.486666666666667</v>
+      </c>
+      <c r="E45">
+        <v>13.46</v>
+      </c>
+      <c r="F45">
+        <v>128892.9</v>
+      </c>
+      <c r="G45">
+        <v>6574833.2</v>
+      </c>
+      <c r="H45">
+        <v>163660.72</v>
+      </c>
+      <c r="I45">
+        <v>17450.46</v>
+      </c>
+      <c r="J45">
+        <v>262378.74</v>
+      </c>
+      <c r="K45">
+        <v>2215404.03</v>
+      </c>
+      <c r="L45">
+        <v>58230.08</v>
+      </c>
+      <c r="M45">
+        <v>229389.87</v>
+      </c>
+      <c r="N45">
+        <v>5233211.04</v>
+      </c>
+      <c r="O45">
+        <v>268837.9</v>
+      </c>
+      <c r="P45">
+        <v>7635.450000000001</v>
+      </c>
+      <c r="Q45">
+        <v>1068.57</v>
+      </c>
+      <c r="R45">
+        <v>281.89</v>
+      </c>
+      <c r="S45">
+        <v>52.34999999999999</v>
+      </c>
+      <c r="T45">
+        <v>592.99</v>
+      </c>
+      <c r="U45">
+        <v>1477.4</v>
+      </c>
+      <c r="V45">
+        <v>617.13</v>
+      </c>
+      <c r="W45">
+        <v>1218.56</v>
+      </c>
+      <c r="X45">
+        <v>190.29</v>
+      </c>
+      <c r="Y45">
+        <v>1920.88</v>
+      </c>
+      <c r="Z45">
+        <v>215.23</v>
+      </c>
+      <c r="AA45">
+        <v>24647.15</v>
+      </c>
+      <c r="AB45">
+        <v>6286.33</v>
+      </c>
+      <c r="AC45">
+        <v>30933.46</v>
+      </c>
+      <c r="AD45">
+        <v>2364.19</v>
+      </c>
+      <c r="AE45">
+        <v>27467.14</v>
+      </c>
+      <c r="AF45">
+        <v>25074.28</v>
+      </c>
+      <c r="AG45">
+        <v>274415.5</v>
+      </c>
+      <c r="AH45">
+        <v>723977.5</v>
+      </c>
+      <c r="AI45">
+        <v>998392.9</v>
+      </c>
+      <c r="AJ45">
+        <v>265115</v>
+      </c>
+      <c r="AK45">
+        <v>524247.4</v>
+      </c>
+      <c r="AL45">
+        <v>222935.4</v>
+      </c>
+      <c r="AM45">
+        <v>1072527.6</v>
+      </c>
+      <c r="AN45">
+        <v>1295463.2</v>
+      </c>
+      <c r="AO45">
+        <v>235883.3</v>
+      </c>
+      <c r="AP45">
+        <v>6.706666666666666</v>
+      </c>
+      <c r="AQ45">
+        <v>12</v>
+      </c>
+      <c r="AR45">
+        <v>4.396923076923077</v>
+      </c>
+      <c r="AS45">
+        <v>6.003846153846154</v>
+      </c>
+      <c r="AT45">
+        <v>1.849230769230769</v>
+      </c>
+      <c r="AU45">
+        <v>2.212307692307692</v>
+      </c>
+      <c r="AV45">
+        <v>5.68923076923077</v>
+      </c>
+      <c r="AW45">
+        <v>6.583846153846153</v>
+      </c>
+      <c r="AX45">
+        <v>3.79</v>
+      </c>
+      <c r="AY45">
+        <v>6.679230769230769</v>
+      </c>
+      <c r="AZ45">
+        <v>12.02</v>
+      </c>
+      <c r="BA45">
+        <v>6.703076923076923</v>
+      </c>
+      <c r="BB45">
+        <v>3.52</v>
+      </c>
+      <c r="BC45">
+        <v>4.44</v>
+      </c>
+      <c r="BD45">
+        <v>118.5366666666667</v>
+      </c>
+      <c r="BE45">
+        <v>147.2</v>
+      </c>
+      <c r="BF45">
+        <v>155.8566666666667</v>
+      </c>
+      <c r="BG45">
+        <v>145.1</v>
+      </c>
+      <c r="BH45">
+        <v>136.37</v>
+      </c>
+      <c r="BI45">
+        <v>161.05</v>
+      </c>
+      <c r="BJ45">
+        <v>166.36</v>
+      </c>
+      <c r="BK45">
+        <v>149.7466666666667</v>
+      </c>
+      <c r="BL45">
+        <v>197.9433333333333</v>
+      </c>
+      <c r="BM45">
+        <v>152.5633333333333</v>
+      </c>
+      <c r="BN45">
+        <v>148.55</v>
+      </c>
+      <c r="BO45">
+        <v>479.98</v>
+      </c>
+      <c r="BP45">
+        <v>116.4366666666667</v>
+      </c>
+      <c r="BQ45">
+        <v>168.56</v>
+      </c>
+      <c r="BR45">
+        <v>135.2433333333333</v>
+      </c>
+      <c r="BS45">
+        <v>7.831462499999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:71">
+      <c r="A46" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B46">
+        <v>20670.85</v>
+      </c>
+      <c r="C46">
+        <v>3.453333333333333</v>
+      </c>
+      <c r="D46">
+        <v>3.453333333333333</v>
+      </c>
+      <c r="E46">
+        <v>10.36</v>
+      </c>
+      <c r="F46">
+        <v>127379.8</v>
+      </c>
+      <c r="G46">
+        <v>6637638.59</v>
+      </c>
+      <c r="H46">
+        <v>151701.86</v>
+      </c>
+      <c r="I46">
+        <v>17317.13</v>
+      </c>
+      <c r="J46">
+        <v>240911.4</v>
+      </c>
+      <c r="K46">
+        <v>2807950.79</v>
+      </c>
+      <c r="L46">
+        <v>88076.84</v>
+      </c>
+      <c r="M46">
+        <v>256152.49</v>
+      </c>
+      <c r="N46">
+        <v>4899835.48</v>
+      </c>
+      <c r="O46">
+        <v>282070.95</v>
+      </c>
+      <c r="P46">
+        <v>7661.56</v>
+      </c>
+      <c r="Q46">
+        <v>1118.42</v>
+      </c>
+      <c r="R46">
+        <v>270.43</v>
+      </c>
+      <c r="S46">
+        <v>38.56</v>
+      </c>
+      <c r="T46">
+        <v>503.24</v>
+      </c>
+      <c r="U46">
+        <v>1499.94</v>
+      </c>
+      <c r="V46">
+        <v>531.48</v>
+      </c>
+      <c r="W46">
+        <v>1281.6</v>
+      </c>
+      <c r="X46">
+        <v>215.76</v>
+      </c>
+      <c r="Y46">
+        <v>1984.93</v>
+      </c>
+      <c r="Z46">
+        <v>217</v>
+      </c>
+      <c r="AA46">
+        <v>20231.19</v>
+      </c>
+      <c r="AB46">
+        <v>2835.73</v>
+      </c>
+      <c r="AC46">
+        <v>23066.92</v>
+      </c>
+      <c r="AD46">
+        <v>1578.76</v>
+      </c>
+      <c r="AE46">
+        <v>26301.21</v>
+      </c>
+      <c r="AF46">
+        <v>24705.7</v>
+      </c>
+      <c r="AG46">
+        <v>285201.8</v>
+      </c>
+      <c r="AH46">
+        <v>756136.7</v>
+      </c>
+      <c r="AI46">
+        <v>1041338.4</v>
+      </c>
+      <c r="AJ46">
+        <v>268023.2</v>
+      </c>
+      <c r="AK46">
+        <v>538705.7999999999</v>
+      </c>
+      <c r="AL46">
+        <v>221884.5</v>
+      </c>
+      <c r="AM46">
+        <v>1093788.6</v>
+      </c>
+      <c r="AN46">
+        <v>1315673.2</v>
+      </c>
+      <c r="AO46">
+        <v>241648.7</v>
+      </c>
+      <c r="AP46">
+        <v>6.953333333333333</v>
+      </c>
+      <c r="AQ46">
+        <v>12.21</v>
+      </c>
+      <c r="AR46">
+        <v>4.540769230769231</v>
+      </c>
+      <c r="AS46">
+        <v>6.275384615384614</v>
+      </c>
+      <c r="AT46">
+        <v>1.887692307692308</v>
+      </c>
+      <c r="AU46">
+        <v>2.26</v>
+      </c>
+      <c r="AV46">
+        <v>5.781538461538461</v>
+      </c>
+      <c r="AW46">
+        <v>6.586923076923076</v>
+      </c>
+      <c r="AX46">
+        <v>3.79</v>
+      </c>
+      <c r="AY46">
+        <v>6.925384615384615</v>
+      </c>
+      <c r="AZ46">
+        <v>12.23384615384615</v>
+      </c>
+      <c r="BA46">
+        <v>6.936923076923076</v>
+      </c>
+      <c r="BB46">
+        <v>3.623333333333333</v>
+      </c>
+      <c r="BC46">
+        <v>4.66</v>
+      </c>
+      <c r="BD46">
+        <v>139.33</v>
+      </c>
+      <c r="BE46">
+        <v>140.8866666666667</v>
+      </c>
+      <c r="BF46">
+        <v>150.7633333333333</v>
+      </c>
+      <c r="BG46">
+        <v>144.86</v>
+      </c>
+      <c r="BH46">
+        <v>139.11</v>
+      </c>
+      <c r="BI46">
+        <v>158.7066666666667</v>
+      </c>
+      <c r="BJ46">
+        <v>165.44</v>
+      </c>
+      <c r="BK46">
+        <v>141.4466666666667</v>
+      </c>
+      <c r="BL46">
+        <v>207.58</v>
+      </c>
+      <c r="BM46">
+        <v>153.11</v>
+      </c>
+      <c r="BN46">
+        <v>139.6066666666667</v>
+      </c>
+      <c r="BO46">
+        <v>452.82</v>
+      </c>
+      <c r="BP46">
+        <v>126.9166666666667</v>
+      </c>
+      <c r="BQ46">
+        <v>168.29</v>
+      </c>
+      <c r="BR46">
+        <v>123.3233333333333</v>
+      </c>
+      <c r="BS46">
+        <v>7.810839670329671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:71">
+      <c r="A47" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B47">
+        <v>21631.61</v>
+      </c>
+      <c r="C47">
+        <v>3.58</v>
+      </c>
+      <c r="D47">
+        <v>3.58</v>
+      </c>
+      <c r="E47">
+        <v>10.74</v>
+      </c>
+      <c r="F47">
+        <v>126519</v>
+      </c>
+      <c r="G47">
+        <v>7001772.199999999</v>
+      </c>
+      <c r="H47">
+        <v>156402.85</v>
+      </c>
+      <c r="I47">
+        <v>19693.07</v>
+      </c>
+      <c r="J47">
+        <v>236199.51</v>
+      </c>
+      <c r="K47">
+        <v>2752476.89</v>
+      </c>
+      <c r="L47">
+        <v>54888.6</v>
+      </c>
+      <c r="M47">
+        <v>243404.87</v>
+      </c>
+      <c r="N47">
+        <v>5795705.609999999</v>
+      </c>
+      <c r="O47">
+        <v>282293.33</v>
+      </c>
+      <c r="P47">
+        <v>8176.24</v>
+      </c>
+      <c r="Q47">
+        <v>1153.57</v>
+      </c>
+      <c r="R47">
+        <v>322.31</v>
+      </c>
+      <c r="S47">
+        <v>40.9</v>
+      </c>
+      <c r="T47">
+        <v>584.9300000000001</v>
+      </c>
+      <c r="U47">
+        <v>1557.07</v>
+      </c>
+      <c r="V47">
+        <v>536.72</v>
+      </c>
+      <c r="W47">
+        <v>1411.36</v>
+      </c>
+      <c r="X47">
+        <v>239.95</v>
+      </c>
+      <c r="Y47">
+        <v>2096</v>
+      </c>
+      <c r="Z47">
+        <v>233.05</v>
+      </c>
+      <c r="AA47">
+        <v>23459.32</v>
+      </c>
+      <c r="AB47">
+        <v>4234.41</v>
+      </c>
+      <c r="AC47">
+        <v>27693.73</v>
+      </c>
+      <c r="AD47">
+        <v>1305.64</v>
+      </c>
+      <c r="AE47">
+        <v>26243.73</v>
+      </c>
+      <c r="AF47">
+        <v>24924.17</v>
+      </c>
+      <c r="AG47">
+        <v>288152.3</v>
+      </c>
+      <c r="AH47">
+        <v>783687.2000000001</v>
+      </c>
+      <c r="AI47">
+        <v>1071839.4</v>
+      </c>
+      <c r="AJ47">
+        <v>269154</v>
+      </c>
+      <c r="AK47">
+        <v>540250.8</v>
+      </c>
+      <c r="AL47">
+        <v>226794.8</v>
+      </c>
+      <c r="AM47">
+        <v>1107644.7</v>
+      </c>
+      <c r="AN47">
+        <v>1334439.4</v>
+      </c>
+      <c r="AO47">
+        <v>241964.2</v>
+      </c>
+      <c r="AP47">
+        <v>7.043333333333334</v>
+      </c>
+      <c r="AQ47">
+        <v>12.29</v>
+      </c>
+      <c r="AR47">
+        <v>4.736153846153845</v>
+      </c>
+      <c r="AS47">
+        <v>6.568461538461539</v>
+      </c>
+      <c r="AT47">
+        <v>2.032307692307692</v>
+      </c>
+      <c r="AU47">
+        <v>2.365384615384615</v>
+      </c>
+      <c r="AV47">
+        <v>5.793076923076923</v>
+      </c>
+      <c r="AW47">
+        <v>6.630769230769232</v>
+      </c>
+      <c r="AX47">
+        <v>3.405384615384615</v>
+      </c>
+      <c r="AY47">
+        <v>7.167692307692308</v>
+      </c>
+      <c r="AZ47">
+        <v>12.31307692307692</v>
+      </c>
+      <c r="BA47">
+        <v>7.042307692307692</v>
+      </c>
+      <c r="BB47">
+        <v>3.803333333333333</v>
+      </c>
+      <c r="BC47">
+        <v>4.883333333333333</v>
+      </c>
+      <c r="BD47">
+        <v>123.7766666666667</v>
+      </c>
+      <c r="BE47">
+        <v>131.76</v>
+      </c>
+      <c r="BF47">
+        <v>150.57</v>
+      </c>
+      <c r="BG47">
+        <v>147.8666666666667</v>
+      </c>
+      <c r="BH47">
+        <v>125.1266666666667</v>
+      </c>
+      <c r="BI47">
+        <v>161.7966666666667</v>
+      </c>
+      <c r="BJ47">
+        <v>167.4</v>
+      </c>
+      <c r="BK47">
+        <v>146.88</v>
+      </c>
+      <c r="BL47">
+        <v>214.14</v>
+      </c>
+      <c r="BM47">
+        <v>154.5633333333333</v>
+      </c>
+      <c r="BN47">
+        <v>143.9833333333333</v>
+      </c>
+      <c r="BO47">
+        <v>445.42</v>
+      </c>
+      <c r="BP47">
+        <v>119.1066666666667</v>
+      </c>
+      <c r="BQ47">
+        <v>177.88</v>
+      </c>
+      <c r="BR47">
+        <v>123.9733333333333</v>
+      </c>
+      <c r="BS47">
+        <v>7.770798555555555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/output/consumo_privado_dataset.xlsx
+++ b/data/output/consumo_privado_dataset.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
-    <t>gasto_consumo_final_hogar_isflsh</t>
+    <t>consumo_privado</t>
   </si>
   <si>
     <t>ipc_total</t>
